--- a/data/levelgroup-group-views.xlsx
+++ b/data/levelgroup-group-views.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="767">
   <si>
     <t>Внутренняя группа</t>
   </si>
@@ -47,6 +47,1575 @@
     <t>Экструдированный пенополистирол</t>
   </si>
   <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>Швеллер</t>
+  </si>
+  <si>
+    <t>ст3 горячекатанный; ст3 гнутый; 09Г2С гнутый; Ст3пс/сп5; Ст09Г2С</t>
+  </si>
+  <si>
+    <t>Двери,люки,ворота</t>
+  </si>
+  <si>
+    <t>Люк металлический</t>
+  </si>
+  <si>
+    <t>Группа ТХ</t>
+  </si>
+  <si>
+    <t>Мультимедийное оборудование</t>
+  </si>
+  <si>
+    <t>Фиброцементная, фибробетонная, хризотилцементная панель</t>
+  </si>
+  <si>
+    <t>Фиброцементная панель; Хризотилцементная панель; Фибробетонная панель</t>
+  </si>
+  <si>
+    <t>Материалы и оборудование для систем водоснабжения, канализации, водостока и пожаротушения</t>
+  </si>
+  <si>
+    <t>Оборудование водоподготовки</t>
+  </si>
+  <si>
+    <t>Кабельные изделия</t>
+  </si>
+  <si>
+    <t>Кабель</t>
+  </si>
+  <si>
+    <t>Оборудование и материалы для слаботочных сетей</t>
+  </si>
+  <si>
+    <t>Оборудование автоматизации и диспетчеризации</t>
+  </si>
+  <si>
+    <t>Материалы для благоустройство и озеленения</t>
+  </si>
+  <si>
+    <t>Водоотводной лоток; Решетки водоприемные; Кустарники; Деревья; Цветы</t>
+  </si>
+  <si>
+    <t>МАФ</t>
+  </si>
+  <si>
+    <t>Уличная мебель; ТБО</t>
+  </si>
+  <si>
+    <t>наружные сети</t>
+  </si>
+  <si>
+    <t>наружные сети связи</t>
+  </si>
+  <si>
+    <t>Сваи грунтоцементные</t>
+  </si>
+  <si>
+    <t>Портландцемент М400; Портландцемент М500; Состав для грунтоцементных свай</t>
+  </si>
+  <si>
+    <t>Материалы для монтажа</t>
+  </si>
+  <si>
+    <t>маты монтажные для теплых полов; шланг термостойкий; гибкие подводки для отопления; Шкафы коллекторные; теплоносители для систем теплоснабжения</t>
+  </si>
+  <si>
+    <t>Аппаратура</t>
+  </si>
+  <si>
+    <t>Аппараты защиты</t>
+  </si>
+  <si>
+    <t>пакетный выключатель и переключатель на ток до 25А; пакетный выключатель на ток до 100А; Автоматический выключатель на ток до 25 А; Автоматический выключатель на ток до 100 А; Выключатель нагрузки на ток до 100А</t>
+  </si>
+  <si>
+    <t>Сваи винтовые</t>
+  </si>
+  <si>
+    <t>СВЛ; ВСЛ; СВК; СВСН; СВН</t>
+  </si>
+  <si>
+    <t>Сваи анкерные</t>
+  </si>
+  <si>
+    <t>штанговые; прядевые; К2</t>
+  </si>
+  <si>
+    <t>Аппаратура комплектная</t>
+  </si>
+  <si>
+    <t>вводно-распределительные устройства комплектные до 10 панелей; вводно-распределительные устройства комплектные до 6 панелей; вводно-распределительные устройства комплектные до 8 панелей; панели ВРУ; панели АВР; панели ГРЩ; панели распределительные; Шинопроводы; ящик с понижаюшим трансформатором; установка компенсации реактивной мощности</t>
+  </si>
+  <si>
+    <t>Раствор</t>
+  </si>
+  <si>
+    <t>ЦП М10; ЦП М50; ЦП М75; ЦП М100; ЦП М150; ЦП М200; ЦП М250; ЦП М300; ЦП М350; ЦП М400; Бентонитовый; ЦП М800</t>
+  </si>
+  <si>
+    <t>М50; М75; М100; М150; М200; М250</t>
+  </si>
+  <si>
+    <t>Асфальтобетонная смесь</t>
+  </si>
+  <si>
+    <t>Марка 1 Тип А; Марка 1 Тип Б; Марка 2 Тип А; Марка 2 Тип Б; Марка 2 Тип В; Марка 2 Тип Д; Марка 3 Тип Д; Марка 3 Тип Б; Марка 1 Тип В</t>
+  </si>
+  <si>
+    <t>Раствор цементно-песчаный</t>
+  </si>
+  <si>
+    <t>цементно-песчаный; с армирующей добавкой фиброволокном</t>
+  </si>
+  <si>
+    <t>Раствор тампонажный</t>
+  </si>
+  <si>
+    <t>на основе портландцемента</t>
+  </si>
+  <si>
+    <t>Составы</t>
+  </si>
+  <si>
+    <t>быстротвердеющий</t>
+  </si>
+  <si>
+    <t>Арматура</t>
+  </si>
+  <si>
+    <t>Арматурный каркас; А240; А500С; Муфта; класс по проекту</t>
+  </si>
+  <si>
+    <t>Арматура для подключения отопительных приборов</t>
+  </si>
+  <si>
+    <t>клапаны термостатические; головки термостатические; терморегуляторы; трубки для радиатора</t>
+  </si>
+  <si>
+    <t>Регулирующая арматура</t>
+  </si>
+  <si>
+    <t>клапан термостатический; головка термостатическая; клапан радиаторный; терморегулятор</t>
+  </si>
+  <si>
+    <t>Пазогребневая плита</t>
+  </si>
+  <si>
+    <t>силикатная пустотелая; силикатная полнотелая; гипсовая пустотелая; гипсовая полнотелая; Силикатная пустотелая; Силикатная полнотелая; Гипсовая пустотелая; Гипсовая полнотелая</t>
+  </si>
+  <si>
+    <t>Пазогребневая плита влагостойкая</t>
+  </si>
+  <si>
+    <t>силикатная полнотелая; гипсовая пустотелая; гипсовая полнотелая; Силикатная полнотелая; Гипсовая пустотелая; Гипсовая полнотелая</t>
+  </si>
+  <si>
+    <t>Дорожные плиты</t>
+  </si>
+  <si>
+    <t>ПДН 1П; ПДН 2П; ПАГ 14; ПАГ 18; ПАГ 20; ПБ 1-16; ПДП; ПАГ</t>
+  </si>
+  <si>
+    <t>Площадки лестничные</t>
+  </si>
+  <si>
+    <t>Массой до 1 т; Массой более 1 т</t>
+  </si>
+  <si>
+    <t>Марши лестничные</t>
+  </si>
+  <si>
+    <t>Ступени</t>
+  </si>
+  <si>
+    <t>Основные; Верхние фризовые</t>
+  </si>
+  <si>
+    <t>Блоки вентиляционные</t>
+  </si>
+  <si>
+    <t>Массой до 1 т; Массой до 2,5 т</t>
+  </si>
+  <si>
+    <t>Блоки фундаментные</t>
+  </si>
+  <si>
+    <t>ФБС</t>
+  </si>
+  <si>
+    <t>Плиты перекрытий</t>
+  </si>
+  <si>
+    <t>Массой свыше 3 тн</t>
+  </si>
+  <si>
+    <t>Сталь различного профиля</t>
+  </si>
+  <si>
+    <t>массой до 100 кг; массой свыше 100 кг</t>
+  </si>
+  <si>
+    <t>Шпунт</t>
+  </si>
+  <si>
+    <t>Стальной б/у; Стальной; Стальной амортизация; Стальной возвратная стоимость; Ларсена</t>
+  </si>
+  <si>
+    <t>Арматура трубопроводная</t>
+  </si>
+  <si>
+    <t>Компенсаторы и вибровставки</t>
+  </si>
+  <si>
+    <t>Арматура трубопроводная запорная</t>
+  </si>
+  <si>
+    <t>кран шаровой латунный; кран трехходовой для манометра; кран шаровой для медных труб; кран пробно-спускной; кран шаровой стальной на фланцевых соединениях; кран шаровой чугунный на фланцевых соединениях; кран шаровой стальной на сварных соединениях; кран шаровой стальной на резьбовых соединениях; кран шаровой из нержавеющей стали; затвор дисковый поворотный; затвор дисковый; задвижка стальная шиберная; задвижка стальная клиновая; задвижка чугунная клиновая; задвижка чугунная; задвижка латунная; задвижка чугунная с электроприводом; ковер; затвор дисковый поворотный с электроприводом; кран шаровой стальной на фланцевых соединениях с электроприводом; вентиль запорный фланцевый стальной; вентиль запорный фланцевый чугунный</t>
+  </si>
+  <si>
+    <t>Ст3пс/сп5 горячекатанный; Ст3пс/сп5</t>
+  </si>
+  <si>
+    <t>Арматура трубопроводная прочая</t>
+  </si>
+  <si>
+    <t>фильтр муфтовый; фильтр фланцевый; регулятор давления; регулятор перепуска; редуктор давления; клапан обратный; клапан балансировочный; клапан регулирующий; клапан соленоидный; клапан предохранительный; клапан балансировочный с электроприводом; клапан радиаторный; узел обвязки балансировочного клапана; воздухоотводчик автоматический; узел воздухоотводчика; электроприводы</t>
+  </si>
+  <si>
+    <t>Базальтовая плита</t>
+  </si>
+  <si>
+    <t>плотность до 50кг/м3; плотность от 51 до 100кг/м3; плотность от 101 до 150 кг/м3</t>
+  </si>
+  <si>
+    <t>Проволока стальная</t>
+  </si>
+  <si>
+    <t>проволока стальная оцинкованная; пруток-катанка</t>
+  </si>
+  <si>
+    <t>Бак  расширительный</t>
+  </si>
+  <si>
+    <t>мембранный до 0,1м3; мембранный до 0,2м3; мембранный до 0,4м3; мембранный до 0,5м3; мембранный до 0,8м3; мембранный до 1м3; мембранный до 1,5м3</t>
+  </si>
+  <si>
+    <t>Лестницы, стремянки</t>
+  </si>
+  <si>
+    <t>черный металл; из алюминия; из черного металла; из оцинкованной стали</t>
+  </si>
+  <si>
+    <t>Бетон</t>
+  </si>
+  <si>
+    <t>В7,5 (M100); В10 (M150); В12,5 (М150); В15 (M200); В20 (M250); B22,5 (M300); B25 (M350); В27,5 (М350); B30 (M400); B35 (M450); B40 (M550); B45 (M600); B50 (M700); В55 (М700); В60 (М800); Цементное молочко; Архитектурный бетон; В10, В12,5 (M150); В90 (М1150)</t>
+  </si>
+  <si>
+    <t>Блок перегородочный</t>
+  </si>
+  <si>
+    <t>газобетонный; керамзитобетонный пустотелый; керамзитобетонный полнотелый; силикатный пустотелый; силикатный полнотелый; бетонный пустотелый; бетонный полнотелый; Газобетонный; Керамзитобетонный пустотелый; Керамзитобетонный полнотелый; Силикатный пустотелый; Силикатный полнотелый; Бетонный пустотелый; Бетонный полнотелый</t>
+  </si>
+  <si>
+    <t>Блок стеновой</t>
+  </si>
+  <si>
+    <t>газобетонный; керамзитобетонный пустотелый; керамзитобетонный полнотелый; силикатный полнотелый; бетонный пустотелый; бетонный полнотелый; Газобетонный; Керамзитобетонный пустотелый; Керамзитобетонный полнотелый; Силикатный полнотелый; Бетонный пустотелый; Бетонный полнотелый</t>
+  </si>
+  <si>
+    <t>Корзина для кондиционера</t>
+  </si>
+  <si>
+    <t>Оцинкованная сталь; Черная сталь; из оцинкованной стали; из черной стали; из алюминиевого профиля</t>
+  </si>
+  <si>
+    <t>Козырек на тягах</t>
+  </si>
+  <si>
+    <t>без описания; Закалённое стекло с тягами</t>
+  </si>
+  <si>
+    <t>Вентиляторы</t>
+  </si>
+  <si>
+    <t>Вентиляторы общеобменной вентиляции</t>
+  </si>
+  <si>
+    <t>вентиляторы крышные массой до 100 кг; вентиляторы крышные массой до 200 кг; вентиляторы радиальные массой до 100 кг; вентиляторы радиальные массой до 200 кг; вентиляторы радиальные массой до 400 кг; вентиляторы канальные круглые массой до 5 кг; вентиляторы канальные круглые массой до 10 кг; вентиляторы канальные круглые массой до 25 кг; вентиляторы канальные прямоугольные массой до 25 кг; вентиляторы канальные прямоугольные массой до 50 кг; вентиляторы бытовые накладные; вентиляторы канальные прямоугольные массой до 100 кг; вентиляторы канальные прямоугольные массой до 200 кг; Элементы вентиляционных установок</t>
+  </si>
+  <si>
+    <t>Анкерные крепления</t>
+  </si>
+  <si>
+    <t>клиновые анкеры; химические анкеры</t>
+  </si>
+  <si>
+    <t>Сталь листовая</t>
+  </si>
+  <si>
+    <t>оцинкованная; рифленая; листовая</t>
+  </si>
+  <si>
+    <t>Люк</t>
+  </si>
+  <si>
+    <t>стальной</t>
+  </si>
+  <si>
+    <t>Опорные конструкции</t>
+  </si>
+  <si>
+    <t>опорные конструкции до 100 кг; сборные</t>
+  </si>
+  <si>
+    <t>гильзы готовые</t>
+  </si>
+  <si>
+    <t>гильзы Salex</t>
+  </si>
+  <si>
+    <t>Временные конструкции</t>
+  </si>
+  <si>
+    <t>ограждение из профлиста; ограждение котлована</t>
+  </si>
+  <si>
+    <t>Изделия из алюминия</t>
+  </si>
+  <si>
+    <t>Отлив из алюминиевого листа окрашенный; Парапет из алюминиевого листа; Откос из алюминиевого листа окрашенный</t>
+  </si>
+  <si>
+    <t>Арматурный каркас</t>
+  </si>
+  <si>
+    <t>класс по проекту</t>
+  </si>
+  <si>
+    <t>Козырек</t>
+  </si>
+  <si>
+    <t>Закалённое стекло с тягами</t>
+  </si>
+  <si>
+    <t>Анкерное крепление</t>
+  </si>
+  <si>
+    <t>клиновой анкер; химический анкер</t>
+  </si>
+  <si>
+    <t>Листовой материал</t>
+  </si>
+  <si>
+    <t>Сталь оцинкованная; Сталь рифленая; Сталь профилированная; Сталь перфорированная; Алюминий анодированный; оцинкованная сталь с полимерным покрытием; оцинкованная сталь с порошковой окраской; алюминий; нержавеющая сталь; профилированный (профлист) окрашенный</t>
+  </si>
+  <si>
+    <t>Закладная деталь</t>
+  </si>
+  <si>
+    <t>гильза Salex</t>
+  </si>
+  <si>
+    <t>Отлив</t>
+  </si>
+  <si>
+    <t>из алюминиевого листа окрашенный; из алюминиевого листа неокрашенный</t>
+  </si>
+  <si>
+    <t>Откос</t>
+  </si>
+  <si>
+    <t>из алюминиевого листа окрашенный</t>
+  </si>
+  <si>
+    <t>Грунт</t>
+  </si>
+  <si>
+    <t>плодородный; растительный; торфяной; глинистый; Плодородный грунт; Растительный грунт; Торф; Почвогрунт "Эконом"; Грунт для засыпки; Субстрат</t>
+  </si>
+  <si>
+    <t>Пескогрунт</t>
+  </si>
+  <si>
+    <t>без описания</t>
+  </si>
+  <si>
+    <t>Песок</t>
+  </si>
+  <si>
+    <t>строительный; речной; кварцевый; морской; Строительный</t>
+  </si>
+  <si>
+    <t>Гравий</t>
+  </si>
+  <si>
+    <t>керамзитовый; керамзитовый с проливкой цементным молочком; речной; без описания</t>
+  </si>
+  <si>
+    <t>Вентиляторы противодымной вентиляции</t>
+  </si>
+  <si>
+    <t>вентиляторы дымоудаления радиальные массой до 100 кг; вентиляторы дымоудаления радиальные массой до 200 кг; вентиляторы дымоудаления радиальные массой до 400 кг; вентиляторы дымоудаления радиальные массой до 600 кг; вентиляторы дымоудаления радиальные массой до 800 кг; вентиляторы дымоудаления осевые массой до 100 кг; вентиляторы дымоудаления осевые массой до 200 кг; вентиляторы дымоудаления осевые массой до 400 кг; вентиляторы подпора осевые массой до 100 кг; вентиляторы подпора осевые массой до 200 кг; вентиляторы подпора осевые массой до 400 кг; противодымная завеса; вентилятор дымосос</t>
+  </si>
+  <si>
+    <t>Отсев</t>
+  </si>
+  <si>
+    <t>гранитный; мраморный</t>
+  </si>
+  <si>
+    <t>Смесь</t>
+  </si>
+  <si>
+    <t>песчано-гравийная; щебеночно-песчаная; цементно-песчаная</t>
+  </si>
+  <si>
+    <t>Щепа</t>
+  </si>
+  <si>
+    <t>сосновая; шишки; Сосновая; Лиственница</t>
+  </si>
+  <si>
+    <t>Керамзит</t>
+  </si>
+  <si>
+    <t>Керамзитовый гравий; Керамзитовый гравий под проливку молочком</t>
+  </si>
+  <si>
+    <t>Песчано-гравийная смесь</t>
+  </si>
+  <si>
+    <t>Щебеночно-песчаная смесь</t>
+  </si>
+  <si>
+    <t>Цементно-песчаная смесь</t>
+  </si>
+  <si>
+    <t>без описания; М-100; М-150; М-200</t>
+  </si>
+  <si>
+    <t>Гранитный отсев</t>
+  </si>
+  <si>
+    <t>фр.0-5</t>
+  </si>
+  <si>
+    <t>Вторичный щебень</t>
+  </si>
+  <si>
+    <t>Вторичный щебень бетонный</t>
+  </si>
+  <si>
+    <t>Смесь из щебня и грунта</t>
+  </si>
+  <si>
+    <t>Вентиляционные установки</t>
+  </si>
+  <si>
+    <t>приточные установки производительностью до 1000м3; приточные установки производительностью до 3000м3; приточные установки производительностью до 10000м3; приточные установки производительностью свыше 10000м3; приточные установки со смесительным узлом производительностью до 1000м3; приточные установки со смесительным узлом производительностью до 3000м3; приточные установки со смесительным узлом производительностью до 10000м3; приточные установки со смесительным узлом производительностью свыше 10000м3; вытяжные установки производительностью до 1000м3; вытяжные установки производительностью до 3000м3; вытяжные установки производительностью до 10000м3; вытяжные установки производительностью свыше 10000м3; вытяжные установки со смесительным узлом производительностью свыше 10000м3; приточно-вытяжные установки производительностью до 1000м3; приточно-вытяжные установки производительностью до 3000м3; приточно-вытяжные установки производительностью до 10000м3; приточно-вытяжные установки производительностью свыше 10000м3; приточно-вытяжные установки со смесительным узлом производительностью до 3000м3; приточно-вытяжные установки со смесительным узлом производительностью до 10000м3</t>
+  </si>
+  <si>
+    <t>Стекловолокно</t>
+  </si>
+  <si>
+    <t>без описания; плотность до 50кг/м3; плотность от 51 до 100кг/м3</t>
+  </si>
+  <si>
+    <t>Базальтовое волокно</t>
+  </si>
+  <si>
+    <t>без описания; плотность до 50кг/м3</t>
+  </si>
+  <si>
+    <t>Вентилятор дымоудаления</t>
+  </si>
+  <si>
+    <t>радиальный массой до 100 кг; радиальный массой до 200 кг; радиальный массой до 400 кг; радиальный массой до 600 кг; радиальный массой до 800 кг; осевой массой до 100 кг; осевой массой до 200 кг; осевой массой до 400 кг; крышные массой до 100 кг; крышные массой до 200 кг; крышные массой до 400 кг</t>
+  </si>
+  <si>
+    <t>Вентилятор подпора</t>
+  </si>
+  <si>
+    <t>осевой массой до 100 кг; крышной массой до 200 кг; осевой массой до 400 кг; крышные массой до 100 кг; крышные массой до 200 кг; крышные массой до 400 кг; осевой массой до 200 кг</t>
+  </si>
+  <si>
+    <t>Вспененный полиэтилен</t>
+  </si>
+  <si>
+    <t>Пеностекло</t>
+  </si>
+  <si>
+    <t>Блок; плотность от 101 до 150 кг/м3; плотность от 151 до 250 кг/м3</t>
+  </si>
+  <si>
+    <t>Пенополиуретан</t>
+  </si>
+  <si>
+    <t>PIR панель; Виброзащитные прорезиненные маты; Виброзащита; PIR панель фасадная; PIR панель кровельная</t>
+  </si>
+  <si>
+    <t>Прочие</t>
+  </si>
+  <si>
+    <t>Теплоизоляционные элементы; Звукопоглощающие плиты; Виброматы; Огнестойкая плита</t>
+  </si>
+  <si>
+    <t>Вентиляционная установка</t>
+  </si>
+  <si>
+    <t>приточная производительностью до 1000м3; приточная производительностью до 3000м3; приточная производительностью до 10000м3; приточная производительностью свыше 10000м3; приточная со смесительным узлом производительностью до 1000м3; приточная со смесительным узлом производительностью до 3000м3; приточная со смесительным узлом производительностью до 10000м3; приточная со смесительным узлом производительностью свыше 10000м3; вытяжная производительностью до 1000м3; вытяжная производительностью до 3000м3; вытяжная производительностью до 10000м3; вытяжная производительностью свыше 10000м3; вытяжная со смесительным узлом производительностью до 1000м3; вытяжная со смесительным узлом производительностью до 3000м3; вытяжная со смесительным узлом производительностью до 10000м3; вытяжная со смесительным узлом производительностью свыше 10000м3; приточно-вытяжная производительностью до 1000м3; приточно-вытяжная производительностью до 3000м3; приточно-вытяжная производительностью до 10000м3; приточно-вытяжная производительностью свыше 10000м3; приточно-вытяжная  со смесительным узлом производительностью до 1000м3; приточно-вытяжная  со смесительным узлом производительностью до 3000м3; приточно-вытяжная  со смесительным узлом производительностью до 10000м3; приточно-вытяжная  со смесительным узлом производительностью свыше 10000м3</t>
+  </si>
+  <si>
+    <t>Полиуретан</t>
+  </si>
+  <si>
+    <t>Виброзащитные маты</t>
+  </si>
+  <si>
+    <t>Сэндвич-панель</t>
+  </si>
+  <si>
+    <t>с минераловатным утеплителем</t>
+  </si>
+  <si>
+    <t>Теплоизоляционные элементы</t>
+  </si>
+  <si>
+    <t>Терморазъем</t>
+  </si>
+  <si>
+    <t>Водоотводной лоток</t>
+  </si>
+  <si>
+    <t>бетонный с решеткой; бетонный без решетки; полимербетон с решеткой; полимербетон без решетки; пластиковый без решетки; из нержавеющей стали без решетки; Бетонный; Полимербетон; Пластиковый</t>
+  </si>
+  <si>
+    <t>Плёнка</t>
+  </si>
+  <si>
+    <t>полиэтиленовая; диффузионная; ПВХ; полипропиленовая</t>
+  </si>
+  <si>
+    <t>Водоотводные устройства</t>
+  </si>
+  <si>
+    <t>Воронка водосточная кровельная; Воронка водосточная кровельная с электрообогревом; Воронка водосточная парапетная; Воронка капельная; Клапан воздушный канализационный; Клапан воздушный канализационный с электроприводом; Трап вертикальный; Трап горизонтальный</t>
+  </si>
+  <si>
+    <t>Геокомпозит</t>
+  </si>
+  <si>
+    <t>дренажный</t>
+  </si>
+  <si>
+    <t>Водосточные воронки, трапы, воздушные клапаны</t>
+  </si>
+  <si>
+    <t>воронки водосточные кровельные; воронки водосточные кровельные с электрообогревом; воронки водосточные парапетные; воронки капельные; воздушные канализационные клапаны; воздушные канализационные клапаны электрофицированные; трапы вертикальные; трапы горизонтальные; Закладное оборудование для бассейна</t>
+  </si>
+  <si>
+    <t>Воздуховоды</t>
+  </si>
+  <si>
+    <t>Кронштейн стеновой</t>
+  </si>
+  <si>
+    <t>воздуховоды из оцинкованной стали круглого сечения прямой участок; воздуховоды из оцинкованной стали круглого сечения фасонные части; воздуховоды из черной стали круглого сечения прямой участок; воздуховоды из ПВХ круглого сечения прямой участок; воздуховоды из ПВХ круглого сечения фасонные части; воздуховоды из оцинкованной стали прямоугольного сечения прямой участок; воздуховоды из оцинкованной стали прямоугольного сечения фасонные части; воздуховоды из черной стали прямоугольного сечения прямой участок; воздуховоды из черной стали прямоугольного сечения фасонные части; воздуховоды из ПВХ прямоугольного сечения прямой участок; воздуховоды из ПВХ прямоугольного сечения фасонные части; фильтры канальные круглые; фильтры канальные прямоугольные; фильтрационная установка; бактерицидная секция для прямоугольныx каналов; зонты круглые; зонты прямоугольные; компенсаторы тепловых расширений прямоугольного сечения; питометражный лючок; из оцинкованной стали круглого сечения; из оцинкованной стали прямоугольного сечения; из черной стали круглого сечения; из черной стали прямоугольного сечения; ПВХ круглого сечения; ПВХ прямоугольного сечения; гибкие круглого сечения</t>
+  </si>
+  <si>
+    <t>Воздухораспределители и решетки</t>
+  </si>
+  <si>
+    <t>решетки пластиковые; решетки металлические; диффузоры металлические; диффузоры пластиковые; клапаны приточные</t>
+  </si>
+  <si>
+    <t>Аэратор</t>
+  </si>
+  <si>
+    <t>кровельный; кровельный пластиковый</t>
+  </si>
+  <si>
+    <t>Пленка</t>
+  </si>
+  <si>
+    <t>Полиэтиленовая; Диффузионная; ПВХ; магнитная; маркерная</t>
+  </si>
+  <si>
+    <t>Воздушно-тепловая завеса</t>
+  </si>
+  <si>
+    <t>шириной до 1000 мм; шириной от 1001 до 1500 мм; шириной от 1501 до 2000 мм; шириной от 2001 до 2500 мм; шириной от 2501 до 3000 мм</t>
+  </si>
+  <si>
+    <t>Вставки гибкие</t>
+  </si>
+  <si>
+    <t>компенсаторы осевые сильфонные из нержавеющей стали для водоснабжения; компенсаторы осевые сильфонные из нержавеющей стали для отопления; компенсатор резиновый фланцевый; компенсаторы для пластиковых труб; вибровставки</t>
+  </si>
+  <si>
+    <t>Дренажный геокомпозит</t>
+  </si>
+  <si>
+    <t>Листовой отделочный материал</t>
+  </si>
+  <si>
+    <t>ГКЛ; ГКЛВ; ГКЛО; ГСП; ГВЛВ</t>
+  </si>
+  <si>
+    <t>Компенсатор</t>
+  </si>
+  <si>
+    <t>осевой сильфонный из нержавеющей стали; фланцевый резиновый; тепловых расширений прямоугольного сечения; тепловых расширений круглого сечения</t>
+  </si>
+  <si>
+    <t>Шпатлевка</t>
+  </si>
+  <si>
+    <t>гипсовая; полимерная; цементная; латексная; акриловая; Гипсовая; Полимерная; Цементная; Латексная; Акриловая</t>
+  </si>
+  <si>
+    <t>вставки гибкие круглые; вставки гибкие прямоугольные</t>
+  </si>
+  <si>
+    <t>Стеклохолст</t>
+  </si>
+  <si>
+    <t>малярный</t>
+  </si>
+  <si>
+    <t>Выключатели и переключатели</t>
+  </si>
+  <si>
+    <t>пакетные выключатели на ток до 25А; пакетные выключатели на ток до 100А; автоматические выключатели на ток до 25 А; автоматические выключатели на ток до 100 А; автоматические выключатели на ток до 400 А</t>
+  </si>
+  <si>
+    <t>Геотекстиль</t>
+  </si>
+  <si>
+    <t>нетканый иглопробивной; нетканый термоскрепленный; Нетканый иглопробивной</t>
+  </si>
+  <si>
+    <t>Террасная доска</t>
+  </si>
+  <si>
+    <t>ДПК полнотелая; ДПК; из термодревесины; из цельной древесины</t>
+  </si>
+  <si>
+    <t>Гидроизоляция</t>
+  </si>
+  <si>
+    <t>обмазочная; рулонная</t>
+  </si>
+  <si>
+    <t>Гидроизоляция обмазочная</t>
+  </si>
+  <si>
+    <t>Битум; Мастика битумная; Праймер битумный; Смесь сухая гидроизоляционная проникающего действия; Эластичная двухкомпонентная гидроизоляция; Мастика полимерная; Праймер битумно-полимерный; Мастика битумно-полимерный; Полимерная</t>
+  </si>
+  <si>
+    <t>Потолок реечный</t>
+  </si>
+  <si>
+    <t>алюминиевый; Алюминиевый</t>
+  </si>
+  <si>
+    <t>Потолок ячеистый</t>
+  </si>
+  <si>
+    <t>алюминиевый; стальной оцинкованный</t>
+  </si>
+  <si>
+    <t>Гидроизоляция рулонная</t>
+  </si>
+  <si>
+    <t>Обои</t>
+  </si>
+  <si>
+    <t>флизелиновые; виниловые на флизелиновой основе; Флизелиновые; Виниловые на флизелиновой основе под покраску</t>
+  </si>
+  <si>
+    <t>Грунтовка</t>
+  </si>
+  <si>
+    <t>акриловая; акрилатная; воднодисперсионная; полимерная; алкидная; глифталевая; силикатная; Акриловая; Акрилатная; Воднодисперсионная; Полимерная; Алкидная; Глифталевая; Грунтовка КМО класса</t>
+  </si>
+  <si>
+    <t>Двери, люки и ворота</t>
+  </si>
+  <si>
+    <t>Дверь межкомнатная из МДФ</t>
+  </si>
+  <si>
+    <t>покрытие ламинированная финишпленка остекленная; покрытие ламинированная финишпленка глухая; покрытие ПВХ остекленная; покрытие ПВХ глухая; покрытие экошпон остекленная; покрытие экошпон глухая; покрытие эмаль остекленная; покрытие эмаль глухая; покрытие шпон остекленная; покрытие шпон глухая; Покрытие ламинированная финишпленка; Покрытие ПВХ; Покрытие экошпон; Покрытие эмаль; Покрытие шпон</t>
+  </si>
+  <si>
+    <t>Ламинат</t>
+  </si>
+  <si>
+    <t>32 класс; 33 класс</t>
+  </si>
+  <si>
+    <t>Инженерная доска</t>
+  </si>
+  <si>
+    <t>дуб</t>
+  </si>
+  <si>
+    <t>Дверь квартирная металлическая</t>
+  </si>
+  <si>
+    <t>глухая; противопожарная EI60, глухая; Непротивопожарная,глухая; Противопожарная ЕI30,глухая; Противопожарная ЕIS60,глухая</t>
+  </si>
+  <si>
+    <t>Дверь общедомовая металлическая</t>
+  </si>
+  <si>
+    <t>непротивопожарная, глухая; непротивопожарная, остекленная; противопожарная EI15, глухая; противопожарная EI30, глухая; противопожарная EI45, глухая; противопожарная EI60, глухая; противопожарная EI90, глухая; противопожарная EI120, глухая; противопожарная EIS15, глухая; противопожарная EIS30, глухая; противопожарная EIS60, глухая; противопожарная EI15, остекленная; противопожарная EI30, остекленная; противопожарная EI45, остекленная; противопожарная EI60, остекленная; противопожарная EIS60, остекленная; Противопожарная EI15,глухая; Противопожарная EI30,глухая; Противопожарная EI30,остекленная; Противопожарная EIS30,глухая; Противопожарная EIS30, остекленная; Противопожарная EI60,глухая; Противопожарная EI60,остекленная; Противопожарная EIS60,глухая; Противопожарная EIS60, остекленная; Непротивопожарная,глухая; Непротивопожарная, остекленная; Для венткамер утепленная; Для венткамер неутепленная</t>
+  </si>
+  <si>
+    <t>Молдинг</t>
+  </si>
+  <si>
+    <t>гипс; пенополистирол; гипсовые; Керамогранит; Алюминий; Гипсовый; ПВХ; Деревянный</t>
+  </si>
+  <si>
+    <t>непротивопожарный скрытого монтажа; непротивопожарный открытого монтажа; противопожарный E30 скрытого монтажа; противопожарный E60 скрытого монтажа; противопожарный E90 скрытого монтажа; противопожарный EI30 скрытого монтажа; противопожарный EI60 скрытого монтажа; противопожарный EI90 скрытого монтажа; противопожарный EIS60 скрытого монтажа; противопожарный E30 открытого монтажа; противопожарный E60 открытого монтажа; противопожарный E90 открытого монтажа; противопожарный EI30 открытого монтажа; противопожарный EI60 открытого монтажа; противопожарный EI90 открытого монтажа; противопожарный EIS60 открытого монтажа; Смотровой; Противопожарный EI 60; Утепленный; Неутепленный</t>
+  </si>
+  <si>
+    <t>Люк-дверь</t>
+  </si>
+  <si>
+    <t>Противопожарный открытого монтажа; Противопожарный скрытого монтажа; Непротивопожарный скрытого монтажа</t>
+  </si>
+  <si>
+    <t>Двутавр</t>
+  </si>
+  <si>
+    <t>Ст3пс/сп5; Ст09Г2С; С245</t>
+  </si>
+  <si>
+    <t>Грязезащитное покрытие</t>
+  </si>
+  <si>
+    <t>резина текстиль; резина щетка скребок; оцинкованная решетка; металлическое</t>
+  </si>
+  <si>
+    <t>Профиль для деформационных швов</t>
+  </si>
+  <si>
+    <t>для пола; для стен и потолков</t>
+  </si>
+  <si>
+    <t>Перегородки стеклянные</t>
+  </si>
+  <si>
+    <t>душевые</t>
+  </si>
+  <si>
+    <t>Ковровое покрытие</t>
+  </si>
+  <si>
+    <t>Ковровая плитка</t>
+  </si>
+  <si>
+    <t>Аксессуары</t>
+  </si>
+  <si>
+    <t>Все; Аксессуары</t>
+  </si>
+  <si>
+    <t>Стеновая реечная система</t>
+  </si>
+  <si>
+    <t>алюминиевая; оцинкованная; деревянная</t>
+  </si>
+  <si>
+    <t>Камень натуральный</t>
+  </si>
+  <si>
+    <t>травертин; мрамор; кварцит</t>
+  </si>
+  <si>
+    <t>Гипсокартон</t>
+  </si>
+  <si>
+    <t>ГКЛ; ГКЛВ; ГКЛО</t>
+  </si>
+  <si>
+    <t>Стеклохолст малярный</t>
+  </si>
+  <si>
+    <t>Паутинка; Стеклохолст</t>
+  </si>
+  <si>
+    <t>Карниз потолочный</t>
+  </si>
+  <si>
+    <t>Пенополистирол</t>
+  </si>
+  <si>
+    <t>Люк ревизионный</t>
+  </si>
+  <si>
+    <t>Металлический</t>
+  </si>
+  <si>
+    <t>Табличка с номером этажа</t>
+  </si>
+  <si>
+    <t>Пластик; Тактильный пластик; Оргстекло; Алюминий; нерж. сталь окрашенная; Металл</t>
+  </si>
+  <si>
+    <t>Табличка навигации</t>
+  </si>
+  <si>
+    <t>Профили для деформационных швов</t>
+  </si>
+  <si>
+    <t>для пола; профили для стен и потолков; фасад</t>
+  </si>
+  <si>
+    <t>декоративный элемент</t>
+  </si>
+  <si>
+    <t>Декоративный элемент</t>
+  </si>
+  <si>
+    <t>с креплением; без крепления</t>
+  </si>
+  <si>
+    <t>Деревья</t>
+  </si>
+  <si>
+    <t>лиственные 60-100; лиственные 101-200; лиственные 201-300; лиственные 301-400; лиственные 401-500; лиственные 501-600; хвойные 20-50; хвойные 51-100; хвойные 101-150; хвойные 151-200; хвойные 201-300; хвойные 301-400; Лиственные 1-3 года; Лиственные 4-5 лет; Лиственные 6-7 года; Лиственные 8-10 года; Хвойные 1-3 года; Хвойные 4-5 года; Хвойные 6-7 года; Хвойные 8-10 года</t>
+  </si>
+  <si>
+    <t>Модули</t>
+  </si>
+  <si>
+    <t>глухой; с открыванием (встраиваемый оконный блок); ALT EF65; MSW80</t>
+  </si>
+  <si>
+    <t>Декоративные элементы</t>
+  </si>
+  <si>
+    <t>Ламели; Фасадные решетки; Лайтбокс; Профиль; Декоративные элементы; Облицовочные листовые материалы; Фасадные решётки; Корзины</t>
+  </si>
+  <si>
+    <t>Аквапанель</t>
+  </si>
+  <si>
+    <t>Композитная панель</t>
+  </si>
+  <si>
+    <t>Базальт; Алюминий</t>
+  </si>
+  <si>
+    <t>Дренажные и насосы</t>
+  </si>
+  <si>
+    <t>Насос водоснабжения</t>
+  </si>
+  <si>
+    <t>консольный моноблочный массой до 64 кг; консольный моноблочный массой до 170 кг; консольный моноблочный массой до 425 кг; консольный моноблочный массой до 600 кг; консольный моноблочный массой до 1500 кг; установка пожаротушения массой до 64 кг; установка пожаротушения массой до 170 кг; установка пожаротушения массой до 425 кг; установка пожаротушения массой до 600 кг; установка пожаротушения массой до 800 кг; установка пожаротушения массой до 1200 кг; установка пожаротушения массой до 2400 кг; установка повышения давления массой до 64 кг; установка повышения давления массой до 170 кг; установка повышения давления массой до 425 кг; установка повышения давления массой до 600 кг; установка повышения давления до 800 кг; установка повышения давления до 1100 кг; жокей-насос массой до 100 кг; жокей-насос массой до 150 кг; циркуляционный массой 100 кг</t>
+  </si>
+  <si>
+    <t>HPL панель</t>
+  </si>
+  <si>
+    <t>Плитка клинкерная</t>
+  </si>
+  <si>
+    <t>Стеклофибробетонная панель</t>
+  </si>
+  <si>
+    <t>Плитка из натурального камня</t>
+  </si>
+  <si>
+    <t>без описания; Габбро; Гранит</t>
+  </si>
+  <si>
+    <t>Стеклопанель</t>
+  </si>
+  <si>
+    <t>Полимербетонная панель</t>
+  </si>
+  <si>
+    <t>композитная</t>
+  </si>
+  <si>
+    <t>Профиль моллированный</t>
+  </si>
+  <si>
+    <t>ПВХ; алюминиевый; дерево-алюминиевый</t>
+  </si>
+  <si>
+    <t>Стоечно-ригельный профиль</t>
+  </si>
+  <si>
+    <t>алюминиевый</t>
+  </si>
+  <si>
+    <t>Спайдерная система</t>
+  </si>
+  <si>
+    <t>Стеклопакет</t>
+  </si>
+  <si>
+    <t>однокамерный; двухкамерный; трехкамерный</t>
+  </si>
+  <si>
+    <t>Стеклопакет молированный</t>
+  </si>
+  <si>
+    <t>однокамерный; двухкамерный</t>
+  </si>
+  <si>
+    <t>Стекло</t>
+  </si>
+  <si>
+    <t>незакаленное; закаленное; армированное; триплекс; огнестойкое</t>
+  </si>
+  <si>
+    <t>Стекло молированное</t>
+  </si>
+  <si>
+    <t>незакаленное; закаленное</t>
+  </si>
+  <si>
+    <t>Стеклоблок</t>
+  </si>
+  <si>
+    <t>Бесцветный</t>
+  </si>
+  <si>
+    <t>Насос холодоснабжения и отопления</t>
+  </si>
+  <si>
+    <t>установка поддержания давления; циркуляционный насос; вертикальный центробежный насос</t>
+  </si>
+  <si>
+    <t>Витражи</t>
+  </si>
+  <si>
+    <t>Алюминиевый профиль однокамерный стеклопакет; Алюминиевый профиль однокамерный стеклопакет противопожарные; Алюминиевый профиль двухкамерный стеклопакет противопожарные; Алюминиевый профиль двухкамерный стеклопакет</t>
+  </si>
+  <si>
+    <t>Стоечно-ригельная система</t>
+  </si>
+  <si>
+    <t>Алюминиевый профиль однокамерный стеклопакет; Алюминиевый профиль двухкамерный стеклопакет; Алюминиевый профиль однокамерный стеклопакет противопожарные; Алюминиевый профиль двухкамерный стеклопакет противопожарные</t>
+  </si>
+  <si>
+    <t>Дверной блок</t>
+  </si>
+  <si>
+    <t>Алюминиевый профиль двухкамерный стеклопакет</t>
+  </si>
+  <si>
+    <t>Фурнитура</t>
+  </si>
+  <si>
+    <t>Перегородки</t>
+  </si>
+  <si>
+    <t>Алюминиевый профиль однокамерный стеклопакет</t>
+  </si>
+  <si>
+    <t>Насосы водоснабжения</t>
+  </si>
+  <si>
+    <t>консольные и моноблочные насосы массой до 600 кг; установки пожаротушения массой до 170 кг; установки пожаротушения массой до 600 кг; установки пожаротушения массой до 800 кг; установки пожаротушения массой до 1200 кг; установки пожаротушения массой до 1500 кг; установки пожаротушения массой до 2100 кг; установки повышения давления массой до 64 кг; установки повышения давления массой до 170 кг; установки повышения давления массой до 425 кг; установки повышения давления массой до 600кг; установки повышения давления до 800 кг; установки повышения давления до 1100 кг; жокей-насосы массой до 150 кг; циркуляционные насосы</t>
+  </si>
+  <si>
+    <t>Дверь межкомнатная из массива</t>
+  </si>
+  <si>
+    <t>Покрытие шпон остекленная; Покрытие шпон глухая; Покрытие эмаль остекленная; Покрытие эмаль глухая; Массив дерева остекленная; Массив дерева глухая; Покрытие шпон; Покрытие эмаль; Массив дерева</t>
+  </si>
+  <si>
+    <t>Дверь межкомнатная стеклянная</t>
+  </si>
+  <si>
+    <t>покрытие пленкой; рифленое стекло</t>
+  </si>
+  <si>
+    <t>Дренажные и канализационные насосы</t>
+  </si>
+  <si>
+    <t>дренажный насос; канализационная насосная установка</t>
+  </si>
+  <si>
+    <t>Дверь квартирная из массива</t>
+  </si>
+  <si>
+    <t>Массив сосны; Массив дуба</t>
+  </si>
+  <si>
+    <t>Насосы холодоснабжения и отопления</t>
+  </si>
+  <si>
+    <t>установки поддержания давления; циркуляционные насосы</t>
+  </si>
+  <si>
+    <t>Дверь общедомовая деревянная</t>
+  </si>
+  <si>
+    <t>непротивопожарная,глухая; непротивопожарная, остекленная; противопожарная EI15, глухая; противопожарная, глухая; противопожарная EI60, остекленная; Противопожарная EI30,глухая; Противопожарная EI30,остекленная; Непротивопожарная,глухая</t>
+  </si>
+  <si>
+    <t>Дверь общедомовая стеклянная</t>
+  </si>
+  <si>
+    <t>непротивопожарная, остекленная; противопожарная El60, остекленная</t>
+  </si>
+  <si>
+    <t>Дверь временная деревянная</t>
+  </si>
+  <si>
+    <t>непротивопожарная,глухая</t>
+  </si>
+  <si>
+    <t>Задвижка</t>
+  </si>
+  <si>
+    <t>шиберная стальная; клиновая стальная; клиновая чугунная; клиновая латунная; шиберная стальная с электроприводом</t>
+  </si>
+  <si>
+    <t>Люк пластиковый</t>
+  </si>
+  <si>
+    <t>непротивопожарный открытого монтажа</t>
+  </si>
+  <si>
+    <t>Ворота секционные металлические</t>
+  </si>
+  <si>
+    <t>непротивопожарные глухие; непротивопожарные с калиткой; противопожарные глухие EI60; противопожарные EI60 с калиткой</t>
+  </si>
+  <si>
+    <t>Ворота рулонные металлические</t>
+  </si>
+  <si>
+    <t>непротивопожарные глухие; противопожарные глухие EI60</t>
+  </si>
+  <si>
+    <t>Ворота распашные металлические</t>
+  </si>
+  <si>
+    <t>противопожарные EI60 с дверью</t>
+  </si>
+  <si>
+    <t>Дверь квартирная деревянная</t>
+  </si>
+  <si>
+    <t>Дверь временная</t>
+  </si>
+  <si>
+    <t>Глухая</t>
+  </si>
+  <si>
+    <t>Дверь автоматическая карусельная</t>
+  </si>
+  <si>
+    <t>Затвор</t>
+  </si>
+  <si>
+    <t>дисковый поворотный; дисковый поворотный с электроприводом</t>
+  </si>
+  <si>
+    <t>Кухонное оборудование</t>
+  </si>
+  <si>
+    <t>Электропечь; Варочная панель; Микроволнова печь; Чайник электрический; Холодильник; Машина посудомоечная; Кулер; Кипятильник; Контейнер для пищевых отходов; Подтоварник; Стол производственный; Вытяжка</t>
+  </si>
+  <si>
+    <t>Прачечное и сушильное оборудование</t>
+  </si>
+  <si>
+    <t>Стиральная машина; Шкаф сушильный для одежды и обуви; Полотенцесушитель электрический; Рукосушитель; Фен; Сушильная машина</t>
+  </si>
+  <si>
+    <t>Музыкальный центр; Телевизор; Проектор</t>
+  </si>
+  <si>
+    <t>Музыкальное оборудование</t>
+  </si>
+  <si>
+    <t>Пианино; Пюпитр; Театральная ширма</t>
+  </si>
+  <si>
+    <t>Спортивное оборудование</t>
+  </si>
+  <si>
+    <t>Тренажер; Скамейка гимнастическая; Шведская стенка; Дорожка гимнастическая; Мат гимнастический; Спортивный инвентарь; Кольцо баскетбольное; Игровой комплекс</t>
+  </si>
+  <si>
+    <t>Медицинское оборудование</t>
+  </si>
+  <si>
+    <t>Облучатель-рециркулятор бактерицидный; Зонт вытяжной; Бак для медицинский отходов герметичный; Емкост-контейнер для сбора для сбора острого инструментария; Кушетка; Столик процедурный; Весы медицинские; Деструктор игл; Ростомер; Светильник медицинский; Стерилизатор; Холодильник; Видуар; Стул</t>
+  </si>
+  <si>
+    <t>Антитеррористическое и досмотровое оборудование</t>
+  </si>
+  <si>
+    <t>Металлодетектор ручной; Локализатор взрыва; Комлпект досмотровых зеркал; Комплект досмотровых зеркал</t>
+  </si>
+  <si>
+    <t>Уборочное оборудование</t>
+  </si>
+  <si>
+    <t>Подметальная машина</t>
+  </si>
+  <si>
+    <t>Оборудование и материалы для мусороудаления</t>
+  </si>
+  <si>
+    <t>Контейнер ТБО; Компактор</t>
+  </si>
+  <si>
+    <t>Изделия для проемов</t>
+  </si>
+  <si>
+    <t>Роллеты; Противопожарные шторы; роллеты; противопожарные шторы</t>
+  </si>
+  <si>
+    <t>Защитные средства для электрощитовых</t>
+  </si>
+  <si>
+    <t>указатель напряжения; инструмент диэлектрический; переносное заземление; плакаты и знаки безопасности; средства защиты; огнетушитель углекислотный; стенд для СИЗ; изолирующая штанга; огнетушители; стенды; оперативные изолирующие штанги</t>
+  </si>
+  <si>
+    <t>Фасадное оборудование</t>
+  </si>
+  <si>
+    <t>Cистема обслуживания фасада; Маркизы</t>
+  </si>
+  <si>
+    <t>Сантехническое оборудование/аксессуары</t>
+  </si>
+  <si>
+    <t>Диспенсер для бумажных полотенец; Дозатор для мыла</t>
+  </si>
+  <si>
+    <t>Стол</t>
+  </si>
+  <si>
+    <t>Кресло</t>
+  </si>
+  <si>
+    <t>Шкаф</t>
+  </si>
+  <si>
+    <t>Диван</t>
+  </si>
+  <si>
+    <t>Полка</t>
+  </si>
+  <si>
+    <t>Тумба</t>
+  </si>
+  <si>
+    <t>Картина</t>
+  </si>
+  <si>
+    <t>Зеркало</t>
+  </si>
+  <si>
+    <t>Штора</t>
+  </si>
+  <si>
+    <t>Столешница</t>
+  </si>
+  <si>
+    <t>Стойка-ресепшн</t>
+  </si>
+  <si>
+    <t>Мебель</t>
+  </si>
+  <si>
+    <t>Стол; Стул; Кресло; Пуф/банкетка; Шкаф; Диван; Кровать; Стеллаж; Вешалка; Скамейка; Полка; Тумба; Стойка-ресепшн; Столешница</t>
+  </si>
+  <si>
+    <t>Декор</t>
+  </si>
+  <si>
+    <t>Панель; Картина; Штора; Зеркало; Ковер; Растения; Скульптура; Ширма; Пьедестал; Панно; Рулонные шторы; Часы</t>
+  </si>
+  <si>
+    <t>Изделия из оцинкованной стали</t>
+  </si>
+  <si>
+    <t>Отлив оцинкованный с покрытием; Отлив оцинкованный окрашенный; Отлив оцинкованный неокрашенный; Откос оцинкованный с покрытием; Парапет оцинкованный с покрытием; Парапет оцинкованный окрашенный; Парапет оцинкованный неокрашенный; настилы из оцинкованной стали; Отлив с покрытием; Отлив окрашенный; Отлив неокрашенный; Откос с покрытием; Откос окрашенный; Откос неокрашенный; Парапет с покрытием; Парапет окрашенный; Парапет неокрашенный</t>
+  </si>
+  <si>
+    <t>инженерные сооружения наружных сетей</t>
+  </si>
+  <si>
+    <t>Ж/б днище колодца; Ж/б днище тепловой камеры; Ж/б колодец; Ж/б кольцо колодца; Ж/б кольцо тепловой камеры; Ж/б лоток; Ж/б плита перекрытия колодца; Ж/б плита перекрытия лотка; Ж/б подушка под опору трубопровода; Ж/б покрытие тепловой камеры; Пластиковый колодец; Пластиковый люк; Чугунный люк; Люк из оцинкованной стали</t>
+  </si>
+  <si>
+    <t>Кабеленесущие конструкции</t>
+  </si>
+  <si>
+    <t>труба ПВХ гофрированная; труба ПВХ жесткая гладкая; труба ПНД; металлорукав; труба полиэтиленовая ПНД; лоток перфорированный; лоток неперфорированный; лоток лестничный; крышка к лотку; профиль перфорированный; DIN-рейка; кабель-канал пластиковый шириной до 50мм; кабель-канал пластиковый шириной до 100мм; короб огнестойкий; лоток проволочный; труба ПА гофрированная; труба пластиковая гофрированная; труба ПВХ жесткая; Прочие материалы для кабельных трасс</t>
+  </si>
+  <si>
+    <t>Кабель для передачи информации</t>
+  </si>
+  <si>
+    <t>высокочастотного сигнала (коаксиальный); сетевой (витая пара); сетевой огнестойкий (витая пара); для интерфейса RS-485; для интерфейса RS-485 огнестойкий; управления, сигнализации и блокировки; управления, сигнализации и блокировки огнестойкий; сигнала управления (контрольный); сигнала управления (контрольный) огнестойкий; сигнала связи (оптический); сигнала связи (оптический) огнестойкий; микрофонных линий; телефонной сети; ОЗДС высоковольтный; проводного вещания</t>
+  </si>
+  <si>
+    <t>Калориферы</t>
+  </si>
+  <si>
+    <t>электрокалориферы канальные круглые; электрокалориферы канальные прямоугольные; водяной канальный калорифер круглый; водяной канальный калорифер прямоугольный</t>
+  </si>
+  <si>
+    <t>Металлоконструкции для крепления трубопроводов</t>
+  </si>
+  <si>
+    <t>Кирпич</t>
+  </si>
+  <si>
+    <t>рядовой пустотелый; рядовой полнотелый; лицевой пустотелый; лицевой полнотелый; Рядовой пустотелый; Рядовой полнотелый; Клинкерный; Лицевой пустотелый; Лицевой полнотелый</t>
+  </si>
+  <si>
+    <t>Клапан</t>
+  </si>
+  <si>
+    <t>обратный; соленоидный; предохранительный; регулирующий; балансировочный; балансировочный с электроприводом</t>
+  </si>
+  <si>
+    <t>Клапан общеобменной вентиляции</t>
+  </si>
+  <si>
+    <t>дроссельный круглый с ручным приводом; обратный круглый с ручным приводом; воздушный круглый с ручным приводом; ирисовый круглый с ручным приводом; дроссельный прямоугольный с ручным приводом периметром до 1000 мм; дроссельный прямоугольный с ручным приводом периметром до 1600 мм; дроссельный прямоугольный с ручным приводом периметром до 2400 мм; дроссельный прямоугольный с ручным приводом периметром до 3200 мм; дроссельный прямоугольный с ручным приводом периметром до 4500 мм; обратный прямоугольный с ручным приводом периметром до 1000мм; обратный прямоугольный с ручным приводом периметром до 1600мм; воздушный прямоугольный с электроприводом периметром до 1000 мм; воздушный прямоугольный с электроприводом периметром до 1600 мм; воздушный прямоугольный с электроприводом периметром до 2400 мм; воздушный прямоугольный с электроприводом периметром до 3200 мм; воздушный прямоугольный с электроприводом периметром до 4500 мм; воздушный прямоугольный с электроприводом периметром до 6000 мм; Заслонка прямоугольная регулирующая с электроприводом периметром до 1600мм; Заслонка прямоугольная регулирующая с электроприводом периметром до 2400мм; Заслонка прямоугольная регулирующая с электроприводом периметром до 3200мм; Заслонка воздушная круглая с электроприводом</t>
+  </si>
+  <si>
+    <t>Клапан противопожарный</t>
+  </si>
+  <si>
+    <t>круглый НО; круглый НЗ; прямоугольный НО периметром до 1000мм; прямоугольный НО периметром до 1600мм; прямоугольный НО периметром до 2400мм; прямоугольный НО периметром до 3200мм; прямоугольный НО периметром до 4500мм; прямоугольный НО периметром до 6000 мм; прямоугольный НЗ периметром до 1000 мм; прямоугольный НЗ периметром до 1600 мм; прямоугольный НЗ периметром до 2400 мм; прямоугольный НЗ периметром до 3200мм; прямоугольный НЗ периметром до 4500мм; прямоугольный НЗ периметром до 6000 мм; прямоугольный избыточного давления периметром до 1000 мм; прямоугольный избыточного давления  периметром до 1600 мм; прямоугольный избыточного давления периметром до 2400 мм; прямоугольный избыточного давления  периметром до 3200 мм; прямоугольный избыточного давления периметром до 4500 мм; прямоугольный морозостойкий воздухозаборный периметром до 1600мм; прямоугольный морозостойкий воздухозаборный периметром до 2400мм; прямоугольный морозостойкий воздухозаборный периметром до 4500мм; прямоугольный морозостойкий воздухозаборный периметром до 6000мм</t>
+  </si>
+  <si>
+    <t>Клапаны вентиляционные</t>
+  </si>
+  <si>
+    <t>Клапаны вентиляционные противопожарные</t>
+  </si>
+  <si>
+    <t>клапаны противопожарные круглые НО; клапаны противопожарные круглые НЗ; клапаны противопожарные прямоугольные НО периметром до 1400мм; клапаны противопожарные прямоугольные НО периметром до 1600мм; клапаны противопожарные прямоугольные НО периметром до 2400мм; клапаны противопожарные прямоугольные НО периметром до 3200мм; клапаны противопожарные прямоугольные НО периметром до 4500мм; клапаны противопожарные прямоугольные НО периметром до 6000 мм; клапаны противопожарные прямоугольные НЗ периметром до 1000 мм; клапаны противопожарные прямоугольные НЗ периметром до 1600 мм; клапаны противопожарные прямоугольные НЗ периметром до 2400 мм; клапаны противопожарные прямоугольные НЗ периметром до 3200мм; клапаны противопожарные прямоугольные НЗ периметром до 4500мм; клапаны противопожарные прямоугольные НЗ периметром до 6000 мм; клапаны противопожарные избыточного давления прямоугольные периметром до 1000 мм; клапаны противопожарные избыточного давления прямоугольные периметром до 1600 мм; клапаны противопожарные избыточного давления прямоугольные периметром до 2400 мм; клапаны противопожарные избыточного давления прямоугольные периметром до 3200 мм; клапаны противопожарные избыточного давления прямоугольные периметром до 4500 мм; клапаны морозостойкие воздухозаборные периметром до 1000мм; клапаны морозостойкие воздухозаборные периметром до 1600мм; клапаны морозостойкие воздухозаборные периметром до 2400мм; клапаны морозостойкие воздухозаборные периметром до 3200мм; клапаны морозостойкие воздухозаборные периметром до 4500мм; клапаны морозостойкие воздухозаборные периметром до 6000мм; клапаны морозостойкие воздухозаборные периметром до 8000мм</t>
+  </si>
+  <si>
+    <t>Клапаны вентиляционные общеобменной вентиляции</t>
+  </si>
+  <si>
+    <t>клапаны дроссельные круглые с ручным приводом; заслонки воздушные круглые с электроприводом; клапаны ирисовые; клапаны воздушные круглые с ручным приводом; клапаны дроссельные прямоугольные с ручным приводом периметром до 1000 мм; клапаны дроссельные прямоугольные с ручным приводом периметром до 1600 мм; клапаны дроссельные прямоугольные с ручным приводом периметром до 2400 мм; клапаны дроссельные прямоугольные с ручным приводом периметром до 3200 мм; клапаны дроссельные прямоугольные с ручным приводом периметром до 4500 мм; заслонки воздушные прямоугольные  с электроприводом периметром до 1000 мм; заслонки воздушные прямоугольные  с электроприводом периметром до 1600 мм; заслонки воздушные прямоугольные  с электроприводом периметром до 2400 мм; заслонки воздушные прямоугольные  с электроприводом периметром до 3200 мм; клапаны воздушные прямоугольные периметром до 1000 мм; клапаны воздушные прямоугольные периметром до 1600 мм; клапаны воздушные прямоугольные периметром до 2400 мм; клапаны воздушные прямоугольные периметром до 3200 мм; клапаны воздушные прямоугольные периметром до 4500 мм; клапаны воздушные прямоугольные  с электроприводом периметром до 1000 мм; клапаны воздушные прямоугольные  с электроприводом периметром до 1600 мм; клапаны воздушные прямоугольные  с электроприводом периметром до 2400 мм; клапаны воздушные прямоугольные с электроприводом периметром до 4500 мм; клапаны воздушные прямоугольные с электроприводом периметром до 6000 мм; клапаны обратные круглые; клапаны обратные прямоугольные периметром до 1000мм; клапаны обратные прямоугольные периметром до 1600мм; клапаны обратные прямоугольные периметром до 4500мм; Приводы для воздушных клапанов</t>
+  </si>
+  <si>
+    <t>Коллекторы, распределительные узлы</t>
+  </si>
+  <si>
+    <t>коллектор для воды</t>
+  </si>
+  <si>
+    <t>Коллектор для воды</t>
+  </si>
+  <si>
+    <t>латунный; из нержавеющей стали</t>
+  </si>
+  <si>
+    <t>Компьютеры и комплектующие</t>
+  </si>
+  <si>
+    <t>Компьютер в сборе; Жесткий диск; Программное обеспечение; Лицензия; Монитор; Принтер; Сервер; Автоматизированное рабочее место; Компьютеры в сборе; Оборудование стоек модульное; Мониторы; Принтеры; Прочее</t>
+  </si>
+  <si>
+    <t>Вентиль</t>
+  </si>
+  <si>
+    <t>фланцевый стальной; фланцевый чугунный</t>
+  </si>
+  <si>
+    <t>Кондиционер</t>
+  </si>
+  <si>
+    <t>Сплит-система с одним внутренним блоком мощностью до 5кВт; сплит-система с одним внутренним блоком мощностью до 8кВт; сплит-система с одним внутренним блоком мощностью свыше 8кВт; сплит-система на два внутренним блоком мощностью до 5кВт; сплит-система на два внутренним блоком мощностью до 8кВт; сплит-система на два внутренним блоком мощностью свыше 8кВт; сплит-система на три внутренних блока мощностью до 5кВт; сплит-система на три внутренним блоком мощностью до 8кВт; сплит-система на три внутренним блоком мощностью свыше 8кВт; чиллер; внешние блоки VRF мощностью до 20кВт; внешние блоки VRF мощностью до 40кВт; внешние блоки VRF мощностью до 60кВт; внутренние блоки VRF мощностью до 5кВт; внутренние блоки VRF мощностью до 8кВт; внутренние блоки VRF мощностью свыше 8кВт</t>
+  </si>
+  <si>
+    <t>Кондиционеры</t>
+  </si>
+  <si>
+    <t>сплит-системы с одним внутренним блоком мощностью до 5кВт; сплит-системы с одним внутренним блоком мощностью до 8кВт; сплит-системы с одним внутренним блоком мощностью свыше 8кВт; сплит-системы на 2 внутренних блока мощностью до 8кВт; сплит-системы на 3 внутренних блока мощностью до 5кВт; сплит-системы на 3 внутренних блока мощностью до 8кВт; сплит-системы на 4 внутренних блока мощностью свыше 8кВт; сплит-системы на 5 внутренних блока мощностью свыше 8кВт; внешние блоки VRF мощностью до 20кВт; внешние блоки VRF мощностью до 40кВт; внешние блоки VRF мощностью до 60кВт; внутренние блоки VRF мощностью до 5кВт; внутренние блоки VRF мощностью до 8кВт; внутренние блоки VRF мощностью свыше 8кВт; рефнеты; пульты управления кондиционерами; сифоны для кондиционеров; дренажные помпы; зимний комплект для кондиционера; клапан Шредера; Клапаны расширительные; фреон</t>
+  </si>
+  <si>
+    <t>Воздухоотводчик</t>
+  </si>
+  <si>
+    <t>автоматический</t>
+  </si>
+  <si>
+    <t>Регулятор</t>
+  </si>
+  <si>
+    <t>давления; перепуска</t>
+  </si>
+  <si>
+    <t>Редуктор давления</t>
+  </si>
+  <si>
+    <t>поршневой</t>
+  </si>
+  <si>
+    <t>Узел обвязки</t>
+  </si>
+  <si>
+    <t>балансировочного клапана</t>
+  </si>
+  <si>
+    <t>Кран</t>
+  </si>
+  <si>
+    <t>шаровой латунный муфтовый; шаровой латунный медный; шаровой стальной на фланцевых соединениях; шаровой стальной на сварных соединениях; шаровой стальной на резьбовых соединениях; шаровой из нержавеющей стали; шаровой чугунный на фланцевых соединениях; трехходовой латунный для манометра; пробно-спускной латунный</t>
+  </si>
+  <si>
+    <t>Краска</t>
+  </si>
+  <si>
+    <t>акриловая; силикатная; силиконовая; воднодисперсионная; латексная; кремнийорганическая; алкидно-уретановая; эмали; лаки; огнезащитные составы; масляная; эпоксидная; водоэмульсионная; резиновая; алкидная; Акриловая; Силикатная; Силиконовая; Воднодисперсионная; Латексная; Кремнийорганическая; Алкидно-уретановая; Эмали; Лаки; Огнезащитные составы; Масляная; Водоэмульсионная</t>
+  </si>
+  <si>
+    <t>Вибровставка</t>
+  </si>
+  <si>
+    <t>гибкая фланцевая</t>
+  </si>
+  <si>
+    <t>Кустарники</t>
+  </si>
+  <si>
+    <t>лиственные 41-80; лиственные 81-160; лиственные 161-280; лиственные 281-400; хвойные до 40; хвойные 41-80; хвойные 81-160; Лиственные 1-3 года; Лиственные 4-6 лет; Хвойные 1-3 года; Хвойные 4-6 лет</t>
+  </si>
+  <si>
+    <t>Насос канализации</t>
+  </si>
+  <si>
+    <t>дренажный; насосная установка</t>
+  </si>
+  <si>
+    <t>Лифты</t>
+  </si>
+  <si>
+    <t>Лифт</t>
+  </si>
+  <si>
+    <t>без машинного помещения грузоподъемностью до 450 кг; без машинного помещения грузоподъемностью до 630 кг; без машинного помещения грузоподъемностью до 1000 кг; без машинного помещения грузоподъемностью до 1300 кг; без машинного помещения грузоподъемность до 1500 кг; без машинного помещения грузоподъемность до 1600 кг; с машинным помещением грузоподъемностью до 450 кг; с машинным помещением грузоподъемностью до 630 кг; с машинным помещением грузоподъемностью до 1000 кг; с машинным помещением грузоподъемностью до 1300 кг; с машинным помещением грузоподъемностью до 1500 кг; с машинным помещением грузоподъемностью 1600 кг</t>
+  </si>
+  <si>
+    <t>лифты без машинного помещения грузоподъемностью 200 кг; лифты без машинного помещения грузоподъемностью 450 кг; лифты без машинного помещения грузоподъемностью 630 кг; лифты без машинного помещения грузоподъемностью 1000 кг; лифты без машинного помещения грузоподъемностью 1001-1100 кг; лифты без машинного помещения грузоподъемностью 800-999 кг; лифты без машинного помещения грузоподъемность 1425-1500 кг; Лифты без машинного помещения грузоподъемностью 1275 кг; лифты без машинного помещения грузоподъемностью 1501-1600 кг; лифты с машинным помещением грузоподъемностью 630 кг; лифты с машинным помещением грузоподъемностью 1000 кг; лифты с машинным помещением грузоподъемностью 1425 кг; Лифты с машинным помещением грузоподъемностью 800 кг; лифты с машинным помещением грузоподъемностью 1600кг; лифты с машинным помещением грузоподъемностью 1275 кг</t>
+  </si>
+  <si>
+    <t>Материалы для молниезащиты и заземления</t>
+  </si>
+  <si>
+    <t>стержни молниеприемные; заземлители; прочие</t>
+  </si>
+  <si>
+    <t>Материалы и оборудование для организации дорожного движения</t>
+  </si>
+  <si>
+    <t>Колесоотбойник; Шлагбаум; Опора для стрелы; Светофор; Исскуственная дорожная неровность; Дорожный знак; Дорожный указатель; Зеркало; Ворота; Демпфер; Болларды</t>
+  </si>
+  <si>
+    <t>Материалы и оборудование радиофикации</t>
+  </si>
+  <si>
+    <t>устройства подачи программ вещания; устройство оповещения; устройство сопряжения; модуль IP; Объектовая станция РСПИ; шкаф трансформаторный распределительный; мачта антенная; кронштейн; антенна; грозозащитный фильтр; радиорозетка; приемник радиовещательный; уличный модем; коробка радиотрансляционной сети; оборудование часофикации</t>
+  </si>
+  <si>
+    <t>Мембрана</t>
+  </si>
+  <si>
+    <t>диффузионная; профилированная; ПВХ; термопластичная (ТПО); пароизоляционная; противопожарная; Диффузионная; Профилированная; Термопластичная (ТПО); Пароизоляционная; Ветро-влагозащитная</t>
+  </si>
+  <si>
+    <t>Металлическая сетка</t>
+  </si>
+  <si>
+    <t>Сетка из проволоки ВР-I; Сетка сварная; Сетка сварная оцинкованная; Сетка сварная из арматуры В500С; Сетка плетеная; Сетка плетеная оцинкованная; Сетка цельнометаллическая просечно-вытяжная (ЦПВС); сварная; плетеная; ЦПВС</t>
+  </si>
+  <si>
+    <t>Металлокассеты</t>
+  </si>
+  <si>
+    <t>оцинкованная сталь с полимерным покрытием; оцинкованная сталь с порошковой окраской; алюминий; композитная алюминиевая; нержавеющая сталь; Оцинкованная сталь; Алюминий; Нержавеющая сталь; Медь</t>
+  </si>
+  <si>
+    <t>Минераловатная плита</t>
+  </si>
+  <si>
+    <t>без описания; Сэндвич-панель; плотность до 50кг/м3; плотность от 51 до 100кг/м3; плотность от 101 до 150 кг/м3; плотность от 151 до 250 кг/м3</t>
+  </si>
+  <si>
+    <t>Навигационные таблички</t>
+  </si>
+  <si>
+    <t>пластик; тактильный пластик; оргстекло; алюминий; латунь; трафарет; нержавеющая сталь; лайтбокс</t>
+  </si>
+  <si>
+    <t>Оборудование газового и порошкового пожаротушения</t>
+  </si>
+  <si>
+    <t>Модуль газового пожаротушения; Модуль порошкового пожаротушения; модули газового пожаротушения; модули порошкового пожаротушения</t>
+  </si>
+  <si>
+    <t>Табличка с номером квартиры</t>
+  </si>
+  <si>
+    <t>пластик; оргстекло; алюминий; латунь; нерж сталь окрашенная; Пластик; Оргстекло; Алюминий; Латунь; Нерж сталь окрашенная; Черная сталь окрашенная</t>
+  </si>
+  <si>
+    <t>Наливной пол</t>
+  </si>
+  <si>
+    <t>цементный; полимерный; эпоксидный; полиуретановый; Цементный; Полимерный; Эпоксидный; Полиуретановый</t>
+  </si>
+  <si>
+    <t>наружное освещение</t>
+  </si>
+  <si>
+    <t>закладные детали опор освещения; опоры освещения; блоки питания; светильники; временное; Закладные детали опор освещения; Опора освещения; Светильник; Прожектор; Блок питания</t>
+  </si>
+  <si>
+    <t>Оборудование</t>
+  </si>
+  <si>
+    <t>Оборудование тепловых пунктов</t>
+  </si>
+  <si>
+    <t>теплообменники пластинчатые; Водонагреватели; грязевики абонентские; охладители проб; блочные тепловые пункты до 0,4 МВт; стремянки, подставки монтажные</t>
+  </si>
+  <si>
+    <t>Оборудование ОПС</t>
+  </si>
+  <si>
+    <t>прибор приемно-контрольный; пульт контроля и управления; прибор приемно-контрольный адресный; блок индикации; пульт дистанционного управления; Центральный прибор управления  ОПС; модуль сопряжения; преобразователь интерфейса; модуль реле; интерфейсный модуль; модуль управления клапаном дымоудаления; блок контрольно-пусковой; блок сигнально-пусковой; контроллер ОПС; повторитель  интерфейса; извещатель пожарный дымовой адресный; извещатель пожарный дымовой автономный; извещатель пожарный тепловой адресный; извещатель пожарный ручной; устройство дистанционного пуска; датчик положения пожарного крана; извещатель охранный магнитоконтактный; извещатель охранный акустический; извещатель охранный объемный; извещатель охранный ручной; адресная метка; адресный расширитель; промежуточные устройства и блоки; Контроллер алресных устройств; Извещатель утечки газа; приборы приемно-контрольные на 2-10 лучей; приборы приемно-контрольные на 20 лучей; приборы приемно-контрольные адресные; приборы пусковые; блоки индикации; пульты дистанционного управления; АРМ ОПС; модули сопряжения; повторитель/преобразователь/разделитель интерфейса; релейные модули; интерфейсные модули; модули управления дымоудалением; блоки контрольно-пусковые; блоки сигнально-пусковые; контроллеры ОПС; извещатели пожарные дымовые точечные; извещатели пожарные дымовые линейные; извещатели пожарные тепловые; извещатели пожарные ручные; устройства дистанционного пуска; извещатели пожарные пламени; датчики положения пожарного крана; извещатели охранные магнитоконтактные; извещатели охранные акустические; извещатели охранные объемные; извещатели охранные ручные; адресные метки; адресные расширители</t>
+  </si>
+  <si>
+    <t>Оборудование оповещения и диспетчерской связи</t>
+  </si>
+  <si>
+    <t>прибор управления оповещением; магнитофон; усилитель трансляционный; распределитель программный; блок речевого оповещения; селектор; блок коммутации; блок аварийной сигнализации; блок контроля линий оповещения; блок системы обратной связи; карта речевого оповещения; Громкоговоритель; оповещатель звуковой; оповещатель светозвуковой; табло световое; оповещатель световой; лампа сигнальная; кнопка вызова/сброса; табличка тактильная; вызывная панель; микрофон; микрофонная консоль; Табло отображения; приборы управления оповещением; магнитофоны; усилители трансляционные; распределители программные; блоки речевого оповещения; селекторы; блоки коммутации; блоки аварийной сигнализации; блоки контроля линий; блоки обратной связи; карты речевого оповещения; блоки защиты; оповещатели речевые; оповещатели звуковые; оповещатели светозвуковые; табло световые; оповещатели световые; лампы сигнальные; кнопки вызова; таблички тактильные; вызывные панели; микрофоны; микрофонные консоли; монтажные материалы</t>
+  </si>
+  <si>
+    <t>Узлы смесительные</t>
+  </si>
+  <si>
+    <t>узлы смесительные без насосов; узлы смесительные с насосами</t>
+  </si>
+  <si>
+    <t>шкаф управления пожарный; шкаф управления задвижкой; Прибор управления оборудованием; прибор управления насосами; Контроллер; концентратор; Блок диспетчеризации; блок питания и сигнализации; датчик температуры; датчики давления (реле, преобразователи); датчик протечки; выключатель поплавковый; частотный преобразователь; датчик загазованности; устройства переговорные; устройство мониторинга; преобразователь интерфейса; регулятор скорости; счетчик импульсов-регистратор; сигнализатор уровня жидкости; Модуль ввода/вывода/расширения; щиты автоматизации; Пульты диспетчеризации; Ретранслятор; Модули диспетчеризации; комплект КИПиА; датчик расстояния; прочие материалы; пульты диспетчеризации; приборы управления насосами; Контроллеры; концентраторы; датчики температуры; датчики давления; датчики протечки; выключатели поплавковые; частотные преобразователи; датчики загазованности; датчики освещенности; датчики потока; устройства мониторинга; регуляторы скорости; счетчики импульсов; сигнализаторы уровня жидкости; Модули ввода/вывода/расширения; монтажные материалы</t>
+  </si>
+  <si>
+    <t>Оборудование контроля доступа</t>
+  </si>
+  <si>
+    <t>контроллер доступа; контроллер замка; замок электромеханический; замок электромагнитный; Электронный ключ Touch Memory; доводчик дверной; доводчик дверной с электроприводом; кнопка выхода; считыватель; стойка для считывателя; фотоэлемменты; блок светофорного регулирования; пост управления для ворот; детектор магнитной петли; брелок-передатчик; радиоплата; антенна; устройство  переговорное; блоки вызова домофона; пульт консьержа; блок коммутации; коммутатор сетевых подключений; монитор видеодомофона; блок управления домофоном; транспортный идентификатор; турникеты; контроллеры доступа; контроллеры замка; замки электромеханические; замки электромагнитные; ключи ТМ; доводчики дверные; доводчики дверные с электроприводом; кнопки выхода; считыватели; стойки для считывателя; комплект фотоэлементов; блоки светофорного регулирования; посты управления для ворот; детекторы магнитоной петли; брелоки-передатчики; радиоплаты; антенны; устройства  переговорные; пульты консьержа; блоки коммутации; видеомониторы абонентские; блоки управления домофоном</t>
+  </si>
+  <si>
+    <t>Оборудование видеонаблюдения</t>
+  </si>
+  <si>
+    <t>АРМ видеонаблюдения; видеокамера наружной установки; видеокамера внутренней установки; устройство грозозащиты; кронштейн; монтажная коробка; видеосервер; видеорегистраторы на 8 каналов; видеокамеры наружной установки; видеокамеры наружной установки купольные; видеокамеры внутренней установки купольные; устройства грозозащиты; кронштейны; монтажные коробки; видеосерверы</t>
+  </si>
+  <si>
+    <t>Оборудование СКС</t>
+  </si>
+  <si>
+    <t>коммутатор на 4 порта; коммутатор на 8 портов; коммутатор на 16 портов; коммутатор на 18 портов; коммутатор на 24 порта; коммутатор на 28 портов; коммутаторы на 48 портов; патч-панель 12 портов; патч-панель до 24 порта; патч-панель до 48 портов; кросс оптический; патч-корд; шкаф телекоммуникационный навесной; шкаф телекоммуникационный стоечный; комплектующие шкафов телекоммуникационных; модем оптический; конвертер; SFP-модули оптические; Маршрутизатор; Wi-Fi контроллер; Точка доступа; Проводной телефон; POE -удлинители; коммутаторы на 5 портов; коммутаторы на 8 портов; коммутаторы на 16 портов; коммутаторы на 24 порта; коммутаторы на 28 портов; коммутаторы на 18 портов; патч-панели; патч-панель 24 порта; патч-панель 48 портов; кроссы оптические; патч-корды; шкафы телекоммуникационные навесные и комплектующие; шкафы телекоммуникационные стоечные и комплектующие; медиаконвертеры; Маршрутизаторы, wi-fi контроллеры; IP- телефоны</t>
+  </si>
+  <si>
+    <t>Оборудование питания</t>
+  </si>
+  <si>
+    <t>блоки питания резервированные; блок питания стабилизированный; источник бесперебойного питания; блоки питания на DIN-рейку; батарея аккумуляторная; шкаф с блоком питания; блок питания для систем оповещения; блок питания для домофонной связи; блок питания для камеры видеонаблюдения; блок аварийного питания; блоки питания резервированные с АКБ; блоки питания универсальные; блоки питания на 220В; батарейные модули; блоки питания для систем оповещения; блоки питания для домофонной связи; блоки питания для камер видеонаблюдения; модуль управления</t>
+  </si>
+  <si>
+    <t>Оборудование радиофикации</t>
+  </si>
+  <si>
+    <t>устройства подачи программ вещания; устройства оповещения; устройства сопряжения; модуль IP; оборудование радиоканальной передачи извещений; шкафы трансформаторные распределителные; мачты антенные; кронштейны; антенны; грозозащитные фильтры; радиорозетки; радиоприемники трехпрограммные; уличные модемы; коробки ограничительные</t>
+  </si>
+  <si>
+    <t>Узел смесительный</t>
+  </si>
+  <si>
+    <t>без насосов; с насосами</t>
+  </si>
+  <si>
+    <t>Ограждение лестниц, кровли, балконов и лоджий</t>
+  </si>
+  <si>
+    <t>черный металл; нержавеющая сталь; нержавеющая сталь со стеклом триплекс; Стекло триплекс; алюминий; стекло стемалит; из черного металла; из нержавеющей стали; из стекла; из алюминия; из оцинкованной стали</t>
+  </si>
+  <si>
+    <t>Ограждение уличное</t>
+  </si>
+  <si>
+    <t>Ограждение территории; Ограждение газонное; территории; газонное</t>
+  </si>
+  <si>
+    <t>Окна</t>
+  </si>
+  <si>
+    <t>ПВХ профиль однокамерный стеклопакет; ПВХ профиль двухкамерный стеклопакет; Алюминиевый профиль однокамерный стеклопакет; Алюминиевый профиль однокамерный стеклопакет противопожарные; Алюминиевый профиль двухкамерный стеклопакет противопожарные; Алюминиевый профиль двухкамерный стеклопакет; Моллированный алюминиевый профиль однокамерный стеклопакет</t>
+  </si>
+  <si>
+    <t>Водонагреватель</t>
+  </si>
+  <si>
+    <t>промышленный</t>
+  </si>
+  <si>
+    <t>Грязевик  абонентский</t>
+  </si>
+  <si>
+    <t>вертикальный</t>
+  </si>
+  <si>
+    <t>Охладитель проб</t>
+  </si>
+  <si>
+    <t>сетевой воды</t>
+  </si>
+  <si>
+    <t>Электрический котел</t>
+  </si>
+  <si>
+    <t>с насосом</t>
+  </si>
+  <si>
+    <t>Опоры</t>
+  </si>
+  <si>
+    <t>Опоры для труб</t>
+  </si>
+  <si>
+    <t>опоры подвижные; опоры неподвижные</t>
+  </si>
+  <si>
+    <t>Опора для трубопроводов</t>
+  </si>
+  <si>
+    <t>подвижная; неподвижная</t>
+  </si>
+  <si>
     <t>Отдельные элементы</t>
   </si>
   <si>
@@ -56,64 +1625,313 @@
     <t>Листовой отделочный материал; Плинтус; Навигационные таблички; Паркетная доска; Аксессуары; Линолеум; Каучуковые покрытия</t>
   </si>
   <si>
-    <t>Двери,люки,ворота</t>
-  </si>
-  <si>
-    <t>Люк металлический</t>
-  </si>
-  <si>
-    <t>Группа ТХ</t>
-  </si>
-  <si>
-    <t>Мультимедийное оборудование</t>
-  </si>
-  <si>
-    <t>Арматура трубопроводная</t>
-  </si>
-  <si>
-    <t>Компенсаторы и вибровставки</t>
-  </si>
-  <si>
-    <t>Материалы и оборудование для систем водоснабжения, канализации, водостока и пожаротушения</t>
-  </si>
-  <si>
-    <t>Оборудование водоподготовки</t>
-  </si>
-  <si>
-    <t>Кабельные изделия</t>
-  </si>
-  <si>
-    <t>Кабель</t>
-  </si>
-  <si>
-    <t>Оборудование и материалы для слаботочных сетей</t>
-  </si>
-  <si>
-    <t>Оборудование автоматизации и диспетчеризации</t>
-  </si>
-  <si>
-    <t>Материалы для благоустройство и озеленения</t>
-  </si>
-  <si>
-    <t>Водоотводной лоток; Решетки водоприемные; Кустарники; Деревья; Цветы</t>
-  </si>
-  <si>
-    <t>МАФ</t>
-  </si>
-  <si>
-    <t>Уличная мебель; ТБО</t>
-  </si>
-  <si>
-    <t>наружные сети</t>
-  </si>
-  <si>
-    <t>наружные сети связи</t>
-  </si>
-  <si>
-    <t>Сваи грунтоцементные</t>
-  </si>
-  <si>
-    <t>Портландцемент М400; Портландцемент М500; Состав для грунтоцементных свай</t>
+    <t>Отдельные элементы детской площадки</t>
+  </si>
+  <si>
+    <t>подвесные; отдельностоящие игровые; отдельностоящие спортивные; информационные</t>
+  </si>
+  <si>
+    <t>отдельные элементы площадки</t>
+  </si>
+  <si>
+    <t>Отопительный прибор</t>
+  </si>
+  <si>
+    <t>Отопительные приборы</t>
+  </si>
+  <si>
+    <t>радиаторы панельные стальные с нижним подключением; радиаторы панельные стальные боковым подключением; радиаторы трубчатые стальные настенные с боковым подключением; радиаторы трубчатые стальные настенные с нижним подключением; конвекторы настенные; конвекторы напольные; конвекторы внутрипольные; конвекторы электрические; регистры из гладких труб; кронштейны; тепловентиляторы</t>
+  </si>
+  <si>
+    <t>радиатор панельный стальной с нижним подключением; радиатор панельный стальной боковым подключением; радиатор трубчатый стальной настенный с боковым подключением; радиатор трубчатый стальной настенный с нижним подключением; радиатор трубчатый стальной напольный с боковым подключением; конвектор настенный; конвектор напольный; конвектор внутрипольный; конвектор универсальный (электрический); регистр из гладких труб; тепловентилятор</t>
+  </si>
+  <si>
+    <t>Панель</t>
+  </si>
+  <si>
+    <t>композитная базальтовая; композитная алюминиевая; фиброцементная; хризотилцементная; фибробетонная; HPL; Терракотовая; алюминиевая</t>
+  </si>
+  <si>
+    <t>Панель облицовочная</t>
+  </si>
+  <si>
+    <t>ЗИПС; Пластиковая; ДВП; МДФ; массив; гипсовая; стеклянная; зеркальная; алюминиевая; цементная; цементно-стружечная; стекломагниевая; нержавеющая сталь; асбесто-цементная; ПВХ; ЛДСП; акриловая; латунная; мраморная; стеклофибробетонная; стеклокомпозитная; Массив; Гипсовая; Стеклянная; Зеркальная; Алюминиевая; Аквапанель; Цементно-стружечная плита; Стекломагниевый лист; панели из нержавеющей стали; Асбесто-цементный лист; Картеновая; Хризотил-цементная плита; экран из электротехнической стали</t>
+  </si>
+  <si>
+    <t>Пенопласт</t>
+  </si>
+  <si>
+    <t>без описания; ПСБ-С 35; ПСБ-С 50; плотность до 50кг/м3</t>
+  </si>
+  <si>
+    <t>Плинтус</t>
+  </si>
+  <si>
+    <t>ПВХ; керамогранит; алюминий; полистирол; керамическая плитка; ЛДФ; латунь; нержавеющая сталь</t>
+  </si>
+  <si>
+    <t>Плитка</t>
+  </si>
+  <si>
+    <t>Плита потолочная</t>
+  </si>
+  <si>
+    <t>минеральное волокно; стальная; стекловолокно; алюминиевая; ячеистая алюминиевая; ячеистая стальная; Минеральное волокно; Стальная панель; Стекловолокно; Алюминиевая панель; Ячеистая; ПВС</t>
+  </si>
+  <si>
+    <t>Дымоходы</t>
+  </si>
+  <si>
+    <t>из нержавеющей стали</t>
+  </si>
+  <si>
+    <t>Чиллер</t>
+  </si>
+  <si>
+    <t>Сухой охладитель</t>
+  </si>
+  <si>
+    <t>керамогранитная; керамическая; гранитная; клинкерная; доломитовая; из натурального мрамора; известняковая; поливинилхлоридная; Керамогранитная; Керамическая; Гранитная; Клинкерная; Затирка; натуральный камень; бетонная</t>
+  </si>
+  <si>
+    <t>Вставка гибкая</t>
+  </si>
+  <si>
+    <t>прямоугольного сечения; круглого сечения; термостойкая прямоугольного сечения; термостойкая круглого сечения</t>
+  </si>
+  <si>
+    <t>Плитка тротуарная</t>
+  </si>
+  <si>
+    <t>бетонная; гранитная; Бетонная; Натуральный камень; Композитная</t>
+  </si>
+  <si>
+    <t>Диффузор</t>
+  </si>
+  <si>
+    <t>пластиковый круглый; пластиковый прямоугольный; металлический круглый; металлический прямоугольный</t>
+  </si>
+  <si>
+    <t>Подоконная доска</t>
+  </si>
+  <si>
+    <t>ПВХ; Деревянная; искусственный камень; Искусственный камень</t>
+  </si>
+  <si>
+    <t>Покрытие воздуховодов огнезащитное и теплозащитное</t>
+  </si>
+  <si>
+    <t>базальтовое; стекловолоконное; комбинированное; вспененный каучук; вспененный полиэтилен</t>
+  </si>
+  <si>
+    <t>Вентилятор крышный</t>
+  </si>
+  <si>
+    <t>прямоугольный массой до 100 кг; прямоугольный массой до 200 кг; прямоугольный массой до 400 кг</t>
+  </si>
+  <si>
+    <t>Вентилятор канальный</t>
+  </si>
+  <si>
+    <t>круглый массой до 5 кг; круглый массой до 10 кг; прямоугольный массой до 25 кг; прямоугольный массой до 50 кг</t>
+  </si>
+  <si>
+    <t>Покрытия огнезащитные и теплозащитные</t>
+  </si>
+  <si>
+    <t>покрытия базальтовые для воздуховодов; покрытия стекловолоконные для воздуховодов; покрытия комбинированные для воздуховодов</t>
+  </si>
+  <si>
+    <t>Полоса стальная</t>
+  </si>
+  <si>
+    <t>Полоса стальная оцинкованная; Полоса стальная неоцинкованная; Ст3пс/сп5</t>
+  </si>
+  <si>
+    <t>Вентилятор дымосос</t>
+  </si>
+  <si>
+    <t>переносной массой до 30 кг</t>
+  </si>
+  <si>
+    <t>Завеса</t>
+  </si>
+  <si>
+    <t>противодымная</t>
+  </si>
+  <si>
+    <t>Потолок натяжной</t>
+  </si>
+  <si>
+    <t>полотно ПВХ; полотно тканевое; Полотно ПВХ; Полотно тканевое</t>
+  </si>
+  <si>
+    <t>Почтовый ящик</t>
+  </si>
+  <si>
+    <t>окрашенная сталь; нержавеющая сталь; Окрашенная сталь,ключевой замок; Окрашенная сталь, электронный замок; Нержавеющая сталь,ключевой замок</t>
+  </si>
+  <si>
+    <t>Прибор осветительный</t>
+  </si>
+  <si>
+    <t>патрон; светильники светодиодные; лента светодиодная; табло световое; прибор светосигнальный; светильник переносной; блок управления освещением; датчик движения; светильники трековые; Шинопровод (трек)</t>
+  </si>
+  <si>
+    <t>Дренаж кондиционеров</t>
+  </si>
+  <si>
+    <t>сифон; дренажная помпа</t>
+  </si>
+  <si>
+    <t>Комплект кондиционеров</t>
+  </si>
+  <si>
+    <t>зимний; всесезонный(низкотемпературный) комплекс; Комплект автоматики</t>
+  </si>
+  <si>
+    <t>Клапан кондиционирования</t>
+  </si>
+  <si>
+    <t>Шредера</t>
+  </si>
+  <si>
+    <t>Хладагент</t>
+  </si>
+  <si>
+    <t>фреон</t>
+  </si>
+  <si>
+    <t>Электрокалорифер</t>
+  </si>
+  <si>
+    <t>канальный круглый; канальный прямоугольный</t>
+  </si>
+  <si>
+    <t>Зонт</t>
+  </si>
+  <si>
+    <t>Прямоугольный; Круглый</t>
+  </si>
+  <si>
+    <t>Вентилятор накладной</t>
+  </si>
+  <si>
+    <t>круглого сечения</t>
+  </si>
+  <si>
+    <t>Клапан приточный</t>
+  </si>
+  <si>
+    <t>оконный</t>
+  </si>
+  <si>
+    <t>Прибор учета</t>
+  </si>
+  <si>
+    <t>Приборы учета</t>
+  </si>
+  <si>
+    <t>Счетчик воды; Счетчик воды общедомовой; Водомерный узел; Водомерный узел общедомовой</t>
+  </si>
+  <si>
+    <t>счетчик тепловой; счетчик тепловой для УУТЭ; электронный блок теплосчетчика; термопреобразователь; преобразователь расхода; манометр; мановакуумметр; термометр биметаллический; термометр жидкостный</t>
+  </si>
+  <si>
+    <t>Кабель силовой бронированный</t>
+  </si>
+  <si>
+    <t>медный сечением до 16 мм; медный сечением до 35 мм; медный сечением до 70мм; медный сечением до 120мм; медный сечением до 240мм; медный сечением до 150мм; медный сечением до 750мм; медный сечением до 1200мм</t>
+  </si>
+  <si>
+    <t>Приборы осветительные</t>
+  </si>
+  <si>
+    <t>патроны; светильники светодиодные потолочные; светильники светодиодные настенные; светильники светодиодные точечные; лента светодиодная; осветительные системы; Лайтбоксы; табло световые; приборы светосигнальные; прожекторы; лампы настольные и переносные; блоки питания светодиодных светильников и лент; блоки управления освещением; датчики движения</t>
+  </si>
+  <si>
+    <t>Кабель силовой греющий</t>
+  </si>
+  <si>
+    <t>резистивный; саморегулируемый</t>
+  </si>
+  <si>
+    <t>Приборы учета и измерительные</t>
+  </si>
+  <si>
+    <t>счетчики водяные; водомерные узлы потребителя; счетчики водяные общедомовые; счетчики тепловые; счетчики тепловые для УУТЭ; электронный блок теплосчетчика; термопреобразователи; преобразователи расхода; манометры; мановакуумметры; термометр биметаллический; термометр жидкостный</t>
+  </si>
+  <si>
+    <t>Провод</t>
+  </si>
+  <si>
+    <t>Кабель силовой негорючий</t>
+  </si>
+  <si>
+    <t>медный сечением до 16мм; алюминиевый сечением до 16мм; медный сечением до 35мм; алюминиевый сечением до 35мм; медный сечением до 70мм; алюминиевый сечением до 70мм; медный сечением до 120мм; алюминиевый сечением до 120мм; медный сечением до 150мм; алюминиевый сечением до 150мм; медный сечением до 240мм; алюминиевый сечением до 240мм; медный сечением до 500мм; алюминиевый сечением до 500мм; медный сечением до 750мм; алюминиевый сечением до 750мм; медный сечением до 1200мм; алюминиевый сечением до 1200мм</t>
+  </si>
+  <si>
+    <t>Кабель силовой огнестойкий</t>
+  </si>
+  <si>
+    <t>Провод силовой негорючий</t>
+  </si>
+  <si>
+    <t>медный сечением до 16 мм; медный сечением до 35мм; медный сечением до 70мм; медный сечением до 120мм; силовой медный сечением до 150мм; медный сечением до 240мм</t>
+  </si>
+  <si>
+    <t>Прибор измерительный</t>
+  </si>
+  <si>
+    <t>Счетчик электрический однофазный; Счетчик электрический трехфазный; коробка испытательная</t>
+  </si>
+  <si>
+    <t>кабель силовой медный сечением до 16мм; кабель силовой медный сечением до 35мм; кабель силовой медный сечением до 70мм; кабель силовой медный сечением до 120мм; кабель силовой медный сечением до 150мм; кабель силовой медный сечением до 240мм; кабель силовой медный сечением до 500мм; кабель силовой медный сечением до 750мм; кабель силовой медный сечением от 750 мм; кабель силовой алюминиевый; кабель коаксиальный; кабель витая пара; кабель телефонный; кабель для локальных сетей; кабель для RS-485; кабель для систем передачи данных; кабель проводного вещания; кабель микрофонный; кабель для слаботочных систем; кабель контрольный; кабель греющий саморегулируемый; кабель греющий резистивный; кабель оптический; кабель силовой медный бронированный; кабель силовой алюминиевый бронированный до 240мм; кабель силовой алюминиевый бронированный до 750мм; кабель силовой алюминиевый бронированный от 750мм</t>
+  </si>
+  <si>
+    <t>провод силовой медный сечением до 16 мм; провод силовой медный сечением до 35мм; провод силовой медный сечением до 70мм; провод силовой медный сечением до 120мм; провод силовой медный сечением до 150мм; провод силовой медный сечением до 240мм; провод телефонный; провод высоковольтный для ОЗДС; провод самонесущий изолированный</t>
+  </si>
+  <si>
+    <t>Противопожарное оборудование</t>
+  </si>
+  <si>
+    <t>Ороситель спринклерный; Ороситель дренчерный; Клапан спринклерный; Клапан дренчерный; Клапан соленоидный электромагнитный; Клапан пожарного крана; Шкаф пожарный; Комплект рукава пожарного; Кран пожарный; Головка пожарная; Огнетушитель; Датчик положения пожарного крана; Сигнализатор давления; Муфта противопожарная; Знак безопасности; Сигнализатор потока жидкости; оросители спринклерные; оросители дренчерные; клапаны и узлы управления спринклерные; клапаны соленоидные; экраны тепловые для оросителей; шкафы пожарные; рукава пожарные; краны и вентили пожарные; головки пожарные; прочие комплектующие пожарных шкафов; огнетушители порошковые; огнетушители углекислотные; огнетушители воздушно-пенные; датчик положения; сигнализаторы давления; сигнализаторы потока жидкости; муфты противопожарные; знаки безопасности</t>
+  </si>
+  <si>
+    <t>Профиль</t>
+  </si>
+  <si>
+    <t>сварной квадратного сечения; сварной прямоугольного сечения; металлический стоечный; металлический направляющий; электросварной; гнутый; ПВХ; алюминиевый; дерево-алюминиевый</t>
+  </si>
+  <si>
+    <t>Счетчики электрические</t>
+  </si>
+  <si>
+    <t>счетчики электрические однофазные; счетчики электрические трехфазные; коробки испытательные</t>
+  </si>
+  <si>
+    <t>Прочее оборудование для насосных</t>
+  </si>
+  <si>
+    <t>мембранный бак</t>
+  </si>
+  <si>
+    <t>Решетка вентиляционная</t>
+  </si>
+  <si>
+    <t>пластиковая прямоугольная; металлическая круглая; металлическая прямоугольная</t>
+  </si>
+  <si>
+    <t>Сантехнические устройства</t>
+  </si>
+  <si>
+    <t>Унитаз; Инсталляция для унитазов; Раковина; Мойка; Ванна; Поддон душевой; Смеситель; Душевая стойка; Полотенцесушитель водяной; Полотенцесушитель электрический; Водонагреватель; Жироуловитель; Подводка гибкая канализационная; Подводка гибкая водопроводная; Умывальник</t>
+  </si>
+  <si>
+    <t>Сантехническое оборудование</t>
+  </si>
+  <si>
+    <t>унитазы компакт; унитазы подвесные; унитазы напольные; инсталляциии для унитазов; раковины подвесные; раковины накладные; ванны из искусственных материалов; поддоны душевые; душевой лоток; смесители универсальные; смесители для раковины; смесители для ванны или душа; душевые стойки; водонагреватели; жироуловители; подводки гибкие канализационные; подводки гибкие для водопровода</t>
   </si>
   <si>
     <t>Сваи железобетонные</t>
@@ -131,328 +1949,223 @@
     <t>квадратного сечения</t>
   </si>
   <si>
-    <t>Сваи винтовые</t>
-  </si>
-  <si>
-    <t>СВЛ; ВСЛ; СВК; СВСН; СВН</t>
-  </si>
-  <si>
-    <t>Сваи анкерные</t>
-  </si>
-  <si>
-    <t>штанговые; прядевые; К2</t>
-  </si>
-  <si>
-    <t>Бетон</t>
-  </si>
-  <si>
-    <t>В7,5 (M100); В10 (M150); В12,5 (М150); В15 (M200); В20 (M250); B22,5 (M300); B25 (M350); В27,5 (М350); B30 (M400); B35 (M450); B40 (M550); B45 (M600); B50 (M700); В55 (М700); В60 (М800); Цементное молочко; Архитектурный бетон; В10, В12,5 (M150); В90 (М1150)</t>
-  </si>
-  <si>
-    <t>Раствор</t>
-  </si>
-  <si>
-    <t>ЦП М10; ЦП М50; ЦП М75; ЦП М100; ЦП М150; ЦП М200; ЦП М250; ЦП М300; ЦП М350; ЦП М400; Бентонитовый; ЦП М800</t>
-  </si>
-  <si>
-    <t>М50; М75; М100; М150; М200; М250</t>
-  </si>
-  <si>
-    <t>Асфальтобетонная смесь</t>
-  </si>
-  <si>
-    <t>Марка 1 Тип А; Марка 1 Тип Б; Марка 2 Тип А; Марка 2 Тип Б; Марка 2 Тип В; Марка 2 Тип Д; Марка 3 Тип Д; Марка 3 Тип Б; Марка 1 Тип В</t>
-  </si>
-  <si>
-    <t>Раствор цементно-песчаный</t>
-  </si>
-  <si>
-    <t>цементно-песчаный; с армирующей добавкой фиброволокном</t>
-  </si>
-  <si>
-    <t>Раствор тампонажный</t>
-  </si>
-  <si>
-    <t>на основе портландцемента</t>
-  </si>
-  <si>
-    <t>Составы</t>
-  </si>
-  <si>
-    <t>быстротвердеющий</t>
-  </si>
-  <si>
-    <t>Блок стеновой</t>
-  </si>
-  <si>
-    <t>газобетонный; керамзитобетонный пустотелый; керамзитобетонный полнотелый; силикатный полнотелый; бетонный пустотелый; бетонный полнотелый; Газобетонный; Керамзитобетонный пустотелый; Керамзитобетонный полнотелый; Силикатный полнотелый; Бетонный пустотелый; Бетонный полнотелый</t>
-  </si>
-  <si>
-    <t>Блок перегородочный</t>
-  </si>
-  <si>
-    <t>газобетонный; керамзитобетонный пустотелый; керамзитобетонный полнотелый; силикатный пустотелый; силикатный полнотелый; бетонный пустотелый; бетонный полнотелый; Газобетонный; Керамзитобетонный пустотелый; Керамзитобетонный полнотелый; Силикатный пустотелый; Силикатный полнотелый; Бетонный пустотелый; Бетонный полнотелый</t>
-  </si>
-  <si>
-    <t>Кирпич</t>
-  </si>
-  <si>
-    <t>рядовой пустотелый; рядовой полнотелый; лицевой пустотелый; лицевой полнотелый; Рядовой пустотелый; Рядовой полнотелый; Клинкерный; Лицевой пустотелый; Лицевой полнотелый</t>
-  </si>
-  <si>
-    <t>Пазогребневая плита</t>
-  </si>
-  <si>
-    <t>силикатная пустотелая; силикатная полнотелая; гипсовая пустотелая; гипсовая полнотелая; Силикатная пустотелая; Силикатная полнотелая; Гипсовая пустотелая; Гипсовая полнотелая</t>
-  </si>
-  <si>
-    <t>Пазогребневая плита влагостойкая</t>
-  </si>
-  <si>
-    <t>силикатная полнотелая; гипсовая пустотелая; гипсовая полнотелая; Силикатная полнотелая; Гипсовая пустотелая; Гипсовая полнотелая</t>
-  </si>
-  <si>
-    <t>Дорожные плиты</t>
-  </si>
-  <si>
-    <t>ПДН 1П; ПДН 2П; ПАГ 14; ПАГ 18; ПАГ 20; ПБ 1-16; ПДП; ПАГ</t>
-  </si>
-  <si>
-    <t>Площадки лестничные</t>
-  </si>
-  <si>
-    <t>Массой до 1 т; Массой более 1 т</t>
-  </si>
-  <si>
-    <t>Марши лестничные</t>
-  </si>
-  <si>
-    <t>Ступени</t>
-  </si>
-  <si>
-    <t>Основные; Верхние фризовые</t>
-  </si>
-  <si>
-    <t>Блоки вентиляционные</t>
-  </si>
-  <si>
-    <t>Массой до 1 т; Массой до 2,5 т</t>
-  </si>
-  <si>
-    <t>Блоки фундаментные</t>
-  </si>
-  <si>
-    <t>ФБС</t>
-  </si>
-  <si>
-    <t>Плиты перекрытий</t>
-  </si>
-  <si>
-    <t>Массой свыше 3 тн</t>
-  </si>
-  <si>
-    <t>Сталь различного профиля</t>
-  </si>
-  <si>
-    <t>массой до 100 кг; массой свыше 100 кг</t>
-  </si>
-  <si>
-    <t>Шпунт</t>
-  </si>
-  <si>
-    <t>Стальной б/у; Стальной; Стальной амортизация; Стальной возвратная стоимость; Ларсена</t>
-  </si>
-  <si>
-    <t>Арматура</t>
-  </si>
-  <si>
-    <t>Арматурный каркас; А240; А500С; Муфта; класс по проекту</t>
-  </si>
-  <si>
-    <t>Двутавр</t>
-  </si>
-  <si>
-    <t>Ст3пс/сп5; Ст09Г2С; С245</t>
-  </si>
-  <si>
-    <t>Ст3пс/сп5 горячекатанный; Ст3пс/сп5</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>Швеллер</t>
-  </si>
-  <si>
-    <t>ст3 горячекатанный; ст3 гнутый; 09Г2С гнутый; Ст3пс/сп5; Ст09Г2С</t>
-  </si>
-  <si>
-    <t>Полоса стальная</t>
-  </si>
-  <si>
-    <t>Полоса стальная оцинкованная; Полоса стальная неоцинкованная; Ст3пс/сп5</t>
-  </si>
-  <si>
-    <t>Проволока стальная</t>
-  </si>
-  <si>
-    <t>проволока стальная оцинкованная; пруток-катанка</t>
-  </si>
-  <si>
-    <t>Металлическая сетка</t>
-  </si>
-  <si>
-    <t>Сетка из проволоки ВР-I; Сетка сварная; Сетка сварная оцинкованная; Сетка сварная из арматуры В500С; Сетка плетеная; Сетка плетеная оцинкованная; Сетка цельнометаллическая просечно-вытяжная (ЦПВС); сварная; плетеная; ЦПВС</t>
-  </si>
-  <si>
-    <t>Лестницы, стремянки</t>
-  </si>
-  <si>
-    <t>черный металл; из алюминия; из черного металла; из оцинкованной стали</t>
-  </si>
-  <si>
-    <t>Ограждение лестниц, кровли, балконов и лоджий</t>
-  </si>
-  <si>
-    <t>черный металл; нержавеющая сталь; нержавеющая сталь со стеклом триплекс; Стекло триплекс; алюминий; стекло стемалит; из черного металла; из нержавеющей стали; из стекла; из алюминия; из оцинкованной стали</t>
-  </si>
-  <si>
-    <t>Ограждение уличное</t>
-  </si>
-  <si>
-    <t>Ограждение территории; Ограждение газонное; территории; газонное</t>
-  </si>
-  <si>
-    <t>Изделия из оцинкованной стали</t>
-  </si>
-  <si>
-    <t>Отлив оцинкованный с покрытием; Отлив оцинкованный окрашенный; Отлив оцинкованный неокрашенный; Откос оцинкованный с покрытием; Парапет оцинкованный с покрытием; Парапет оцинкованный окрашенный; Парапет оцинкованный неокрашенный; настилы из оцинкованной стали; Отлив с покрытием; Отлив окрашенный; Отлив неокрашенный; Откос с покрытием; Откос окрашенный; Откос неокрашенный; Парапет с покрытием; Парапет окрашенный; Парапет неокрашенный</t>
-  </si>
-  <si>
-    <t>Корзина для кондиционера</t>
-  </si>
-  <si>
-    <t>Оцинкованная сталь; Черная сталь; из оцинкованной стали; из черной стали; из алюминиевого профиля</t>
-  </si>
-  <si>
-    <t>Козырек на тягах</t>
-  </si>
-  <si>
-    <t>без описания; Закалённое стекло с тягами</t>
-  </si>
-  <si>
-    <t>Профиль</t>
-  </si>
-  <si>
-    <t>сварной квадратного сечения; сварной прямоугольного сечения; металлический стоечный; металлический направляющий; электросварной; гнутый; ПВХ; алюминиевый; дерево-алюминиевый</t>
-  </si>
-  <si>
-    <t>Анкерные крепления</t>
-  </si>
-  <si>
-    <t>клиновые анкеры; химические анкеры</t>
-  </si>
-  <si>
-    <t>Сталь листовая</t>
-  </si>
-  <si>
-    <t>оцинкованная; рифленая; листовая</t>
-  </si>
-  <si>
-    <t>Люк</t>
-  </si>
-  <si>
-    <t>стальной</t>
-  </si>
-  <si>
-    <t>Опорные конструкции</t>
-  </si>
-  <si>
-    <t>опорные конструкции до 100 кг; сборные</t>
-  </si>
-  <si>
-    <t>гильзы готовые</t>
-  </si>
-  <si>
-    <t>гильзы Salex</t>
-  </si>
-  <si>
-    <t>Временные конструкции</t>
-  </si>
-  <si>
-    <t>ограждение из профлиста; ограждение котлована</t>
-  </si>
-  <si>
-    <t>Изделия из алюминия</t>
-  </si>
-  <si>
-    <t>Отлив из алюминиевого листа окрашенный; Парапет из алюминиевого листа; Откос из алюминиевого листа окрашенный</t>
-  </si>
-  <si>
-    <t>Арматурный каркас</t>
-  </si>
-  <si>
-    <t>класс по проекту</t>
-  </si>
-  <si>
-    <t>Козырек</t>
-  </si>
-  <si>
-    <t>Закалённое стекло с тягами</t>
-  </si>
-  <si>
-    <t>Анкерное крепление</t>
-  </si>
-  <si>
-    <t>клиновой анкер; химический анкер</t>
-  </si>
-  <si>
-    <t>Листовой материал</t>
-  </si>
-  <si>
-    <t>Сталь оцинкованная; Сталь рифленая; Сталь профилированная; Сталь перфорированная; Алюминий анодированный; оцинкованная сталь с полимерным покрытием; оцинкованная сталь с порошковой окраской; алюминий; нержавеющая сталь; профилированный (профлист) окрашенный</t>
-  </si>
-  <si>
-    <t>Закладная деталь</t>
-  </si>
-  <si>
-    <t>гильза Salex</t>
-  </si>
-  <si>
-    <t>Отлив</t>
-  </si>
-  <si>
-    <t>из алюминиевого листа окрашенный; из алюминиевого листа неокрашенный</t>
-  </si>
-  <si>
-    <t>Откос</t>
-  </si>
-  <si>
-    <t>из алюминиевого листа окрашенный</t>
-  </si>
-  <si>
-    <t>Грунт</t>
-  </si>
-  <si>
-    <t>плодородный; растительный; торфяной; глинистый; Плодородный грунт; Растительный грунт; Торф; Почвогрунт "Эконом"; Грунт для засыпки; Субстрат</t>
-  </si>
-  <si>
-    <t>Пескогрунт</t>
-  </si>
-  <si>
-    <t>без описания</t>
-  </si>
-  <si>
-    <t>Песок</t>
-  </si>
-  <si>
-    <t>строительный; речной; кварцевый; морской; Строительный</t>
-  </si>
-  <si>
-    <t>Гравий</t>
-  </si>
-  <si>
-    <t>керамзитовый; керамзитовый с проливкой цементным молочком; речной; без описания</t>
+    <t>Тепловые завесы</t>
+  </si>
+  <si>
+    <t>Тепловые завесы шириной до 1000 мм; Тепловые завесы шириной от 1001 до 1500 мм; Тепловые завесы шириной от 1501 до 2000 мм; Тепловые завесы шириной от 2001 до 2500 мм; Тепловые завесы шириной от 2501 до 3000 мм; Пульты управления для тепловых завес</t>
+  </si>
+  <si>
+    <t>Дизельные генераторы</t>
+  </si>
+  <si>
+    <t>Дизельные генераторы мощностью 150-200 кВт</t>
+  </si>
+  <si>
+    <t>Теплообменник</t>
+  </si>
+  <si>
+    <t>пластинчатый</t>
+  </si>
+  <si>
+    <t>Труба</t>
+  </si>
+  <si>
+    <t>стальная оцинкованная; стальная неоцинкованная; стальная электросварная; стальная нержавеющая; стальная бесшовная горячедеформированная; стальная бесшовная холоднодеформированная; стальная бесшовная оцинкованная горячедеформированная; стальная оцинкованная водосточная; полипропиленовая PPRC PN 10; полипропиленовая PPRC PN 20; полипропиленовая канализационная раструбная; полипропиленовая, армированная стекловолокном; полиэтиленовые трубы ПНД; полипропиленовая; полипропиленовая PPR PN10; из сшитого полиэтилена PEX-a; металлопластиковая; гофрированная для защиты трубопроводов; гофрированная дренажная; гофрированная для кондиционеров; чугунная канализационная SML; чугунная ВЧШГ; цементная; медная для кондиционеров; стальная ВГП оцинкованная; стальная ВГП; стальная ЭСВ оцинкованная; стальная ЭСВ; стальная оцинкованная водосточная с полимерным покрытием; полипропиленовая армированная стекловолокном; сшитый полиэтилен; металлопластиковая армированная; полиэтиленовая напорная; полиэтиленовая гофрированная; ПВХ напорная; ПВХ непластифицированного напорная; ПВХ гофрированная дренажная; чугунная канализационная; цементная безнапорная; медная; ПНД; асбестоцементная; ж/б; стальная в изоляции из минеральной ваты; стальная в ППУ изоляции</t>
+  </si>
+  <si>
+    <t>Труба б/у</t>
+  </si>
+  <si>
+    <t>стальная электросварная; стальная ЭСВ</t>
+  </si>
+  <si>
+    <t>Трубная изоляция</t>
+  </si>
+  <si>
+    <t>вспененный каучук; вспененный полиэтилен; минеральная вата; трубка вспененный каучук; рулон вспененный каучук; трубка вспененный полиэтилен; рулон вспененный полиэтилен; цилиндры минеральная вата; маты минеральная вата</t>
+  </si>
+  <si>
+    <t>Узел распределительный</t>
+  </si>
+  <si>
+    <t>Узлы распределительные</t>
+  </si>
+  <si>
+    <t>узлы распределительные этажные</t>
+  </si>
+  <si>
+    <t>этажный</t>
+  </si>
+  <si>
+    <t>Уличная мебель</t>
+  </si>
+  <si>
+    <t>беседка; скамья; урна; стол; стул; табурет; шезлонг; навес</t>
+  </si>
+  <si>
+    <t>уличная мебель</t>
+  </si>
+  <si>
+    <t>Стол; Стул; Амфитеатр; Табурет; Шезлонг; Кресло</t>
+  </si>
+  <si>
+    <t>Оборудование ОЗДС</t>
+  </si>
+  <si>
+    <t>Упрочнитель бетонного пола</t>
+  </si>
+  <si>
+    <t>кварц (топпинг); корунд (топпинг); металл (топпинг); кьюринг</t>
+  </si>
+  <si>
+    <t>устройства низковольтные комплектные</t>
+  </si>
+  <si>
+    <t>Панель ВРУ; Щит аварийного переключения; Панель ГРЩ; Шинопроводная система; Ящик с понижаюшим трансформатором; установка компенсации реактивной мощности; устройства этажные распределительные комплектные на 1-2 квартиры; устройства этажные распределительные комплектные на 3 квартиры; устройства этажные распределительные комплектные на 4 квартиры; устройства этажные распределительные комплектные на 5 квартир; устройства этажные распределительные комплектные на 6 квартир; устройства этажные распределительные комплектные на 7 квартир; устройства этажные распределительные комплектные на 8 квартир; устройства этажные распределительные комплектные на 9 квартир; устройства этажные распределительные комплектные на 10 квартир; Короб для УЭРМ; Компенсатор высоты; Ящик учетно-распределительный; Щит механизации в сборе; Щит квартирный в сборе; Щит силовой с модульным оборудованием; щит силовой с монтажной панелью в сборе; щит управления освещением; Шкаф управления пожарный; вводно-распределительные устройства комплектные до 6 панелей; вводно-распределительные устройства комплектные до 8 панелей; вводно-распределительные устройства комплектные до 10 панелей; Распределительная панель; Шкаф учета; главные распределительные щиты комплектные до 10 панелей</t>
+  </si>
+  <si>
+    <t>Оборудование и материалы ОЗДС</t>
+  </si>
+  <si>
+    <t>Материалы ОЗДС; Оборудование ОЗДС</t>
+  </si>
+  <si>
+    <t>Устройства этажные распределительные</t>
+  </si>
+  <si>
+    <t>устройства этажные распределительные комплектные на 1-2 квартиры; устройства этажные распределительные комплектные на 3 квартиры; устройства этажные распределительные комплектные на 4 квартиры; устройства этажные распределительные комплектные на 5 квартир; устройства этажные распределительные комплектные на 6 квартир; устройства этажные распределительные комплектные на 7 квартир; устройства этажные распределительные комплектные на 8 квартир; устройства этажные распределительные комплектные на 9 квартир; устройства этажные распределительные комплектные на 10-11 квартир; короба УЭРМ; корпуса УЭРМ; ящики учетно-распределительные</t>
+  </si>
+  <si>
+    <t>Подъемник</t>
+  </si>
+  <si>
+    <t>для ММГН наклонный; для ММГН вертикальный; грузовой без машинного помещения грузоподъемность 500-1000 кг; эскалаторы; грузовой без машинного помещения грузоподъемность до 499 кг</t>
+  </si>
+  <si>
+    <t>Фасадная подсистема</t>
+  </si>
+  <si>
+    <t>крепления керамогранитных плит; крепления композитных панелей; крепления фиброцементных плит; крепления металлических кассет; крепления клинкерной плитки; крепления терракотовых панелей; крепления кирпича; крепления натурального камня; крепления бетонной плитки; крепления алюминиевых панелей; крепление модуля; крепление парапета</t>
+  </si>
+  <si>
+    <t>Подъемники</t>
+  </si>
+  <si>
+    <t>подъемники для ММГН наклонные; подъемники для ММГН вертикальные; грузовые без машинного помещения грузоподъемность 500-1000 кг; Технологические; эскалаторы</t>
+  </si>
+  <si>
+    <t>Геосинтетический материал</t>
+  </si>
+  <si>
+    <t>Решетка газонная</t>
+  </si>
+  <si>
+    <t>пластиковая; полимерпесчаная; бетонная; Пластиковая; Полимерпесчаный пластик; Бетонная</t>
+  </si>
+  <si>
+    <t>Фасонные части</t>
+  </si>
+  <si>
+    <t>отвод чугунный; тройник чугунный; переход чугунный; заглушка чугунная; ревизия чугунная; крестовина чугунная; сальники нажимные стальные; ревизия канализационная полипропиленовая</t>
+  </si>
+  <si>
+    <t>Бордюр</t>
+  </si>
+  <si>
+    <t>бетонный; металлический; пластиковый</t>
+  </si>
+  <si>
+    <t>Фильтр</t>
+  </si>
+  <si>
+    <t>муфтовый; фланцевый; канальный круглый; канальный прямоугольный; фильтрационная установкаи прямоугольныя; бактерицидная секция для прямоугольныx каналов</t>
+  </si>
+  <si>
+    <t>Решетки водоприемные</t>
+  </si>
+  <si>
+    <t>чугунные; оцинкованные; из нержавеющей стали; Чугунные; Стальные</t>
+  </si>
+  <si>
+    <t>Покрытия детских и спортивных площадок</t>
+  </si>
+  <si>
+    <t>резиновая крошка; каучуковая крошка; искусственный газон; из дерева; Резиновая крошка; Каучуковая крошка; Искусственный газон; Песок; Гранитный отсев</t>
+  </si>
+  <si>
+    <t>Фитинги и фасонные части</t>
+  </si>
+  <si>
+    <t>отвод чугунный; тройник чугунный; переход чугунный; торцевая крышка, заглушка чугунная; ревизия чугунная; крестовина чугунная; Сальники нажимные; колено чугунное; ревизия ПП канализационная; гильзы для пластиковых труб</t>
+  </si>
+  <si>
+    <t>Цветы</t>
+  </si>
+  <si>
+    <t>Цветы; без описания; Микс</t>
+  </si>
+  <si>
+    <t>Штукатурка</t>
+  </si>
+  <si>
+    <t>гипсовая; цементная; цементно-известковая; декоративная; цементно-песчаная; минеральная; Гипсовая; Цементная; Цементно-известковая; Декоративная штукатурка; Минеральная</t>
+  </si>
+  <si>
+    <t>Газон</t>
+  </si>
+  <si>
+    <t>рулоный; семена; Рулоный; Семена</t>
+  </si>
+  <si>
+    <t>Ограждение территории</t>
+  </si>
+  <si>
+    <t>деревянное</t>
+  </si>
+  <si>
+    <t>Поливочное оборудование</t>
+  </si>
+  <si>
+    <t>автополив</t>
+  </si>
+  <si>
+    <t>Геосинтетические материалы</t>
+  </si>
+  <si>
+    <t>Бортовой камень</t>
+  </si>
+  <si>
+    <t>Бетонный; Пластиковый; Деревянный; Бордюр металлический</t>
+  </si>
+  <si>
+    <t>Водосточная шахта</t>
+  </si>
+  <si>
+    <t>Тактильные индикаторы</t>
+  </si>
+  <si>
+    <t>Металлические</t>
+  </si>
+  <si>
+    <t>Игровой комплекс</t>
+  </si>
+  <si>
+    <t>размер S; размер M; размер L</t>
+  </si>
+  <si>
+    <t>Спортивный комплекс</t>
+  </si>
+  <si>
+    <t>Шумоглушители</t>
+  </si>
+  <si>
+    <t>шумоглушители круглые; шумоглушители прямоугольные периметром до 2400мм; шумоглушители прямоугольные периметром до 3200мм; шумоглушители пластинчатые 2 пластины; шумоглушители пластинчатые 3 пластины; шумоглушители пластинчатые 4 пластины; шумоглушители пластинчатые 5 пластин; шумоглушители пластинчатые 6 пластин</t>
+  </si>
+  <si>
+    <t>Шумоглушитель</t>
+  </si>
+  <si>
+    <t>круглый трубчатый; прямоугольный пластинчатый 1 пластина; прямоугольный пластинчатый 2 пластины; прямоугольный пластинчатый 3 пластины; прямоугольный пластинчатый 4 пластины</t>
   </si>
   <si>
     <t>Щебень</t>
@@ -461,157 +2174,46 @@
     <t>гранитный; гравийный; известковый; пеностекольный; вторичный  бетонный; Гранитный; Гравийный; Известковый; Пеностекольный</t>
   </si>
   <si>
-    <t>Отсев</t>
-  </si>
-  <si>
-    <t>гранитный; мраморный</t>
-  </si>
-  <si>
-    <t>Смесь</t>
-  </si>
-  <si>
-    <t>песчано-гравийная; щебеночно-песчаная; цементно-песчаная</t>
-  </si>
-  <si>
-    <t>Щепа</t>
-  </si>
-  <si>
-    <t>сосновая; шишки; Сосновая; Лиственница</t>
-  </si>
-  <si>
-    <t>Керамзит</t>
-  </si>
-  <si>
-    <t>Керамзитовый гравий; Керамзитовый гравий под проливку молочком</t>
-  </si>
-  <si>
-    <t>Песчано-гравийная смесь</t>
-  </si>
-  <si>
-    <t>Щебеночно-песчаная смесь</t>
-  </si>
-  <si>
-    <t>Цементно-песчаная смесь</t>
-  </si>
-  <si>
-    <t>без описания; М-100; М-150; М-200</t>
-  </si>
-  <si>
-    <t>Гранитный отсев</t>
-  </si>
-  <si>
-    <t>фр.0-5</t>
-  </si>
-  <si>
-    <t>Вторичный щебень</t>
-  </si>
-  <si>
-    <t>Вторичный щебень бетонный</t>
-  </si>
-  <si>
-    <t>Смесь из щебня и грунта</t>
-  </si>
-  <si>
-    <t>Минераловатная плита</t>
-  </si>
-  <si>
-    <t>без описания; Сэндвич-панель; плотность до 50кг/м3; плотность от 51 до 100кг/м3; плотность от 101 до 150 кг/м3; плотность от 151 до 250 кг/м3</t>
-  </si>
-  <si>
-    <t>Стекловолокно</t>
-  </si>
-  <si>
-    <t>без описания; плотность до 50кг/м3; плотность от 51 до 100кг/м3</t>
-  </si>
-  <si>
-    <t>Базальтовое волокно</t>
-  </si>
-  <si>
-    <t>без описания; плотность до 50кг/м3</t>
-  </si>
-  <si>
-    <t>Пенопласт</t>
-  </si>
-  <si>
-    <t>без описания; ПСБ-С 35; ПСБ-С 50; плотность до 50кг/м3</t>
+    <t>ТБО</t>
+  </si>
+  <si>
+    <t>металлический; пластиковый</t>
+  </si>
+  <si>
+    <t>игровой комплекс</t>
+  </si>
+  <si>
+    <t>беседка</t>
+  </si>
+  <si>
+    <t>индивидуального изготовления</t>
+  </si>
+  <si>
+    <t>Щитовое оборудование</t>
+  </si>
+  <si>
+    <t>щиты механизации; щиты квартирные; щиты силовые с модульным оборудованием; щиты силовые с монтажной панелью; щиты управления освещением; щиты управления вентиляцией; щиты управления оборгевом; корпуса щитов силовых</t>
   </si>
   <si>
     <t>без описания; сэндвич-панель; Технониколь CARBON SOLID тип А; ЭППС 35; ЭППС 36; ЭППС 45; плотность до 50кг/м3; плотность от 51 до 100кг/м3</t>
   </si>
   <si>
-    <t>Вспененный полиэтилен</t>
-  </si>
-  <si>
-    <t>Пеностекло</t>
-  </si>
-  <si>
-    <t>Блок; плотность от 101 до 150 кг/м3; плотность от 151 до 250 кг/м3</t>
-  </si>
-  <si>
-    <t>Пенополиуретан</t>
-  </si>
-  <si>
-    <t>PIR панель; Виброзащитные прорезиненные маты; Виброзащита; PIR панель фасадная; PIR панель кровельная</t>
-  </si>
-  <si>
-    <t>Прочие</t>
-  </si>
-  <si>
-    <t>Теплоизоляционные элементы; Звукопоглощающие плиты; Виброматы; Огнестойкая плита</t>
-  </si>
-  <si>
-    <t>Базальтовая плита</t>
-  </si>
-  <si>
-    <t>плотность до 50кг/м3; плотность от 51 до 100кг/м3; плотность от 101 до 150 кг/м3</t>
-  </si>
-  <si>
-    <t>Полиуретан</t>
-  </si>
-  <si>
-    <t>Виброзащитные маты</t>
-  </si>
-  <si>
-    <t>Сэндвич-панель</t>
-  </si>
-  <si>
-    <t>с минераловатным утеплителем</t>
-  </si>
-  <si>
-    <t>Теплоизоляционные элементы</t>
-  </si>
-  <si>
-    <t>Терморазъем</t>
-  </si>
-  <si>
-    <t>Геотекстиль</t>
-  </si>
-  <si>
-    <t>нетканый иглопробивной; нетканый термоскрепленный; Нетканый иглопробивной</t>
-  </si>
-  <si>
-    <t>Плёнка</t>
-  </si>
-  <si>
-    <t>полиэтиленовая; диффузионная; ПВХ; полипропиленовая</t>
-  </si>
-  <si>
-    <t>Гидроизоляция</t>
-  </si>
-  <si>
-    <t>обмазочная; рулонная</t>
-  </si>
-  <si>
-    <t>Геокомпозит</t>
-  </si>
-  <si>
-    <t>дренажный</t>
-  </si>
-  <si>
-    <t>Мембрана</t>
-  </si>
-  <si>
-    <t>диффузионная; профилированная; ПВХ; термопластичная (ТПО); пароизоляционная; противопожарная; Диффузионная; Профилированная; Термопластичная (ТПО); Пароизоляционная; Ветро-влагозащитная</t>
+    <t>скамья</t>
+  </si>
+  <si>
+    <t>урна</t>
+  </si>
+  <si>
+    <t>металлическая с деревом; металлическая</t>
+  </si>
+  <si>
+    <t>спортивный комплекс</t>
+  </si>
+  <si>
+    <t>Электроустановочные изделия и материалы</t>
+  </si>
+  <si>
+    <t>выключатель для скрытой проводки; выключатель для открытой проводки; переключатель для скрытой проводки; переключатель для открытой проводки; розетка для скрытой проводки; розетка для открытой проводки; рамки для розеток и выключателей; коробка электротехническая; предохранитель плавкий; выключатели одноклавишные для скрытой проводки; выключатели одноклавишные для открытой проводки; выключатели двухклавишные для скрытой проводки; переключатели одноклавишные для  скрытой проводки; переключатели одноклавишные для  открытой проводки; розетки электрические для скрытой проводки; розетки электрические для открытой проводки; розетки компьютерные; розетки телефонные; трансформаторы тока; коробки электротехнические; прочие; Лючки с силовыми розетками; разъем для нагревателей</t>
   </si>
   <si>
     <t>Элементы для герметизации швов</t>
@@ -620,1624 +2222,25 @@
     <t>комплект для деф. шва вертикального; комплект для деф. шва горизонтального; комплект для узла прохода через кровлю; комплект для деф. шва инъекционного; Комплект для герметизации швов; Инъекционная система; Гидрошпонка; Жгут и демпферная лента; для кровли</t>
   </si>
   <si>
+    <t>наружное электроснабжение</t>
+  </si>
+  <si>
+    <t>муфты соединительные; уплотнители кабельных проходов; Муфта кабельная; Уплотнитель кабельных проходов</t>
+  </si>
+  <si>
+    <t>Колодцы</t>
+  </si>
+  <si>
+    <t>ЛОС</t>
+  </si>
+  <si>
+    <t>армированный стеклопластик</t>
+  </si>
+  <si>
     <t>Элементы для узлов примыканий</t>
   </si>
   <si>
     <t>пол-стена; стена-потолок; вертикальной и горизонтальной гидроизоляции; гидроизоляции монтажных проемов ввода коммуникаций; к оголовку сваи</t>
-  </si>
-  <si>
-    <t>Аэратор</t>
-  </si>
-  <si>
-    <t>кровельный; кровельный пластиковый</t>
-  </si>
-  <si>
-    <t>Пленка</t>
-  </si>
-  <si>
-    <t>Полиэтиленовая; Диффузионная; ПВХ; магнитная; маркерная</t>
-  </si>
-  <si>
-    <t>Гидроизоляция обмазочная</t>
-  </si>
-  <si>
-    <t>Битум; Мастика битумная; Праймер битумный; Смесь сухая гидроизоляционная проникающего действия; Эластичная двухкомпонентная гидроизоляция; Мастика полимерная; Праймер битумно-полимерный; Мастика битумно-полимерный; Полимерная</t>
-  </si>
-  <si>
-    <t>Гидроизоляция рулонная</t>
-  </si>
-  <si>
-    <t>Дренажный геокомпозит</t>
-  </si>
-  <si>
-    <t>Листовой отделочный материал</t>
-  </si>
-  <si>
-    <t>ГКЛ; ГКЛВ; ГКЛО; ГСП; ГВЛВ</t>
-  </si>
-  <si>
-    <t>Штукатурка</t>
-  </si>
-  <si>
-    <t>гипсовая; цементная; цементно-известковая; декоративная; цементно-песчаная; минеральная; Гипсовая; Цементная; Цементно-известковая; Декоративная штукатурка; Минеральная</t>
-  </si>
-  <si>
-    <t>Шпатлевка</t>
-  </si>
-  <si>
-    <t>гипсовая; полимерная; цементная; латексная; акриловая; Гипсовая; Полимерная; Цементная; Латексная; Акриловая</t>
-  </si>
-  <si>
-    <t>Грунтовка</t>
-  </si>
-  <si>
-    <t>акриловая; акрилатная; воднодисперсионная; полимерная; алкидная; глифталевая; силикатная; Акриловая; Акрилатная; Воднодисперсионная; Полимерная; Алкидная; Глифталевая; Грунтовка КМО класса</t>
-  </si>
-  <si>
-    <t>Стеклохолст</t>
-  </si>
-  <si>
-    <t>малярный</t>
-  </si>
-  <si>
-    <t>Упрочнитель бетонного пола</t>
-  </si>
-  <si>
-    <t>кварц (топпинг); корунд (топпинг); металл (топпинг); кьюринг</t>
-  </si>
-  <si>
-    <t>Наливной пол</t>
-  </si>
-  <si>
-    <t>цементный; полимерный; эпоксидный; полиуретановый; Цементный; Полимерный; Эпоксидный; Полиуретановый</t>
-  </si>
-  <si>
-    <t>Террасная доска</t>
-  </si>
-  <si>
-    <t>ДПК полнотелая; ДПК; из термодревесины; из цельной древесины</t>
-  </si>
-  <si>
-    <t>Потолок натяжной</t>
-  </si>
-  <si>
-    <t>полотно ПВХ; полотно тканевое; Полотно ПВХ; Полотно тканевое</t>
-  </si>
-  <si>
-    <t>Плитка</t>
-  </si>
-  <si>
-    <t>Плита потолочная</t>
-  </si>
-  <si>
-    <t>минеральное волокно; стальная; стекловолокно; алюминиевая; ячеистая алюминиевая; ячеистая стальная; Минеральное волокно; Стальная панель; Стекловолокно; Алюминиевая панель; Ячеистая; ПВС</t>
-  </si>
-  <si>
-    <t>Потолок реечный</t>
-  </si>
-  <si>
-    <t>алюминиевый; Алюминиевый</t>
-  </si>
-  <si>
-    <t>Потолок ячеистый</t>
-  </si>
-  <si>
-    <t>алюминиевый; стальной оцинкованный</t>
-  </si>
-  <si>
-    <t>керамогранитная; керамическая; гранитная; клинкерная; доломитовая; из натурального мрамора; известняковая; поливинилхлоридная; Керамогранитная; Керамическая; Гранитная; Клинкерная; Затирка; натуральный камень; бетонная</t>
-  </si>
-  <si>
-    <t>Обои</t>
-  </si>
-  <si>
-    <t>флизелиновые; виниловые на флизелиновой основе; Флизелиновые; Виниловые на флизелиновой основе под покраску</t>
-  </si>
-  <si>
-    <t>Краска</t>
-  </si>
-  <si>
-    <t>акриловая; силикатная; силиконовая; воднодисперсионная; латексная; кремнийорганическая; алкидно-уретановая; эмали; лаки; огнезащитные составы; масляная; эпоксидная; водоэмульсионная; резиновая; алкидная; Акриловая; Силикатная; Силиконовая; Воднодисперсионная; Латексная; Кремнийорганическая; Алкидно-уретановая; Эмали; Лаки; Огнезащитные составы; Масляная; Водоэмульсионная</t>
-  </si>
-  <si>
-    <t>Панель облицовочная</t>
-  </si>
-  <si>
-    <t>ЗИПС; Пластиковая; ДВП; МДФ; массив; гипсовая; стеклянная; зеркальная; алюминиевая; цементная; цементно-стружечная; стекломагниевая; нержавеющая сталь; асбесто-цементная; ПВХ; ЛДСП; акриловая; латунная; мраморная; стеклофибробетонная; стеклокомпозитная; Массив; Гипсовая; Стеклянная; Зеркальная; Алюминиевая; Аквапанель; Цементно-стружечная плита; Стекломагниевый лист; панели из нержавеющей стали; Асбесто-цементный лист; Картеновая; Хризотил-цементная плита; экран из электротехнической стали</t>
-  </si>
-  <si>
-    <t>Ламинат</t>
-  </si>
-  <si>
-    <t>32 класс; 33 класс</t>
-  </si>
-  <si>
-    <t>Инженерная доска</t>
-  </si>
-  <si>
-    <t>дуб</t>
-  </si>
-  <si>
-    <t>Подоконная доска</t>
-  </si>
-  <si>
-    <t>ПВХ; Деревянная; искусственный камень; Искусственный камень</t>
-  </si>
-  <si>
-    <t>Плинтус</t>
-  </si>
-  <si>
-    <t>ПВХ; керамогранит; алюминий; полистирол; керамическая плитка; ЛДФ; латунь; нержавеющая сталь</t>
-  </si>
-  <si>
-    <t>Молдинг</t>
-  </si>
-  <si>
-    <t>гипс; пенополистирол; гипсовые; Керамогранит; Алюминий; Гипсовый; ПВХ; Деревянный</t>
-  </si>
-  <si>
-    <t>Почтовый ящик</t>
-  </si>
-  <si>
-    <t>окрашенная сталь; нержавеющая сталь; Окрашенная сталь,ключевой замок; Окрашенная сталь, электронный замок; Нержавеющая сталь,ключевой замок</t>
-  </si>
-  <si>
-    <t>Навигационные таблички</t>
-  </si>
-  <si>
-    <t>пластик; тактильный пластик; оргстекло; алюминий; латунь; трафарет; нержавеющая сталь; лайтбокс</t>
-  </si>
-  <si>
-    <t>Табличка с номером квартиры</t>
-  </si>
-  <si>
-    <t>пластик; оргстекло; алюминий; латунь; нерж сталь окрашенная; Пластик; Оргстекло; Алюминий; Латунь; Нерж сталь окрашенная; Черная сталь окрашенная</t>
-  </si>
-  <si>
-    <t>Грязезащитное покрытие</t>
-  </si>
-  <si>
-    <t>резина текстиль; резина щетка скребок; оцинкованная решетка; металлическое</t>
-  </si>
-  <si>
-    <t>Профиль для деформационных швов</t>
-  </si>
-  <si>
-    <t>для пола; для стен и потолков</t>
-  </si>
-  <si>
-    <t>Перегородки стеклянные</t>
-  </si>
-  <si>
-    <t>душевые</t>
-  </si>
-  <si>
-    <t>Ковровое покрытие</t>
-  </si>
-  <si>
-    <t>Ковровая плитка</t>
-  </si>
-  <si>
-    <t>Аксессуары</t>
-  </si>
-  <si>
-    <t>Все; Аксессуары</t>
-  </si>
-  <si>
-    <t>Стеновая реечная система</t>
-  </si>
-  <si>
-    <t>алюминиевая; оцинкованная; деревянная</t>
-  </si>
-  <si>
-    <t>Камень натуральный</t>
-  </si>
-  <si>
-    <t>травертин; мрамор; кварцит</t>
-  </si>
-  <si>
-    <t>Гипсокартон</t>
-  </si>
-  <si>
-    <t>ГКЛ; ГКЛВ; ГКЛО</t>
-  </si>
-  <si>
-    <t>Стеклохолст малярный</t>
-  </si>
-  <si>
-    <t>Паутинка; Стеклохолст</t>
-  </si>
-  <si>
-    <t>Карниз потолочный</t>
-  </si>
-  <si>
-    <t>Пенополистирол</t>
-  </si>
-  <si>
-    <t>Люк ревизионный</t>
-  </si>
-  <si>
-    <t>Металлический</t>
-  </si>
-  <si>
-    <t>Табличка с номером этажа</t>
-  </si>
-  <si>
-    <t>Пластик; Тактильный пластик; Оргстекло; Алюминий; нерж. сталь окрашенная; Металл</t>
-  </si>
-  <si>
-    <t>Табличка навигации</t>
-  </si>
-  <si>
-    <t>Профили для деформационных швов</t>
-  </si>
-  <si>
-    <t>для пола; профили для стен и потолков; фасад</t>
-  </si>
-  <si>
-    <t>Фасадная подсистема</t>
-  </si>
-  <si>
-    <t>крепления керамогранитных плит; крепления композитных панелей; крепления фиброцементных плит; крепления металлических кассет; крепления клинкерной плитки; крепления терракотовых панелей; крепления кирпича; крепления натурального камня; крепления бетонной плитки; крепления алюминиевых панелей; крепление модуля; крепление парапета</t>
-  </si>
-  <si>
-    <t>Панель</t>
-  </si>
-  <si>
-    <t>композитная базальтовая; композитная алюминиевая; фиброцементная; хризотилцементная; фибробетонная; HPL; Терракотовая; алюминиевая</t>
-  </si>
-  <si>
-    <t>Металлокассеты</t>
-  </si>
-  <si>
-    <t>оцинкованная сталь с полимерным покрытием; оцинкованная сталь с порошковой окраской; алюминий; композитная алюминиевая; нержавеющая сталь; Оцинкованная сталь; Алюминий; Нержавеющая сталь; Медь</t>
-  </si>
-  <si>
-    <t>Модули</t>
-  </si>
-  <si>
-    <t>глухой; с открыванием (встраиваемый оконный блок); ALT EF65; MSW80</t>
-  </si>
-  <si>
-    <t>Декоративные элементы</t>
-  </si>
-  <si>
-    <t>Ламели; Фасадные решетки; Лайтбокс; Профиль; Декоративные элементы; Облицовочные листовые материалы; Фасадные решётки; Корзины</t>
-  </si>
-  <si>
-    <t>Аквапанель</t>
-  </si>
-  <si>
-    <t>Композитная панель</t>
-  </si>
-  <si>
-    <t>Базальт; Алюминий</t>
-  </si>
-  <si>
-    <t>Фиброцементная, фибробетонная, хризотилцементная панель</t>
-  </si>
-  <si>
-    <t>Фиброцементная панель; Хризотилцементная панель; Фибробетонная панель</t>
-  </si>
-  <si>
-    <t>HPL панель</t>
-  </si>
-  <si>
-    <t>Плитка клинкерная</t>
-  </si>
-  <si>
-    <t>Стеклофибробетонная панель</t>
-  </si>
-  <si>
-    <t>Плитка из натурального камня</t>
-  </si>
-  <si>
-    <t>без описания; Габбро; Гранит</t>
-  </si>
-  <si>
-    <t>Стеклопанель</t>
-  </si>
-  <si>
-    <t>Полимербетонная панель</t>
-  </si>
-  <si>
-    <t>композитная</t>
-  </si>
-  <si>
-    <t>Профиль моллированный</t>
-  </si>
-  <si>
-    <t>ПВХ; алюминиевый; дерево-алюминиевый</t>
-  </si>
-  <si>
-    <t>Стоечно-ригельный профиль</t>
-  </si>
-  <si>
-    <t>алюминиевый</t>
-  </si>
-  <si>
-    <t>Спайдерная система</t>
-  </si>
-  <si>
-    <t>Стеклопакет</t>
-  </si>
-  <si>
-    <t>однокамерный; двухкамерный; трехкамерный</t>
-  </si>
-  <si>
-    <t>Стеклопакет молированный</t>
-  </si>
-  <si>
-    <t>однокамерный; двухкамерный</t>
-  </si>
-  <si>
-    <t>Стекло</t>
-  </si>
-  <si>
-    <t>незакаленное; закаленное; армированное; триплекс; огнестойкое</t>
-  </si>
-  <si>
-    <t>Стекло молированное</t>
-  </si>
-  <si>
-    <t>незакаленное; закаленное</t>
-  </si>
-  <si>
-    <t>Стеклоблок</t>
-  </si>
-  <si>
-    <t>Бесцветный</t>
-  </si>
-  <si>
-    <t>Окна</t>
-  </si>
-  <si>
-    <t>ПВХ профиль однокамерный стеклопакет; ПВХ профиль двухкамерный стеклопакет; Алюминиевый профиль однокамерный стеклопакет; Алюминиевый профиль однокамерный стеклопакет противопожарные; Алюминиевый профиль двухкамерный стеклопакет противопожарные; Алюминиевый профиль двухкамерный стеклопакет; Моллированный алюминиевый профиль однокамерный стеклопакет</t>
-  </si>
-  <si>
-    <t>Витражи</t>
-  </si>
-  <si>
-    <t>Алюминиевый профиль однокамерный стеклопакет; Алюминиевый профиль однокамерный стеклопакет противопожарные; Алюминиевый профиль двухкамерный стеклопакет противопожарные; Алюминиевый профиль двухкамерный стеклопакет</t>
-  </si>
-  <si>
-    <t>Стоечно-ригельная система</t>
-  </si>
-  <si>
-    <t>Алюминиевый профиль однокамерный стеклопакет; Алюминиевый профиль двухкамерный стеклопакет; Алюминиевый профиль однокамерный стеклопакет противопожарные; Алюминиевый профиль двухкамерный стеклопакет противопожарные</t>
-  </si>
-  <si>
-    <t>Дверной блок</t>
-  </si>
-  <si>
-    <t>Алюминиевый профиль двухкамерный стеклопакет</t>
-  </si>
-  <si>
-    <t>Фурнитура</t>
-  </si>
-  <si>
-    <t>Перегородки</t>
-  </si>
-  <si>
-    <t>Алюминиевый профиль однокамерный стеклопакет</t>
-  </si>
-  <si>
-    <t>Двери, люки и ворота</t>
-  </si>
-  <si>
-    <t>Дверь межкомнатная из МДФ</t>
-  </si>
-  <si>
-    <t>покрытие ламинированная финишпленка остекленная; покрытие ламинированная финишпленка глухая; покрытие ПВХ остекленная; покрытие ПВХ глухая; покрытие экошпон остекленная; покрытие экошпон глухая; покрытие эмаль остекленная; покрытие эмаль глухая; покрытие шпон остекленная; покрытие шпон глухая; Покрытие ламинированная финишпленка; Покрытие ПВХ; Покрытие экошпон; Покрытие эмаль; Покрытие шпон</t>
-  </si>
-  <si>
-    <t>Дверь межкомнатная из массива</t>
-  </si>
-  <si>
-    <t>Покрытие шпон остекленная; Покрытие шпон глухая; Покрытие эмаль остекленная; Покрытие эмаль глухая; Массив дерева остекленная; Массив дерева глухая; Покрытие шпон; Покрытие эмаль; Массив дерева</t>
-  </si>
-  <si>
-    <t>Дверь межкомнатная стеклянная</t>
-  </si>
-  <si>
-    <t>покрытие пленкой; рифленое стекло</t>
-  </si>
-  <si>
-    <t>Дверь квартирная металлическая</t>
-  </si>
-  <si>
-    <t>глухая; противопожарная EI60, глухая; Непротивопожарная,глухая; Противопожарная ЕI30,глухая; Противопожарная ЕIS60,глухая</t>
-  </si>
-  <si>
-    <t>Дверь квартирная из массива</t>
-  </si>
-  <si>
-    <t>Массив сосны; Массив дуба</t>
-  </si>
-  <si>
-    <t>Дверь общедомовая металлическая</t>
-  </si>
-  <si>
-    <t>непротивопожарная, глухая; непротивопожарная, остекленная; противопожарная EI15, глухая; противопожарная EI30, глухая; противопожарная EI45, глухая; противопожарная EI60, глухая; противопожарная EI90, глухая; противопожарная EI120, глухая; противопожарная EIS15, глухая; противопожарная EIS30, глухая; противопожарная EIS60, глухая; противопожарная EI15, остекленная; противопожарная EI30, остекленная; противопожарная EI45, остекленная; противопожарная EI60, остекленная; противопожарная EIS60, остекленная; Противопожарная EI15,глухая; Противопожарная EI30,глухая; Противопожарная EI30,остекленная; Противопожарная EIS30,глухая; Противопожарная EIS30, остекленная; Противопожарная EI60,глухая; Противопожарная EI60,остекленная; Противопожарная EIS60,глухая; Противопожарная EIS60, остекленная; Непротивопожарная,глухая; Непротивопожарная, остекленная; Для венткамер утепленная; Для венткамер неутепленная</t>
-  </si>
-  <si>
-    <t>Дверь общедомовая деревянная</t>
-  </si>
-  <si>
-    <t>непротивопожарная,глухая; непротивопожарная, остекленная; противопожарная EI15, глухая; противопожарная, глухая; противопожарная EI60, остекленная; Противопожарная EI30,глухая; Противопожарная EI30,остекленная; Непротивопожарная,глухая</t>
-  </si>
-  <si>
-    <t>Дверь общедомовая стеклянная</t>
-  </si>
-  <si>
-    <t>непротивопожарная, остекленная; противопожарная El60, остекленная</t>
-  </si>
-  <si>
-    <t>Дверь временная деревянная</t>
-  </si>
-  <si>
-    <t>непротивопожарная,глухая</t>
-  </si>
-  <si>
-    <t>непротивопожарный скрытого монтажа; непротивопожарный открытого монтажа; противопожарный E30 скрытого монтажа; противопожарный E60 скрытого монтажа; противопожарный E90 скрытого монтажа; противопожарный EI30 скрытого монтажа; противопожарный EI60 скрытого монтажа; противопожарный EI90 скрытого монтажа; противопожарный EIS60 скрытого монтажа; противопожарный E30 открытого монтажа; противопожарный E60 открытого монтажа; противопожарный E90 открытого монтажа; противопожарный EI30 открытого монтажа; противопожарный EI60 открытого монтажа; противопожарный EI90 открытого монтажа; противопожарный EIS60 открытого монтажа; Смотровой; Противопожарный EI 60; Утепленный; Неутепленный</t>
-  </si>
-  <si>
-    <t>Люк пластиковый</t>
-  </si>
-  <si>
-    <t>непротивопожарный открытого монтажа</t>
-  </si>
-  <si>
-    <t>Ворота секционные металлические</t>
-  </si>
-  <si>
-    <t>непротивопожарные глухие; непротивопожарные с калиткой; противопожарные глухие EI60; противопожарные EI60 с калиткой</t>
-  </si>
-  <si>
-    <t>Ворота рулонные металлические</t>
-  </si>
-  <si>
-    <t>непротивопожарные глухие; противопожарные глухие EI60</t>
-  </si>
-  <si>
-    <t>Ворота распашные металлические</t>
-  </si>
-  <si>
-    <t>противопожарные EI60 с дверью</t>
-  </si>
-  <si>
-    <t>Дверь квартирная деревянная</t>
-  </si>
-  <si>
-    <t>Дверь временная</t>
-  </si>
-  <si>
-    <t>Глухая</t>
-  </si>
-  <si>
-    <t>Дверь автоматическая карусельная</t>
-  </si>
-  <si>
-    <t>Люк-дверь</t>
-  </si>
-  <si>
-    <t>Противопожарный открытого монтажа; Противопожарный скрытого монтажа; Непротивопожарный скрытого монтажа</t>
-  </si>
-  <si>
-    <t>Кухонное оборудование</t>
-  </si>
-  <si>
-    <t>Электропечь; Варочная панель; Микроволнова печь; Чайник электрический; Холодильник; Машина посудомоечная; Кулер; Кипятильник; Контейнер для пищевых отходов; Подтоварник; Стол производственный; Вытяжка</t>
-  </si>
-  <si>
-    <t>Прачечное и сушильное оборудование</t>
-  </si>
-  <si>
-    <t>Стиральная машина; Шкаф сушильный для одежды и обуви; Полотенцесушитель электрический; Рукосушитель; Фен; Сушильная машина</t>
-  </si>
-  <si>
-    <t>Музыкальный центр; Телевизор; Проектор</t>
-  </si>
-  <si>
-    <t>Музыкальное оборудование</t>
-  </si>
-  <si>
-    <t>Пианино; Пюпитр; Театральная ширма</t>
-  </si>
-  <si>
-    <t>Спортивное оборудование</t>
-  </si>
-  <si>
-    <t>Тренажер; Скамейка гимнастическая; Шведская стенка; Дорожка гимнастическая; Мат гимнастический; Спортивный инвентарь; Кольцо баскетбольное; Игровой комплекс</t>
-  </si>
-  <si>
-    <t>Медицинское оборудование</t>
-  </si>
-  <si>
-    <t>Облучатель-рециркулятор бактерицидный; Зонт вытяжной; Бак для медицинский отходов герметичный; Емкост-контейнер для сбора для сбора острого инструментария; Кушетка; Столик процедурный; Весы медицинские; Деструктор игл; Ростомер; Светильник медицинский; Стерилизатор; Холодильник; Видуар; Стул</t>
-  </si>
-  <si>
-    <t>Антитеррористическое и досмотровое оборудование</t>
-  </si>
-  <si>
-    <t>Металлодетектор ручной; Локализатор взрыва; Комлпект досмотровых зеркал; Комплект досмотровых зеркал</t>
-  </si>
-  <si>
-    <t>Уборочное оборудование</t>
-  </si>
-  <si>
-    <t>Подметальная машина</t>
-  </si>
-  <si>
-    <t>Оборудование и материалы для мусороудаления</t>
-  </si>
-  <si>
-    <t>Контейнер ТБО; Компактор</t>
-  </si>
-  <si>
-    <t>Изделия для проемов</t>
-  </si>
-  <si>
-    <t>Роллеты; Противопожарные шторы; роллеты; противопожарные шторы</t>
-  </si>
-  <si>
-    <t>Материалы и оборудование для организации дорожного движения</t>
-  </si>
-  <si>
-    <t>Колесоотбойник; Шлагбаум; Опора для стрелы; Светофор; Исскуственная дорожная неровность; Дорожный знак; Дорожный указатель; Зеркало; Ворота; Демпфер; Болларды</t>
-  </si>
-  <si>
-    <t>Фасадное оборудование</t>
-  </si>
-  <si>
-    <t>Cистема обслуживания фасада; Маркизы</t>
-  </si>
-  <si>
-    <t>Сантехническое оборудование/аксессуары</t>
-  </si>
-  <si>
-    <t>Диспенсер для бумажных полотенец; Дозатор для мыла</t>
-  </si>
-  <si>
-    <t>Стол</t>
-  </si>
-  <si>
-    <t>Кресло</t>
-  </si>
-  <si>
-    <t>Шкаф</t>
-  </si>
-  <si>
-    <t>Диван</t>
-  </si>
-  <si>
-    <t>Полка</t>
-  </si>
-  <si>
-    <t>Тумба</t>
-  </si>
-  <si>
-    <t>Картина</t>
-  </si>
-  <si>
-    <t>Зеркало</t>
-  </si>
-  <si>
-    <t>Штора</t>
-  </si>
-  <si>
-    <t>Столешница</t>
-  </si>
-  <si>
-    <t>Стойка-ресепшн</t>
-  </si>
-  <si>
-    <t>Мебель</t>
-  </si>
-  <si>
-    <t>Стол; Стул; Кресло; Пуф/банкетка; Шкаф; Диван; Кровать; Стеллаж; Вешалка; Скамейка; Полка; Тумба; Стойка-ресепшн; Столешница</t>
-  </si>
-  <si>
-    <t>Декор</t>
-  </si>
-  <si>
-    <t>Панель; Картина; Штора; Зеркало; Ковер; Растения; Скульптура; Ширма; Пьедестал; Панно; Рулонные шторы; Часы</t>
-  </si>
-  <si>
-    <t>Труба</t>
-  </si>
-  <si>
-    <t>стальная оцинкованная; стальная неоцинкованная; стальная электросварная; стальная нержавеющая; стальная бесшовная горячедеформированная; стальная бесшовная холоднодеформированная; стальная бесшовная оцинкованная горячедеформированная; стальная оцинкованная водосточная; полипропиленовая PPRC PN 10; полипропиленовая PPRC PN 20; полипропиленовая канализационная раструбная; полипропиленовая, армированная стекловолокном; полиэтиленовые трубы ПНД; полипропиленовая; полипропиленовая PPR PN10; из сшитого полиэтилена PEX-a; металлопластиковая; гофрированная для защиты трубопроводов; гофрированная дренажная; гофрированная для кондиционеров; чугунная канализационная SML; чугунная ВЧШГ; цементная; медная для кондиционеров; стальная ВГП оцинкованная; стальная ВГП; стальная ЭСВ оцинкованная; стальная ЭСВ; стальная оцинкованная водосточная с полимерным покрытием; полипропиленовая армированная стекловолокном; сшитый полиэтилен; металлопластиковая армированная; полиэтиленовая напорная; полиэтиленовая гофрированная; ПВХ напорная; ПВХ непластифицированного напорная; ПВХ гофрированная дренажная; чугунная канализационная; цементная безнапорная; медная; ПНД; асбестоцементная; ж/б; стальная в изоляции из минеральной ваты; стальная в ППУ изоляции</t>
-  </si>
-  <si>
-    <t>Труба б/у</t>
-  </si>
-  <si>
-    <t>стальная электросварная; стальная ЭСВ</t>
-  </si>
-  <si>
-    <t>Фитинги и фасонные части</t>
-  </si>
-  <si>
-    <t>отвод чугунный; тройник чугунный; переход чугунный; торцевая крышка, заглушка чугунная; ревизия чугунная; крестовина чугунная; Сальники нажимные; колено чугунное; ревизия ПП канализационная; гильзы для пластиковых труб</t>
-  </si>
-  <si>
-    <t>Трубная изоляция</t>
-  </si>
-  <si>
-    <t>вспененный каучук; вспененный полиэтилен; минеральная вата; трубка вспененный каучук; рулон вспененный каучук; трубка вспененный полиэтилен; рулон вспененный полиэтилен; цилиндры минеральная вата; маты минеральная вата</t>
-  </si>
-  <si>
-    <t>Опоры</t>
-  </si>
-  <si>
-    <t>Опоры для труб</t>
-  </si>
-  <si>
-    <t>опоры подвижные; опоры неподвижные</t>
-  </si>
-  <si>
-    <t>Металлоконструкции для крепления трубопроводов</t>
-  </si>
-  <si>
-    <t>Фасонные части</t>
-  </si>
-  <si>
-    <t>отвод чугунный; тройник чугунный; переход чугунный; заглушка чугунная; ревизия чугунная; крестовина чугунная; сальники нажимные стальные; ревизия канализационная полипропиленовая</t>
-  </si>
-  <si>
-    <t>Опора для трубопроводов</t>
-  </si>
-  <si>
-    <t>подвижная; неподвижная</t>
-  </si>
-  <si>
-    <t>Арматура трубопроводная запорная</t>
-  </si>
-  <si>
-    <t>кран шаровой латунный; кран трехходовой для манометра; кран шаровой для медных труб; кран пробно-спускной; кран шаровой стальной на фланцевых соединениях; кран шаровой чугунный на фланцевых соединениях; кран шаровой стальной на сварных соединениях; кран шаровой стальной на резьбовых соединениях; кран шаровой из нержавеющей стали; затвор дисковый поворотный; затвор дисковый; задвижка стальная шиберная; задвижка стальная клиновая; задвижка чугунная клиновая; задвижка чугунная; задвижка латунная; задвижка чугунная с электроприводом; ковер; затвор дисковый поворотный с электроприводом; кран шаровой стальной на фланцевых соединениях с электроприводом; вентиль запорный фланцевый стальной; вентиль запорный фланцевый чугунный</t>
-  </si>
-  <si>
-    <t>Арматура трубопроводная прочая</t>
-  </si>
-  <si>
-    <t>фильтр муфтовый; фильтр фланцевый; регулятор давления; регулятор перепуска; редуктор давления; клапан обратный; клапан балансировочный; клапан регулирующий; клапан соленоидный; клапан предохранительный; клапан балансировочный с электроприводом; клапан радиаторный; узел обвязки балансировочного клапана; воздухоотводчик автоматический; узел воздухоотводчика; электроприводы</t>
-  </si>
-  <si>
-    <t>Коллекторы, распределительные узлы</t>
-  </si>
-  <si>
-    <t>коллектор для воды</t>
-  </si>
-  <si>
-    <t>Вставки гибкие</t>
-  </si>
-  <si>
-    <t>компенсаторы осевые сильфонные из нержавеющей стали для водоснабжения; компенсаторы осевые сильфонные из нержавеющей стали для отопления; компенсатор резиновый фланцевый; компенсаторы для пластиковых труб; вибровставки</t>
-  </si>
-  <si>
-    <t>Кран</t>
-  </si>
-  <si>
-    <t>шаровой латунный муфтовый; шаровой латунный медный; шаровой стальной на фланцевых соединениях; шаровой стальной на сварных соединениях; шаровой стальной на резьбовых соединениях; шаровой из нержавеющей стали; шаровой чугунный на фланцевых соединениях; трехходовой латунный для манометра; пробно-спускной латунный</t>
-  </si>
-  <si>
-    <t>Затвор</t>
-  </si>
-  <si>
-    <t>дисковый поворотный; дисковый поворотный с электроприводом</t>
-  </si>
-  <si>
-    <t>Задвижка</t>
-  </si>
-  <si>
-    <t>шиберная стальная; клиновая стальная; клиновая чугунная; клиновая латунная; шиберная стальная с электроприводом</t>
-  </si>
-  <si>
-    <t>Вентиль</t>
-  </si>
-  <si>
-    <t>фланцевый стальной; фланцевый чугунный</t>
-  </si>
-  <si>
-    <t>Фильтр</t>
-  </si>
-  <si>
-    <t>муфтовый; фланцевый; канальный круглый; канальный прямоугольный; фильтрационная установкаи прямоугольныя; бактерицидная секция для прямоугольныx каналов</t>
-  </si>
-  <si>
-    <t>Клапан</t>
-  </si>
-  <si>
-    <t>обратный; соленоидный; предохранительный; регулирующий; балансировочный; балансировочный с электроприводом</t>
-  </si>
-  <si>
-    <t>Воздухоотводчик</t>
-  </si>
-  <si>
-    <t>автоматический</t>
-  </si>
-  <si>
-    <t>Регулятор</t>
-  </si>
-  <si>
-    <t>давления; перепуска</t>
-  </si>
-  <si>
-    <t>Редуктор давления</t>
-  </si>
-  <si>
-    <t>поршневой</t>
-  </si>
-  <si>
-    <t>Узел обвязки</t>
-  </si>
-  <si>
-    <t>балансировочного клапана</t>
-  </si>
-  <si>
-    <t>Коллектор для воды</t>
-  </si>
-  <si>
-    <t>латунный; из нержавеющей стали</t>
-  </si>
-  <si>
-    <t>Компенсатор</t>
-  </si>
-  <si>
-    <t>осевой сильфонный из нержавеющей стали; фланцевый резиновый; тепловых расширений прямоугольного сечения; тепловых расширений круглого сечения</t>
-  </si>
-  <si>
-    <t>Вибровставка</t>
-  </si>
-  <si>
-    <t>гибкая фланцевая</t>
-  </si>
-  <si>
-    <t>Дренажные и насосы</t>
-  </si>
-  <si>
-    <t>Насос водоснабжения</t>
-  </si>
-  <si>
-    <t>консольный моноблочный массой до 64 кг; консольный моноблочный массой до 170 кг; консольный моноблочный массой до 425 кг; консольный моноблочный массой до 600 кг; консольный моноблочный массой до 1500 кг; установка пожаротушения массой до 64 кг; установка пожаротушения массой до 170 кг; установка пожаротушения массой до 425 кг; установка пожаротушения массой до 600 кг; установка пожаротушения массой до 800 кг; установка пожаротушения массой до 1200 кг; установка пожаротушения массой до 2400 кг; установка повышения давления массой до 64 кг; установка повышения давления массой до 170 кг; установка повышения давления массой до 425 кг; установка повышения давления массой до 600 кг; установка повышения давления до 800 кг; установка повышения давления до 1100 кг; жокей-насос массой до 100 кг; жокей-насос массой до 150 кг; циркуляционный массой 100 кг</t>
-  </si>
-  <si>
-    <t>Насос канализации</t>
-  </si>
-  <si>
-    <t>дренажный; насосная установка</t>
-  </si>
-  <si>
-    <t>Насос холодоснабжения и отопления</t>
-  </si>
-  <si>
-    <t>установка поддержания давления; циркуляционный насос; вертикальный центробежный насос</t>
-  </si>
-  <si>
-    <t>Бак  расширительный</t>
-  </si>
-  <si>
-    <t>мембранный до 0,1м3; мембранный до 0,2м3; мембранный до 0,4м3; мембранный до 0,5м3; мембранный до 0,8м3; мембранный до 1м3; мембранный до 1,5м3</t>
-  </si>
-  <si>
-    <t>Насосы водоснабжения</t>
-  </si>
-  <si>
-    <t>консольные и моноблочные насосы массой до 600 кг; установки пожаротушения массой до 170 кг; установки пожаротушения массой до 600 кг; установки пожаротушения массой до 800 кг; установки пожаротушения массой до 1200 кг; установки пожаротушения массой до 1500 кг; установки пожаротушения массой до 2100 кг; установки повышения давления массой до 64 кг; установки повышения давления массой до 170 кг; установки повышения давления массой до 425 кг; установки повышения давления массой до 600кг; установки повышения давления до 800 кг; установки повышения давления до 1100 кг; жокей-насосы массой до 150 кг; циркуляционные насосы</t>
-  </si>
-  <si>
-    <t>Дренажные и канализационные насосы</t>
-  </si>
-  <si>
-    <t>дренажный насос; канализационная насосная установка</t>
-  </si>
-  <si>
-    <t>Насосы холодоснабжения и отопления</t>
-  </si>
-  <si>
-    <t>установки поддержания давления; циркуляционные насосы</t>
-  </si>
-  <si>
-    <t>Прочее оборудование для насосных</t>
-  </si>
-  <si>
-    <t>мембранный бак</t>
-  </si>
-  <si>
-    <t>Сантехнические устройства</t>
-  </si>
-  <si>
-    <t>Унитаз; Инсталляция для унитазов; Раковина; Мойка; Ванна; Поддон душевой; Смеситель; Душевая стойка; Полотенцесушитель водяной; Полотенцесушитель электрический; Водонагреватель; Жироуловитель; Подводка гибкая канализационная; Подводка гибкая водопроводная; Умывальник</t>
-  </si>
-  <si>
-    <t>Водоотводные устройства</t>
-  </si>
-  <si>
-    <t>Воронка водосточная кровельная; Воронка водосточная кровельная с электрообогревом; Воронка водосточная парапетная; Воронка капельная; Клапан воздушный канализационный; Клапан воздушный канализационный с электроприводом; Трап вертикальный; Трап горизонтальный</t>
-  </si>
-  <si>
-    <t>Противопожарное оборудование</t>
-  </si>
-  <si>
-    <t>Ороситель спринклерный; Ороситель дренчерный; Клапан спринклерный; Клапан дренчерный; Клапан соленоидный электромагнитный; Клапан пожарного крана; Шкаф пожарный; Комплект рукава пожарного; Кран пожарный; Головка пожарная; Огнетушитель; Датчик положения пожарного крана; Сигнализатор давления; Муфта противопожарная; Знак безопасности; Сигнализатор потока жидкости; оросители спринклерные; оросители дренчерные; клапаны и узлы управления спринклерные; клапаны соленоидные; экраны тепловые для оросителей; шкафы пожарные; рукава пожарные; краны и вентили пожарные; головки пожарные; прочие комплектующие пожарных шкафов; огнетушители порошковые; огнетушители углекислотные; огнетушители воздушно-пенные; датчик положения; сигнализаторы давления; сигнализаторы потока жидкости; муфты противопожарные; знаки безопасности</t>
-  </si>
-  <si>
-    <t>Прибор учета</t>
-  </si>
-  <si>
-    <t>Приборы учета</t>
-  </si>
-  <si>
-    <t>Счетчик воды; Счетчик воды общедомовой; Водомерный узел; Водомерный узел общедомовой</t>
-  </si>
-  <si>
-    <t>Оборудование газового и порошкового пожаротушения</t>
-  </si>
-  <si>
-    <t>Модуль газового пожаротушения; Модуль порошкового пожаротушения; модули газового пожаротушения; модули порошкового пожаротушения</t>
-  </si>
-  <si>
-    <t>Сантехническое оборудование</t>
-  </si>
-  <si>
-    <t>унитазы компакт; унитазы подвесные; унитазы напольные; инсталляциии для унитазов; раковины подвесные; раковины накладные; ванны из искусственных материалов; поддоны душевые; душевой лоток; смесители универсальные; смесители для раковины; смесители для ванны или душа; душевые стойки; водонагреватели; жироуловители; подводки гибкие канализационные; подводки гибкие для водопровода</t>
-  </si>
-  <si>
-    <t>Водосточные воронки, трапы, воздушные клапаны</t>
-  </si>
-  <si>
-    <t>воронки водосточные кровельные; воронки водосточные кровельные с электрообогревом; воронки водосточные парапетные; воронки капельные; воздушные канализационные клапаны; воздушные канализационные клапаны электрофицированные; трапы вертикальные; трапы горизонтальные; Закладное оборудование для бассейна</t>
-  </si>
-  <si>
-    <t>Приборы учета и измерительные</t>
-  </si>
-  <si>
-    <t>счетчики водяные; водомерные узлы потребителя; счетчики водяные общедомовые; счетчики тепловые; счетчики тепловые для УУТЭ; электронный блок теплосчетчика; термопреобразователи; преобразователи расхода; манометры; мановакуумметры; термометр биметаллический; термометр жидкостный</t>
-  </si>
-  <si>
-    <t>Отопительный прибор</t>
-  </si>
-  <si>
-    <t>Отопительные приборы</t>
-  </si>
-  <si>
-    <t>радиаторы панельные стальные с нижним подключением; радиаторы панельные стальные боковым подключением; радиаторы трубчатые стальные настенные с боковым подключением; радиаторы трубчатые стальные настенные с нижним подключением; конвекторы настенные; конвекторы напольные; конвекторы внутрипольные; конвекторы электрические; регистры из гладких труб; кронштейны; тепловентиляторы</t>
-  </si>
-  <si>
-    <t>Арматура для подключения отопительных приборов</t>
-  </si>
-  <si>
-    <t>клапаны термостатические; головки термостатические; терморегуляторы; трубки для радиатора</t>
-  </si>
-  <si>
-    <t>Узел распределительный</t>
-  </si>
-  <si>
-    <t>Узлы распределительные</t>
-  </si>
-  <si>
-    <t>узлы распределительные этажные</t>
-  </si>
-  <si>
-    <t>Узлы смесительные</t>
-  </si>
-  <si>
-    <t>узлы смесительные без насосов; узлы смесительные с насосами</t>
-  </si>
-  <si>
-    <t>Тепловые завесы</t>
-  </si>
-  <si>
-    <t>Тепловые завесы шириной до 1000 мм; Тепловые завесы шириной от 1001 до 1500 мм; Тепловые завесы шириной от 1501 до 2000 мм; Тепловые завесы шириной от 2001 до 2500 мм; Тепловые завесы шириной от 2501 до 3000 мм; Пульты управления для тепловых завес</t>
-  </si>
-  <si>
-    <t>Оборудование</t>
-  </si>
-  <si>
-    <t>Оборудование тепловых пунктов</t>
-  </si>
-  <si>
-    <t>теплообменники пластинчатые; Водонагреватели; грязевики абонентские; охладители проб; блочные тепловые пункты до 0,4 МВт; стремянки, подставки монтажные</t>
-  </si>
-  <si>
-    <t>Материалы для монтажа</t>
-  </si>
-  <si>
-    <t>маты монтажные для теплых полов; шланг термостойкий; гибкие подводки для отопления; Шкафы коллекторные; теплоносители для систем теплоснабжения</t>
-  </si>
-  <si>
-    <t>радиатор панельный стальной с нижним подключением; радиатор панельный стальной боковым подключением; радиатор трубчатый стальной настенный с боковым подключением; радиатор трубчатый стальной настенный с нижним подключением; радиатор трубчатый стальной напольный с боковым подключением; конвектор настенный; конвектор напольный; конвектор внутрипольный; конвектор универсальный (электрический); регистр из гладких труб; тепловентилятор</t>
-  </si>
-  <si>
-    <t>Регулирующая арматура</t>
-  </si>
-  <si>
-    <t>клапан термостатический; головка термостатическая; клапан радиаторный; терморегулятор</t>
-  </si>
-  <si>
-    <t>этажный</t>
-  </si>
-  <si>
-    <t>Узел смесительный</t>
-  </si>
-  <si>
-    <t>без насосов; с насосами</t>
-  </si>
-  <si>
-    <t>Воздушно-тепловая завеса</t>
-  </si>
-  <si>
-    <t>шириной до 1000 мм; шириной от 1001 до 1500 мм; шириной от 1501 до 2000 мм; шириной от 2001 до 2500 мм; шириной от 2501 до 3000 мм</t>
-  </si>
-  <si>
-    <t>Теплообменник</t>
-  </si>
-  <si>
-    <t>пластинчатый</t>
-  </si>
-  <si>
-    <t>счетчик тепловой; счетчик тепловой для УУТЭ; электронный блок теплосчетчика; термопреобразователь; преобразователь расхода; манометр; мановакуумметр; термометр биметаллический; термометр жидкостный</t>
-  </si>
-  <si>
-    <t>Водонагреватель</t>
-  </si>
-  <si>
-    <t>промышленный</t>
-  </si>
-  <si>
-    <t>Грязевик  абонентский</t>
-  </si>
-  <si>
-    <t>вертикальный</t>
-  </si>
-  <si>
-    <t>Охладитель проб</t>
-  </si>
-  <si>
-    <t>сетевой воды</t>
-  </si>
-  <si>
-    <t>Электрический котел</t>
-  </si>
-  <si>
-    <t>с насосом</t>
-  </si>
-  <si>
-    <t>Воздуховоды</t>
-  </si>
-  <si>
-    <t>воздуховоды из оцинкованной стали круглого сечения прямой участок; воздуховоды из оцинкованной стали круглого сечения фасонные части; воздуховоды из черной стали круглого сечения прямой участок; воздуховоды из ПВХ круглого сечения прямой участок; воздуховоды из ПВХ круглого сечения фасонные части; воздуховоды из оцинкованной стали прямоугольного сечения прямой участок; воздуховоды из оцинкованной стали прямоугольного сечения фасонные части; воздуховоды из черной стали прямоугольного сечения прямой участок; воздуховоды из черной стали прямоугольного сечения фасонные части; воздуховоды из ПВХ прямоугольного сечения прямой участок; воздуховоды из ПВХ прямоугольного сечения фасонные части; фильтры канальные круглые; фильтры канальные прямоугольные; фильтрационная установка; бактерицидная секция для прямоугольныx каналов; зонты круглые; зонты прямоугольные; компенсаторы тепловых расширений прямоугольного сечения; питометражный лючок; из оцинкованной стали круглого сечения; из оцинкованной стали прямоугольного сечения; из черной стали круглого сечения; из черной стали прямоугольного сечения; ПВХ круглого сечения; ПВХ прямоугольного сечения; гибкие круглого сечения</t>
-  </si>
-  <si>
-    <t>Покрытия огнезащитные и теплозащитные</t>
-  </si>
-  <si>
-    <t>покрытия базальтовые для воздуховодов; покрытия стекловолоконные для воздуховодов; покрытия комбинированные для воздуховодов</t>
-  </si>
-  <si>
-    <t>Воздухораспределители и решетки</t>
-  </si>
-  <si>
-    <t>решетки пластиковые; решетки металлические; диффузоры металлические; диффузоры пластиковые; клапаны приточные</t>
-  </si>
-  <si>
-    <t>Клапаны вентиляционные</t>
-  </si>
-  <si>
-    <t>Клапаны вентиляционные противопожарные</t>
-  </si>
-  <si>
-    <t>клапаны противопожарные круглые НО; клапаны противопожарные круглые НЗ; клапаны противопожарные прямоугольные НО периметром до 1400мм; клапаны противопожарные прямоугольные НО периметром до 1600мм; клапаны противопожарные прямоугольные НО периметром до 2400мм; клапаны противопожарные прямоугольные НО периметром до 3200мм; клапаны противопожарные прямоугольные НО периметром до 4500мм; клапаны противопожарные прямоугольные НО периметром до 6000 мм; клапаны противопожарные прямоугольные НЗ периметром до 1000 мм; клапаны противопожарные прямоугольные НЗ периметром до 1600 мм; клапаны противопожарные прямоугольные НЗ периметром до 2400 мм; клапаны противопожарные прямоугольные НЗ периметром до 3200мм; клапаны противопожарные прямоугольные НЗ периметром до 4500мм; клапаны противопожарные прямоугольные НЗ периметром до 6000 мм; клапаны противопожарные избыточного давления прямоугольные периметром до 1000 мм; клапаны противопожарные избыточного давления прямоугольные периметром до 1600 мм; клапаны противопожарные избыточного давления прямоугольные периметром до 2400 мм; клапаны противопожарные избыточного давления прямоугольные периметром до 3200 мм; клапаны противопожарные избыточного давления прямоугольные периметром до 4500 мм; клапаны морозостойкие воздухозаборные периметром до 1000мм; клапаны морозостойкие воздухозаборные периметром до 1600мм; клапаны морозостойкие воздухозаборные периметром до 2400мм; клапаны морозостойкие воздухозаборные периметром до 3200мм; клапаны морозостойкие воздухозаборные периметром до 4500мм; клапаны морозостойкие воздухозаборные периметром до 6000мм; клапаны морозостойкие воздухозаборные периметром до 8000мм</t>
-  </si>
-  <si>
-    <t>Клапаны вентиляционные общеобменной вентиляции</t>
-  </si>
-  <si>
-    <t>клапаны дроссельные круглые с ручным приводом; заслонки воздушные круглые с электроприводом; клапаны ирисовые; клапаны воздушные круглые с ручным приводом; клапаны дроссельные прямоугольные с ручным приводом периметром до 1000 мм; клапаны дроссельные прямоугольные с ручным приводом периметром до 1600 мм; клапаны дроссельные прямоугольные с ручным приводом периметром до 2400 мм; клапаны дроссельные прямоугольные с ручным приводом периметром до 3200 мм; клапаны дроссельные прямоугольные с ручным приводом периметром до 4500 мм; заслонки воздушные прямоугольные  с электроприводом периметром до 1000 мм; заслонки воздушные прямоугольные  с электроприводом периметром до 1600 мм; заслонки воздушные прямоугольные  с электроприводом периметром до 2400 мм; заслонки воздушные прямоугольные  с электроприводом периметром до 3200 мм; клапаны воздушные прямоугольные периметром до 1000 мм; клапаны воздушные прямоугольные периметром до 1600 мм; клапаны воздушные прямоугольные периметром до 2400 мм; клапаны воздушные прямоугольные периметром до 3200 мм; клапаны воздушные прямоугольные периметром до 4500 мм; клапаны воздушные прямоугольные  с электроприводом периметром до 1000 мм; клапаны воздушные прямоугольные  с электроприводом периметром до 1600 мм; клапаны воздушные прямоугольные  с электроприводом периметром до 2400 мм; клапаны воздушные прямоугольные с электроприводом периметром до 4500 мм; клапаны воздушные прямоугольные с электроприводом периметром до 6000 мм; клапаны обратные круглые; клапаны обратные прямоугольные периметром до 1000мм; клапаны обратные прямоугольные периметром до 1600мм; клапаны обратные прямоугольные периметром до 4500мм; Приводы для воздушных клапанов</t>
-  </si>
-  <si>
-    <t>Вентиляторы</t>
-  </si>
-  <si>
-    <t>Вентиляторы общеобменной вентиляции</t>
-  </si>
-  <si>
-    <t>вентиляторы крышные массой до 100 кг; вентиляторы крышные массой до 200 кг; вентиляторы радиальные массой до 100 кг; вентиляторы радиальные массой до 200 кг; вентиляторы радиальные массой до 400 кг; вентиляторы канальные круглые массой до 5 кг; вентиляторы канальные круглые массой до 10 кг; вентиляторы канальные круглые массой до 25 кг; вентиляторы канальные прямоугольные массой до 25 кг; вентиляторы канальные прямоугольные массой до 50 кг; вентиляторы бытовые накладные; вентиляторы канальные прямоугольные массой до 100 кг; вентиляторы канальные прямоугольные массой до 200 кг; Элементы вентиляционных установок</t>
-  </si>
-  <si>
-    <t>Вентиляторы противодымной вентиляции</t>
-  </si>
-  <si>
-    <t>вентиляторы дымоудаления радиальные массой до 100 кг; вентиляторы дымоудаления радиальные массой до 200 кг; вентиляторы дымоудаления радиальные массой до 400 кг; вентиляторы дымоудаления радиальные массой до 600 кг; вентиляторы дымоудаления радиальные массой до 800 кг; вентиляторы дымоудаления осевые массой до 100 кг; вентиляторы дымоудаления осевые массой до 200 кг; вентиляторы дымоудаления осевые массой до 400 кг; вентиляторы подпора осевые массой до 100 кг; вентиляторы подпора осевые массой до 200 кг; вентиляторы подпора осевые массой до 400 кг; противодымная завеса; вентилятор дымосос</t>
-  </si>
-  <si>
-    <t>Шумоглушители</t>
-  </si>
-  <si>
-    <t>шумоглушители круглые; шумоглушители прямоугольные периметром до 2400мм; шумоглушители прямоугольные периметром до 3200мм; шумоглушители пластинчатые 2 пластины; шумоглушители пластинчатые 3 пластины; шумоглушители пластинчатые 4 пластины; шумоглушители пластинчатые 5 пластин; шумоглушители пластинчатые 6 пластин</t>
-  </si>
-  <si>
-    <t>Вентиляционные установки</t>
-  </si>
-  <si>
-    <t>приточные установки производительностью до 1000м3; приточные установки производительностью до 3000м3; приточные установки производительностью до 10000м3; приточные установки производительностью свыше 10000м3; приточные установки со смесительным узлом производительностью до 1000м3; приточные установки со смесительным узлом производительностью до 3000м3; приточные установки со смесительным узлом производительностью до 10000м3; приточные установки со смесительным узлом производительностью свыше 10000м3; вытяжные установки производительностью до 1000м3; вытяжные установки производительностью до 3000м3; вытяжные установки производительностью до 10000м3; вытяжные установки производительностью свыше 10000м3; вытяжные установки со смесительным узлом производительностью свыше 10000м3; приточно-вытяжные установки производительностью до 1000м3; приточно-вытяжные установки производительностью до 3000м3; приточно-вытяжные установки производительностью до 10000м3; приточно-вытяжные установки производительностью свыше 10000м3; приточно-вытяжные установки со смесительным узлом производительностью до 3000м3; приточно-вытяжные установки со смесительным узлом производительностью до 10000м3</t>
-  </si>
-  <si>
-    <t>Калориферы</t>
-  </si>
-  <si>
-    <t>электрокалориферы канальные круглые; электрокалориферы канальные прямоугольные; водяной канальный калорифер круглый; водяной канальный калорифер прямоугольный</t>
-  </si>
-  <si>
-    <t>Кондиционеры</t>
-  </si>
-  <si>
-    <t>сплит-системы с одним внутренним блоком мощностью до 5кВт; сплит-системы с одним внутренним блоком мощностью до 8кВт; сплит-системы с одним внутренним блоком мощностью свыше 8кВт; сплит-системы на 2 внутренних блока мощностью до 8кВт; сплит-системы на 3 внутренних блока мощностью до 5кВт; сплит-системы на 3 внутренних блока мощностью до 8кВт; сплит-системы на 4 внутренних блока мощностью свыше 8кВт; сплит-системы на 5 внутренних блока мощностью свыше 8кВт; внешние блоки VRF мощностью до 20кВт; внешние блоки VRF мощностью до 40кВт; внешние блоки VRF мощностью до 60кВт; внутренние блоки VRF мощностью до 5кВт; внутренние блоки VRF мощностью до 8кВт; внутренние блоки VRF мощностью свыше 8кВт; рефнеты; пульты управления кондиционерами; сифоны для кондиционеров; дренажные помпы; зимний комплект для кондиционера; клапан Шредера; Клапаны расширительные; фреон</t>
-  </si>
-  <si>
-    <t>вставки гибкие круглые; вставки гибкие прямоугольные</t>
-  </si>
-  <si>
-    <t>Дымоходы</t>
-  </si>
-  <si>
-    <t>из нержавеющей стали</t>
-  </si>
-  <si>
-    <t>Чиллер</t>
-  </si>
-  <si>
-    <t>Сухой охладитель</t>
-  </si>
-  <si>
-    <t>Покрытие воздуховодов огнезащитное и теплозащитное</t>
-  </si>
-  <si>
-    <t>базальтовое; стекловолоконное; комбинированное; вспененный каучук; вспененный полиэтилен</t>
-  </si>
-  <si>
-    <t>Вставка гибкая</t>
-  </si>
-  <si>
-    <t>прямоугольного сечения; круглого сечения; термостойкая прямоугольного сечения; термостойкая круглого сечения</t>
-  </si>
-  <si>
-    <t>Решетка вентиляционная</t>
-  </si>
-  <si>
-    <t>пластиковая прямоугольная; металлическая круглая; металлическая прямоугольная</t>
-  </si>
-  <si>
-    <t>Диффузор</t>
-  </si>
-  <si>
-    <t>пластиковый круглый; пластиковый прямоугольный; металлический круглый; металлический прямоугольный</t>
-  </si>
-  <si>
-    <t>Клапан противопожарный</t>
-  </si>
-  <si>
-    <t>круглый НО; круглый НЗ; прямоугольный НО периметром до 1000мм; прямоугольный НО периметром до 1600мм; прямоугольный НО периметром до 2400мм; прямоугольный НО периметром до 3200мм; прямоугольный НО периметром до 4500мм; прямоугольный НО периметром до 6000 мм; прямоугольный НЗ периметром до 1000 мм; прямоугольный НЗ периметром до 1600 мм; прямоугольный НЗ периметром до 2400 мм; прямоугольный НЗ периметром до 3200мм; прямоугольный НЗ периметром до 4500мм; прямоугольный НЗ периметром до 6000 мм; прямоугольный избыточного давления периметром до 1000 мм; прямоугольный избыточного давления  периметром до 1600 мм; прямоугольный избыточного давления периметром до 2400 мм; прямоугольный избыточного давления  периметром до 3200 мм; прямоугольный избыточного давления периметром до 4500 мм; прямоугольный морозостойкий воздухозаборный периметром до 1600мм; прямоугольный морозостойкий воздухозаборный периметром до 2400мм; прямоугольный морозостойкий воздухозаборный периметром до 4500мм; прямоугольный морозостойкий воздухозаборный периметром до 6000мм</t>
-  </si>
-  <si>
-    <t>Клапан общеобменной вентиляции</t>
-  </si>
-  <si>
-    <t>дроссельный круглый с ручным приводом; обратный круглый с ручным приводом; воздушный круглый с ручным приводом; ирисовый круглый с ручным приводом; дроссельный прямоугольный с ручным приводом периметром до 1000 мм; дроссельный прямоугольный с ручным приводом периметром до 1600 мм; дроссельный прямоугольный с ручным приводом периметром до 2400 мм; дроссельный прямоугольный с ручным приводом периметром до 3200 мм; дроссельный прямоугольный с ручным приводом периметром до 4500 мм; обратный прямоугольный с ручным приводом периметром до 1000мм; обратный прямоугольный с ручным приводом периметром до 1600мм; воздушный прямоугольный с электроприводом периметром до 1000 мм; воздушный прямоугольный с электроприводом периметром до 1600 мм; воздушный прямоугольный с электроприводом периметром до 2400 мм; воздушный прямоугольный с электроприводом периметром до 3200 мм; воздушный прямоугольный с электроприводом периметром до 4500 мм; воздушный прямоугольный с электроприводом периметром до 6000 мм; Заслонка прямоугольная регулирующая с электроприводом периметром до 1600мм; Заслонка прямоугольная регулирующая с электроприводом периметром до 2400мм; Заслонка прямоугольная регулирующая с электроприводом периметром до 3200мм; Заслонка воздушная круглая с электроприводом</t>
-  </si>
-  <si>
-    <t>Вентилятор крышный</t>
-  </si>
-  <si>
-    <t>прямоугольный массой до 100 кг; прямоугольный массой до 200 кг; прямоугольный массой до 400 кг</t>
-  </si>
-  <si>
-    <t>Вентилятор канальный</t>
-  </si>
-  <si>
-    <t>круглый массой до 5 кг; круглый массой до 10 кг; прямоугольный массой до 25 кг; прямоугольный массой до 50 кг</t>
-  </si>
-  <si>
-    <t>Вентилятор дымоудаления</t>
-  </si>
-  <si>
-    <t>радиальный массой до 100 кг; радиальный массой до 200 кг; радиальный массой до 400 кг; радиальный массой до 600 кг; радиальный массой до 800 кг; осевой массой до 100 кг; осевой массой до 200 кг; осевой массой до 400 кг; крышные массой до 100 кг; крышные массой до 200 кг; крышные массой до 400 кг</t>
-  </si>
-  <si>
-    <t>Вентилятор подпора</t>
-  </si>
-  <si>
-    <t>осевой массой до 100 кг; крышной массой до 200 кг; осевой массой до 400 кг; крышные массой до 100 кг; крышные массой до 200 кг; крышные массой до 400 кг; осевой массой до 200 кг</t>
-  </si>
-  <si>
-    <t>Вентилятор дымосос</t>
-  </si>
-  <si>
-    <t>переносной массой до 30 кг</t>
-  </si>
-  <si>
-    <t>Завеса</t>
-  </si>
-  <si>
-    <t>противодымная</t>
-  </si>
-  <si>
-    <t>Шумоглушитель</t>
-  </si>
-  <si>
-    <t>круглый трубчатый; прямоугольный пластинчатый 1 пластина; прямоугольный пластинчатый 2 пластины; прямоугольный пластинчатый 3 пластины; прямоугольный пластинчатый 4 пластины</t>
-  </si>
-  <si>
-    <t>Вентиляционная установка</t>
-  </si>
-  <si>
-    <t>приточная производительностью до 1000м3; приточная производительностью до 3000м3; приточная производительностью до 10000м3; приточная производительностью свыше 10000м3; приточная со смесительным узлом производительностью до 1000м3; приточная со смесительным узлом производительностью до 3000м3; приточная со смесительным узлом производительностью до 10000м3; приточная со смесительным узлом производительностью свыше 10000м3; вытяжная производительностью до 1000м3; вытяжная производительностью до 3000м3; вытяжная производительностью до 10000м3; вытяжная производительностью свыше 10000м3; вытяжная со смесительным узлом производительностью до 1000м3; вытяжная со смесительным узлом производительностью до 3000м3; вытяжная со смесительным узлом производительностью до 10000м3; вытяжная со смесительным узлом производительностью свыше 10000м3; приточно-вытяжная производительностью до 1000м3; приточно-вытяжная производительностью до 3000м3; приточно-вытяжная производительностью до 10000м3; приточно-вытяжная производительностью свыше 10000м3; приточно-вытяжная  со смесительным узлом производительностью до 1000м3; приточно-вытяжная  со смесительным узлом производительностью до 3000м3; приточно-вытяжная  со смесительным узлом производительностью до 10000м3; приточно-вытяжная  со смесительным узлом производительностью свыше 10000м3</t>
-  </si>
-  <si>
-    <t>Кондиционер</t>
-  </si>
-  <si>
-    <t>Сплит-система с одним внутренним блоком мощностью до 5кВт; сплит-система с одним внутренним блоком мощностью до 8кВт; сплит-система с одним внутренним блоком мощностью свыше 8кВт; сплит-система на два внутренним блоком мощностью до 5кВт; сплит-система на два внутренним блоком мощностью до 8кВт; сплит-система на два внутренним блоком мощностью свыше 8кВт; сплит-система на три внутренних блока мощностью до 5кВт; сплит-система на три внутренним блоком мощностью до 8кВт; сплит-система на три внутренним блоком мощностью свыше 8кВт; чиллер; внешние блоки VRF мощностью до 20кВт; внешние блоки VRF мощностью до 40кВт; внешние блоки VRF мощностью до 60кВт; внутренние блоки VRF мощностью до 5кВт; внутренние блоки VRF мощностью до 8кВт; внутренние блоки VRF мощностью свыше 8кВт</t>
-  </si>
-  <si>
-    <t>Дренаж кондиционеров</t>
-  </si>
-  <si>
-    <t>сифон; дренажная помпа</t>
-  </si>
-  <si>
-    <t>Комплект кондиционеров</t>
-  </si>
-  <si>
-    <t>зимний; всесезонный(низкотемпературный) комплекс; Комплект автоматики</t>
-  </si>
-  <si>
-    <t>Клапан кондиционирования</t>
-  </si>
-  <si>
-    <t>Шредера</t>
-  </si>
-  <si>
-    <t>Хладагент</t>
-  </si>
-  <si>
-    <t>фреон</t>
-  </si>
-  <si>
-    <t>Электрокалорифер</t>
-  </si>
-  <si>
-    <t>канальный круглый; канальный прямоугольный</t>
-  </si>
-  <si>
-    <t>Зонт</t>
-  </si>
-  <si>
-    <t>Прямоугольный; Круглый</t>
-  </si>
-  <si>
-    <t>Вентилятор накладной</t>
-  </si>
-  <si>
-    <t>круглого сечения</t>
-  </si>
-  <si>
-    <t>Клапан приточный</t>
-  </si>
-  <si>
-    <t>оконный</t>
-  </si>
-  <si>
-    <t>Провод</t>
-  </si>
-  <si>
-    <t>Кабель силовой негорючий</t>
-  </si>
-  <si>
-    <t>медный сечением до 16мм; алюминиевый сечением до 16мм; медный сечением до 35мм; алюминиевый сечением до 35мм; медный сечением до 70мм; алюминиевый сечением до 70мм; медный сечением до 120мм; алюминиевый сечением до 120мм; медный сечением до 150мм; алюминиевый сечением до 150мм; медный сечением до 240мм; алюминиевый сечением до 240мм; медный сечением до 500мм; алюминиевый сечением до 500мм; медный сечением до 750мм; алюминиевый сечением до 750мм; медный сечением до 1200мм; алюминиевый сечением до 1200мм</t>
-  </si>
-  <si>
-    <t>Кабель силовой огнестойкий</t>
-  </si>
-  <si>
-    <t>Кабель силовой бронированный</t>
-  </si>
-  <si>
-    <t>медный сечением до 16 мм; медный сечением до 35 мм; медный сечением до 70мм; медный сечением до 120мм; медный сечением до 240мм; медный сечением до 150мм; медный сечением до 750мм; медный сечением до 1200мм</t>
-  </si>
-  <si>
-    <t>Провод силовой негорючий</t>
-  </si>
-  <si>
-    <t>медный сечением до 16 мм; медный сечением до 35мм; медный сечением до 70мм; медный сечением до 120мм; силовой медный сечением до 150мм; медный сечением до 240мм</t>
-  </si>
-  <si>
-    <t>Кабель силовой греющий</t>
-  </si>
-  <si>
-    <t>резистивный; саморегулируемый</t>
-  </si>
-  <si>
-    <t>Кабель для передачи информации</t>
-  </si>
-  <si>
-    <t>высокочастотного сигнала (коаксиальный); сетевой (витая пара); сетевой огнестойкий (витая пара); для интерфейса RS-485; для интерфейса RS-485 огнестойкий; управления, сигнализации и блокировки; управления, сигнализации и блокировки огнестойкий; сигнала управления (контрольный); сигнала управления (контрольный) огнестойкий; сигнала связи (оптический); сигнала связи (оптический) огнестойкий; микрофонных линий; телефонной сети; ОЗДС высоковольтный; проводного вещания</t>
-  </si>
-  <si>
-    <t>кабель силовой медный сечением до 16мм; кабель силовой медный сечением до 35мм; кабель силовой медный сечением до 70мм; кабель силовой медный сечением до 120мм; кабель силовой медный сечением до 150мм; кабель силовой медный сечением до 240мм; кабель силовой медный сечением до 500мм; кабель силовой медный сечением до 750мм; кабель силовой медный сечением от 750 мм; кабель силовой алюминиевый; кабель коаксиальный; кабель витая пара; кабель телефонный; кабель для локальных сетей; кабель для RS-485; кабель для систем передачи данных; кабель проводного вещания; кабель микрофонный; кабель для слаботочных систем; кабель контрольный; кабель греющий саморегулируемый; кабель греющий резистивный; кабель оптический; кабель силовой медный бронированный; кабель силовой алюминиевый бронированный до 240мм; кабель силовой алюминиевый бронированный до 750мм; кабель силовой алюминиевый бронированный от 750мм</t>
-  </si>
-  <si>
-    <t>провод силовой медный сечением до 16 мм; провод силовой медный сечением до 35мм; провод силовой медный сечением до 70мм; провод силовой медный сечением до 120мм; провод силовой медный сечением до 150мм; провод силовой медный сечением до 240мм; провод телефонный; провод высоковольтный для ОЗДС; провод самонесущий изолированный</t>
-  </si>
-  <si>
-    <t>Электроустановочные изделия и материалы</t>
-  </si>
-  <si>
-    <t>выключатель для скрытой проводки; выключатель для открытой проводки; переключатель для скрытой проводки; переключатель для открытой проводки; розетка для скрытой проводки; розетка для открытой проводки; рамки для розеток и выключателей; коробка электротехническая; предохранитель плавкий; выключатели одноклавишные для скрытой проводки; выключатели одноклавишные для открытой проводки; выключатели двухклавишные для скрытой проводки; переключатели одноклавишные для  скрытой проводки; переключатели одноклавишные для  открытой проводки; розетки электрические для скрытой проводки; розетки электрические для открытой проводки; розетки компьютерные; розетки телефонные; трансформаторы тока; коробки электротехнические; прочие; Лючки с силовыми розетками; разъем для нагревателей</t>
-  </si>
-  <si>
-    <t>Прибор измерительный</t>
-  </si>
-  <si>
-    <t>Счетчик электрический однофазный; Счетчик электрический трехфазный; коробка испытательная</t>
-  </si>
-  <si>
-    <t>Прибор осветительный</t>
-  </si>
-  <si>
-    <t>патрон; светильники светодиодные; лента светодиодная; табло световое; прибор светосигнальный; светильник переносной; блок управления освещением; датчик движения; светильники трековые; Шинопровод (трек)</t>
-  </si>
-  <si>
-    <t>Кабеленесущие конструкции</t>
-  </si>
-  <si>
-    <t>труба ПВХ гофрированная; труба ПВХ жесткая гладкая; труба ПНД; металлорукав; труба полиэтиленовая ПНД; лоток перфорированный; лоток неперфорированный; лоток лестничный; крышка к лотку; профиль перфорированный; DIN-рейка; кабель-канал пластиковый шириной до 50мм; кабель-канал пластиковый шириной до 100мм; короб огнестойкий; лоток проволочный; труба ПА гофрированная; труба пластиковая гофрированная; труба ПВХ жесткая; Прочие материалы для кабельных трасс</t>
-  </si>
-  <si>
-    <t>Материалы для молниезащиты и заземления</t>
-  </si>
-  <si>
-    <t>стержни молниеприемные; заземлители; прочие</t>
-  </si>
-  <si>
-    <t>Защитные средства для электрощитовых</t>
-  </si>
-  <si>
-    <t>указатель напряжения; инструмент диэлектрический; переносное заземление; плакаты и знаки безопасности; средства защиты; огнетушитель углекислотный; стенд для СИЗ; изолирующая штанга; огнетушители; стенды; оперативные изолирующие штанги</t>
-  </si>
-  <si>
-    <t>Счетчики электрические</t>
-  </si>
-  <si>
-    <t>счетчики электрические однофазные; счетчики электрические трехфазные; коробки испытательные</t>
-  </si>
-  <si>
-    <t>Приборы осветительные</t>
-  </si>
-  <si>
-    <t>патроны; светильники светодиодные потолочные; светильники светодиодные настенные; светильники светодиодные точечные; лента светодиодная; осветительные системы; Лайтбоксы; табло световые; приборы светосигнальные; прожекторы; лампы настольные и переносные; блоки питания светодиодных светильников и лент; блоки управления освещением; датчики движения</t>
-  </si>
-  <si>
-    <t>устройства низковольтные комплектные</t>
-  </si>
-  <si>
-    <t>Панель ВРУ; Щит аварийного переключения; Панель ГРЩ; Шинопроводная система; Ящик с понижаюшим трансформатором; установка компенсации реактивной мощности; устройства этажные распределительные комплектные на 1-2 квартиры; устройства этажные распределительные комплектные на 3 квартиры; устройства этажные распределительные комплектные на 4 квартиры; устройства этажные распределительные комплектные на 5 квартир; устройства этажные распределительные комплектные на 6 квартир; устройства этажные распределительные комплектные на 7 квартир; устройства этажные распределительные комплектные на 8 квартир; устройства этажные распределительные комплектные на 9 квартир; устройства этажные распределительные комплектные на 10 квартир; Короб для УЭРМ; Компенсатор высоты; Ящик учетно-распределительный; Щит механизации в сборе; Щит квартирный в сборе; Щит силовой с модульным оборудованием; щит силовой с монтажной панелью в сборе; щит управления освещением; Шкаф управления пожарный; вводно-распределительные устройства комплектные до 6 панелей; вводно-распределительные устройства комплектные до 8 панелей; вводно-распределительные устройства комплектные до 10 панелей; Распределительная панель; Шкаф учета; главные распределительные щиты комплектные до 10 панелей</t>
-  </si>
-  <si>
-    <t>Аппаратура</t>
-  </si>
-  <si>
-    <t>Аппараты защиты</t>
-  </si>
-  <si>
-    <t>пакетный выключатель и переключатель на ток до 25А; пакетный выключатель на ток до 100А; Автоматический выключатель на ток до 25 А; Автоматический выключатель на ток до 100 А; Выключатель нагрузки на ток до 100А</t>
-  </si>
-  <si>
-    <t>Аппаратура комплектная</t>
-  </si>
-  <si>
-    <t>вводно-распределительные устройства комплектные до 10 панелей; вводно-распределительные устройства комплектные до 6 панелей; вводно-распределительные устройства комплектные до 8 панелей; панели ВРУ; панели АВР; панели ГРЩ; панели распределительные; Шинопроводы; ящик с понижаюшим трансформатором; установка компенсации реактивной мощности</t>
-  </si>
-  <si>
-    <t>Выключатели и переключатели</t>
-  </si>
-  <si>
-    <t>пакетные выключатели на ток до 25А; пакетные выключатели на ток до 100А; автоматические выключатели на ток до 25 А; автоматические выключатели на ток до 100 А; автоматические выключатели на ток до 400 А</t>
-  </si>
-  <si>
-    <t>Устройства этажные распределительные</t>
-  </si>
-  <si>
-    <t>устройства этажные распределительные комплектные на 1-2 квартиры; устройства этажные распределительные комплектные на 3 квартиры; устройства этажные распределительные комплектные на 4 квартиры; устройства этажные распределительные комплектные на 5 квартир; устройства этажные распределительные комплектные на 6 квартир; устройства этажные распределительные комплектные на 7 квартир; устройства этажные распределительные комплектные на 8 квартир; устройства этажные распределительные комплектные на 9 квартир; устройства этажные распределительные комплектные на 10-11 квартир; короба УЭРМ; корпуса УЭРМ; ящики учетно-распределительные</t>
-  </si>
-  <si>
-    <t>Щитовое оборудование</t>
-  </si>
-  <si>
-    <t>щиты механизации; щиты квартирные; щиты силовые с модульным оборудованием; щиты силовые с монтажной панелью; щиты управления освещением; щиты управления вентиляцией; щиты управления оборгевом; корпуса щитов силовых</t>
-  </si>
-  <si>
-    <t>Дизельные генераторы</t>
-  </si>
-  <si>
-    <t>Дизельные генераторы мощностью 150-200 кВт</t>
-  </si>
-  <si>
-    <t>Оборудование ОПС</t>
-  </si>
-  <si>
-    <t>прибор приемно-контрольный; пульт контроля и управления; прибор приемно-контрольный адресный; блок индикации; пульт дистанционного управления; Центральный прибор управления  ОПС; модуль сопряжения; преобразователь интерфейса; модуль реле; интерфейсный модуль; модуль управления клапаном дымоудаления; блок контрольно-пусковой; блок сигнально-пусковой; контроллер ОПС; повторитель  интерфейса; извещатель пожарный дымовой адресный; извещатель пожарный дымовой автономный; извещатель пожарный тепловой адресный; извещатель пожарный ручной; устройство дистанционного пуска; датчик положения пожарного крана; извещатель охранный магнитоконтактный; извещатель охранный акустический; извещатель охранный объемный; извещатель охранный ручной; адресная метка; адресный расширитель; промежуточные устройства и блоки; Контроллер алресных устройств; Извещатель утечки газа; приборы приемно-контрольные на 2-10 лучей; приборы приемно-контрольные на 20 лучей; приборы приемно-контрольные адресные; приборы пусковые; блоки индикации; пульты дистанционного управления; АРМ ОПС; модули сопряжения; повторитель/преобразователь/разделитель интерфейса; релейные модули; интерфейсные модули; модули управления дымоудалением; блоки контрольно-пусковые; блоки сигнально-пусковые; контроллеры ОПС; извещатели пожарные дымовые точечные; извещатели пожарные дымовые линейные; извещатели пожарные тепловые; извещатели пожарные ручные; устройства дистанционного пуска; извещатели пожарные пламени; датчики положения пожарного крана; извещатели охранные магнитоконтактные; извещатели охранные акустические; извещатели охранные объемные; извещатели охранные ручные; адресные метки; адресные расширители</t>
-  </si>
-  <si>
-    <t>Оборудование оповещения и диспетчерской связи</t>
-  </si>
-  <si>
-    <t>прибор управления оповещением; магнитофон; усилитель трансляционный; распределитель программный; блок речевого оповещения; селектор; блок коммутации; блок аварийной сигнализации; блок контроля линий оповещения; блок системы обратной связи; карта речевого оповещения; Громкоговоритель; оповещатель звуковой; оповещатель светозвуковой; табло световое; оповещатель световой; лампа сигнальная; кнопка вызова/сброса; табличка тактильная; вызывная панель; микрофон; микрофонная консоль; Табло отображения; приборы управления оповещением; магнитофоны; усилители трансляционные; распределители программные; блоки речевого оповещения; селекторы; блоки коммутации; блоки аварийной сигнализации; блоки контроля линий; блоки обратной связи; карты речевого оповещения; блоки защиты; оповещатели речевые; оповещатели звуковые; оповещатели светозвуковые; табло световые; оповещатели световые; лампы сигнальные; кнопки вызова; таблички тактильные; вызывные панели; микрофоны; микрофонные консоли; монтажные материалы</t>
-  </si>
-  <si>
-    <t>шкаф управления пожарный; шкаф управления задвижкой; Прибор управления оборудованием; прибор управления насосами; Контроллер; концентратор; Блок диспетчеризации; блок питания и сигнализации; датчик температуры; датчики давления (реле, преобразователи); датчик протечки; выключатель поплавковый; частотный преобразователь; датчик загазованности; устройства переговорные; устройство мониторинга; преобразователь интерфейса; регулятор скорости; счетчик импульсов-регистратор; сигнализатор уровня жидкости; Модуль ввода/вывода/расширения; щиты автоматизации; Пульты диспетчеризации; Ретранслятор; Модули диспетчеризации; комплект КИПиА; датчик расстояния; прочие материалы; пульты диспетчеризации; приборы управления насосами; Контроллеры; концентраторы; датчики температуры; датчики давления; датчики протечки; выключатели поплавковые; частотные преобразователи; датчики загазованности; датчики освещенности; датчики потока; устройства мониторинга; регуляторы скорости; счетчики импульсов; сигнализаторы уровня жидкости; Модули ввода/вывода/расширения; монтажные материалы</t>
-  </si>
-  <si>
-    <t>Оборудование контроля доступа</t>
-  </si>
-  <si>
-    <t>контроллер доступа; контроллер замка; замок электромеханический; замок электромагнитный; Электронный ключ Touch Memory; доводчик дверной; доводчик дверной с электроприводом; кнопка выхода; считыватель; стойка для считывателя; фотоэлемменты; блок светофорного регулирования; пост управления для ворот; детектор магнитной петли; брелок-передатчик; радиоплата; антенна; устройство  переговорное; блоки вызова домофона; пульт консьержа; блок коммутации; коммутатор сетевых подключений; монитор видеодомофона; блок управления домофоном; транспортный идентификатор; турникеты; контроллеры доступа; контроллеры замка; замки электромеханические; замки электромагнитные; ключи ТМ; доводчики дверные; доводчики дверные с электроприводом; кнопки выхода; считыватели; стойки для считывателя; комплект фотоэлементов; блоки светофорного регулирования; посты управления для ворот; детекторы магнитоной петли; брелоки-передатчики; радиоплаты; антенны; устройства  переговорные; пульты консьержа; блоки коммутации; видеомониторы абонентские; блоки управления домофоном</t>
-  </si>
-  <si>
-    <t>Оборудование видеонаблюдения</t>
-  </si>
-  <si>
-    <t>АРМ видеонаблюдения; видеокамера наружной установки; видеокамера внутренней установки; устройство грозозащиты; кронштейн; монтажная коробка; видеосервер; видеорегистраторы на 8 каналов; видеокамеры наружной установки; видеокамеры наружной установки купольные; видеокамеры внутренней установки купольные; устройства грозозащиты; кронштейны; монтажные коробки; видеосерверы</t>
-  </si>
-  <si>
-    <t>Оборудование СКС</t>
-  </si>
-  <si>
-    <t>коммутатор на 4 порта; коммутатор на 8 портов; коммутатор на 16 портов; коммутатор на 18 портов; коммутатор на 24 порта; коммутатор на 28 портов; коммутаторы на 48 портов; патч-панель 12 портов; патч-панель до 24 порта; патч-панель до 48 портов; кросс оптический; патч-корд; шкаф телекоммуникационный навесной; шкаф телекоммуникационный стоечный; комплектующие шкафов телекоммуникационных; модем оптический; конвертер; SFP-модули оптические; Маршрутизатор; Wi-Fi контроллер; Точка доступа; Проводной телефон; POE -удлинители; коммутаторы на 5 портов; коммутаторы на 8 портов; коммутаторы на 16 портов; коммутаторы на 24 порта; коммутаторы на 28 портов; коммутаторы на 18 портов; патч-панели; патч-панель 24 порта; патч-панель 48 портов; кроссы оптические; патч-корды; шкафы телекоммуникационные навесные и комплектующие; шкафы телекоммуникационные стоечные и комплектующие; медиаконвертеры; Маршрутизаторы, wi-fi контроллеры; IP- телефоны</t>
-  </si>
-  <si>
-    <t>Материалы и оборудование радиофикации</t>
-  </si>
-  <si>
-    <t>устройства подачи программ вещания; устройство оповещения; устройство сопряжения; модуль IP; Объектовая станция РСПИ; шкаф трансформаторный распределительный; мачта антенная; кронштейн; антенна; грозозащитный фильтр; радиорозетка; приемник радиовещательный; уличный модем; коробка радиотрансляционной сети; оборудование часофикации</t>
-  </si>
-  <si>
-    <t>Оборудование питания</t>
-  </si>
-  <si>
-    <t>блоки питания резервированные; блок питания стабилизированный; источник бесперебойного питания; блоки питания на DIN-рейку; батарея аккумуляторная; шкаф с блоком питания; блок питания для систем оповещения; блок питания для домофонной связи; блок питания для камеры видеонаблюдения; блок аварийного питания; блоки питания резервированные с АКБ; блоки питания универсальные; блоки питания на 220В; батарейные модули; блоки питания для систем оповещения; блоки питания для домофонной связи; блоки питания для камер видеонаблюдения; модуль управления</t>
-  </si>
-  <si>
-    <t>Оборудование ОЗДС</t>
-  </si>
-  <si>
-    <t>Компьютеры и комплектующие</t>
-  </si>
-  <si>
-    <t>Компьютер в сборе; Жесткий диск; Программное обеспечение; Лицензия; Монитор; Принтер; Сервер; Автоматизированное рабочее место; Компьютеры в сборе; Оборудование стоек модульное; Мониторы; Принтеры; Прочее</t>
-  </si>
-  <si>
-    <t>Оборудование радиофикации</t>
-  </si>
-  <si>
-    <t>устройства подачи программ вещания; устройства оповещения; устройства сопряжения; модуль IP; оборудование радиоканальной передачи извещений; шкафы трансформаторные распределителные; мачты антенные; кронштейны; антенны; грозозащитные фильтры; радиорозетки; радиоприемники трехпрограммные; уличные модемы; коробки ограничительные</t>
-  </si>
-  <si>
-    <t>Оборудование и материалы ОЗДС</t>
-  </si>
-  <si>
-    <t>Материалы ОЗДС; Оборудование ОЗДС</t>
-  </si>
-  <si>
-    <t>Лифты</t>
-  </si>
-  <si>
-    <t>Лифт</t>
-  </si>
-  <si>
-    <t>без машинного помещения грузоподъемностью до 450 кг; без машинного помещения грузоподъемностью до 630 кг; без машинного помещения грузоподъемностью до 1000 кг; без машинного помещения грузоподъемностью до 1300 кг; без машинного помещения грузоподъемность до 1500 кг; без машинного помещения грузоподъемность до 1600 кг; с машинным помещением грузоподъемностью до 450 кг; с машинным помещением грузоподъемностью до 630 кг; с машинным помещением грузоподъемностью до 1000 кг; с машинным помещением грузоподъемностью до 1300 кг; с машинным помещением грузоподъемностью до 1500 кг; с машинным помещением грузоподъемностью 1600 кг</t>
-  </si>
-  <si>
-    <t>Подъемник</t>
-  </si>
-  <si>
-    <t>для ММГН наклонный; для ММГН вертикальный; грузовой без машинного помещения грузоподъемность 500-1000 кг; эскалаторы; грузовой без машинного помещения грузоподъемность до 499 кг</t>
-  </si>
-  <si>
-    <t>лифты без машинного помещения грузоподъемностью 200 кг; лифты без машинного помещения грузоподъемностью 450 кг; лифты без машинного помещения грузоподъемностью 630 кг; лифты без машинного помещения грузоподъемностью 1000 кг; лифты без машинного помещения грузоподъемностью 1001-1100 кг; лифты без машинного помещения грузоподъемностью 800-999 кг; лифты без машинного помещения грузоподъемность 1425-1500 кг; Лифты без машинного помещения грузоподъемностью 1275 кг; лифты без машинного помещения грузоподъемностью 1501-1600 кг; лифты с машинным помещением грузоподъемностью 630 кг; лифты с машинным помещением грузоподъемностью 1000 кг; лифты с машинным помещением грузоподъемностью 1425 кг; Лифты с машинным помещением грузоподъемностью 800 кг; лифты с машинным помещением грузоподъемностью 1600кг; лифты с машинным помещением грузоподъемностью 1275 кг</t>
-  </si>
-  <si>
-    <t>Подъемники</t>
-  </si>
-  <si>
-    <t>подъемники для ММГН наклонные; подъемники для ММГН вертикальные; грузовые без машинного помещения грузоподъемность 500-1000 кг; Технологические; эскалаторы</t>
-  </si>
-  <si>
-    <t>Геосинтетический материал</t>
-  </si>
-  <si>
-    <t>Решетка газонная</t>
-  </si>
-  <si>
-    <t>пластиковая; полимерпесчаная; бетонная; Пластиковая; Полимерпесчаный пластик; Бетонная</t>
-  </si>
-  <si>
-    <t>Плитка тротуарная</t>
-  </si>
-  <si>
-    <t>бетонная; гранитная; Бетонная; Натуральный камень; Композитная</t>
-  </si>
-  <si>
-    <t>Бордюр</t>
-  </si>
-  <si>
-    <t>бетонный; металлический; пластиковый</t>
-  </si>
-  <si>
-    <t>Водоотводной лоток</t>
-  </si>
-  <si>
-    <t>бетонный с решеткой; бетонный без решетки; полимербетон с решеткой; полимербетон без решетки; пластиковый без решетки; из нержавеющей стали без решетки; Бетонный; Полимербетон; Пластиковый</t>
-  </si>
-  <si>
-    <t>Решетки водоприемные</t>
-  </si>
-  <si>
-    <t>чугунные; оцинкованные; из нержавеющей стали; Чугунные; Стальные</t>
-  </si>
-  <si>
-    <t>Покрытия детских и спортивных площадок</t>
-  </si>
-  <si>
-    <t>резиновая крошка; каучуковая крошка; искусственный газон; из дерева; Резиновая крошка; Каучуковая крошка; Искусственный газон; Песок; Гранитный отсев</t>
-  </si>
-  <si>
-    <t>Кустарники</t>
-  </si>
-  <si>
-    <t>лиственные 41-80; лиственные 81-160; лиственные 161-280; лиственные 281-400; хвойные до 40; хвойные 41-80; хвойные 81-160; Лиственные 1-3 года; Лиственные 4-6 лет; Хвойные 1-3 года; Хвойные 4-6 лет</t>
-  </si>
-  <si>
-    <t>Деревья</t>
-  </si>
-  <si>
-    <t>лиственные 60-100; лиственные 101-200; лиственные 201-300; лиственные 301-400; лиственные 401-500; лиственные 501-600; хвойные 20-50; хвойные 51-100; хвойные 101-150; хвойные 151-200; хвойные 201-300; хвойные 301-400; Лиственные 1-3 года; Лиственные 4-5 лет; Лиственные 6-7 года; Лиственные 8-10 года; Хвойные 1-3 года; Хвойные 4-5 года; Хвойные 6-7 года; Хвойные 8-10 года</t>
-  </si>
-  <si>
-    <t>Цветы</t>
-  </si>
-  <si>
-    <t>Цветы; без описания; Микс</t>
-  </si>
-  <si>
-    <t>Газон</t>
-  </si>
-  <si>
-    <t>рулоный; семена; Рулоный; Семена</t>
-  </si>
-  <si>
-    <t>Ограждение территории</t>
-  </si>
-  <si>
-    <t>деревянное</t>
-  </si>
-  <si>
-    <t>Поливочное оборудование</t>
-  </si>
-  <si>
-    <t>автополив</t>
-  </si>
-  <si>
-    <t>Геосинтетические материалы</t>
-  </si>
-  <si>
-    <t>Бортовой камень</t>
-  </si>
-  <si>
-    <t>Бетонный; Пластиковый; Деревянный; Бордюр металлический</t>
-  </si>
-  <si>
-    <t>Водосточная шахта</t>
-  </si>
-  <si>
-    <t>Тактильные индикаторы</t>
-  </si>
-  <si>
-    <t>Металлические</t>
-  </si>
-  <si>
-    <t>Игровой комплекс</t>
-  </si>
-  <si>
-    <t>размер S; размер M; размер L</t>
-  </si>
-  <si>
-    <t>Спортивный комплекс</t>
-  </si>
-  <si>
-    <t>Отдельные элементы детской площадки</t>
-  </si>
-  <si>
-    <t>подвесные; отдельностоящие игровые; отдельностоящие спортивные; информационные</t>
-  </si>
-  <si>
-    <t>Уличная мебель</t>
-  </si>
-  <si>
-    <t>беседка; скамья; урна; стол; стул; табурет; шезлонг; навес</t>
-  </si>
-  <si>
-    <t>декоративный элемент</t>
-  </si>
-  <si>
-    <t>Декоративный элемент</t>
-  </si>
-  <si>
-    <t>с креплением; без крепления</t>
-  </si>
-  <si>
-    <t>ТБО</t>
-  </si>
-  <si>
-    <t>металлический; пластиковый</t>
-  </si>
-  <si>
-    <t>игровой комплекс</t>
-  </si>
-  <si>
-    <t>беседка</t>
-  </si>
-  <si>
-    <t>индивидуального изготовления</t>
-  </si>
-  <si>
-    <t>отдельные элементы площадки</t>
-  </si>
-  <si>
-    <t>уличная мебель</t>
-  </si>
-  <si>
-    <t>Стол; Стул; Амфитеатр; Табурет; Шезлонг; Кресло</t>
-  </si>
-  <si>
-    <t>скамья</t>
-  </si>
-  <si>
-    <t>урна</t>
-  </si>
-  <si>
-    <t>металлическая с деревом; металлическая</t>
-  </si>
-  <si>
-    <t>спортивный комплекс</t>
-  </si>
-  <si>
-    <t>наружное освещение</t>
-  </si>
-  <si>
-    <t>закладные детали опор освещения; опоры освещения; блоки питания; светильники; временное; Закладные детали опор освещения; Опора освещения; Светильник; Прожектор; Блок питания</t>
-  </si>
-  <si>
-    <t>наружное электроснабжение</t>
-  </si>
-  <si>
-    <t>муфты соединительные; уплотнители кабельных проходов; Муфта кабельная; Уплотнитель кабельных проходов</t>
-  </si>
-  <si>
-    <t>Колодцы</t>
-  </si>
-  <si>
-    <t>ЛОС</t>
-  </si>
-  <si>
-    <t>армированный стеклопластик</t>
-  </si>
-  <si>
-    <t>инженерные сооружения наружных сетей</t>
-  </si>
-  <si>
-    <t>Ж/б днище колодца; Ж/б днище тепловой камеры; Ж/б колодец; Ж/б кольцо колодца; Ж/б кольцо тепловой камеры; Ж/б лоток; Ж/б плита перекрытия колодца; Ж/б плита перекрытия лотка; Ж/б подушка под опору трубопровода; Ж/б покрытие тепловой камеры; Пластиковый колодец; Пластиковый люк; Чугунный люк; Люк из оцинкованной стали</t>
   </si>
   <si>
     <t>Доски</t>
@@ -2322,7 +2325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -2339,6 +2342,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2373,7 +2381,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2388,6 +2396,9 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2609,7 +2620,10 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -2711,7 +2725,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
@@ -2785,18 +2799,18 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>35</v>
@@ -2825,7 +2839,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>41</v>
@@ -2912,7 +2926,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>58</v>
@@ -3033,7 +3047,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>83</v>
@@ -3053,109 +3067,109 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="46" ht="15.75" hidden="1" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="48" ht="15.75" hidden="1" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="52" ht="15.75" hidden="1" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="53" ht="15.75" hidden="1" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>107</v>
@@ -3328,7 +3342,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>145</v>
@@ -3429,7 +3443,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>164</v>
@@ -3458,7 +3472,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>170</v>
@@ -3469,19 +3483,19 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" ht="15.75" hidden="1" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>169</v>
@@ -3490,185 +3504,185 @@
     <row r="90" ht="15.75" hidden="1" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" ht="15.75" hidden="1" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" ht="15.75" hidden="1" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" ht="15.75" hidden="1" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" ht="15.75" hidden="1" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" ht="15.75" hidden="1" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" ht="15.75" hidden="1" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" ht="15.75" hidden="1" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" ht="15.75" hidden="1" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" ht="15.75" hidden="1" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" ht="15.75" hidden="1" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>140</v>
@@ -3677,92 +3691,92 @@
     <row r="109" ht="15.75" hidden="1" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" ht="15.75" hidden="1" customHeight="1">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" ht="15.75" hidden="1" customHeight="1">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" ht="15.75" hidden="1" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
@@ -3770,28 +3784,28 @@
         <v>228</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" ht="15.75" hidden="1" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" ht="15.75" hidden="1" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
@@ -3799,268 +3813,268 @@
         <v>228</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" ht="15.75" hidden="1" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" ht="15.75" hidden="1" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126" ht="15.75" hidden="1" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" ht="15.75" hidden="1" customHeight="1">
       <c r="A129" s="4"/>
       <c r="B129" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" ht="15.75" hidden="1" customHeight="1">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" ht="15.75" hidden="1" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="135" ht="15.75" hidden="1" customHeight="1">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" ht="15.75" hidden="1" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="137" ht="15.75" hidden="1" customHeight="1">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="138" ht="15.75" hidden="1" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="139" ht="15.75" hidden="1" customHeight="1">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="140" ht="15.75" hidden="1" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141" ht="15.75" hidden="1" customHeight="1">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="142" ht="15.75" hidden="1" customHeight="1">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="143" ht="15.75" hidden="1" customHeight="1">
       <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="144" ht="15.75" hidden="1" customHeight="1">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" ht="15.75" hidden="1" customHeight="1">
       <c r="A145" s="4"/>
       <c r="B145" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="146" ht="15.75" hidden="1" customHeight="1">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>288</v>
@@ -4115,19 +4129,19 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="3" t="s">
-        <v>86</v>
+        <v>298</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="155" ht="15.75" hidden="1" customHeight="1">
       <c r="A155" s="4"/>
       <c r="B155" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>140</v>
@@ -4136,7 +4150,7 @@
     <row r="156" ht="15.75" hidden="1" customHeight="1">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>140</v>
@@ -4145,7 +4159,7 @@
     <row r="157" ht="15.75" hidden="1" customHeight="1">
       <c r="A157" s="4"/>
       <c r="B157" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>140</v>
@@ -4154,16 +4168,16 @@
     <row r="158" ht="15.75" hidden="1" customHeight="1">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="159" ht="15.75" hidden="1" customHeight="1">
       <c r="A159" s="4"/>
       <c r="B159" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>140</v>
@@ -4172,124 +4186,124 @@
     <row r="160" ht="15.75" hidden="1" customHeight="1">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="161" ht="15.75" hidden="1" customHeight="1">
       <c r="A161" s="4"/>
       <c r="B161" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="162" ht="15.75" hidden="1" customHeight="1">
       <c r="A162" s="3"/>
       <c r="B162" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="163" ht="15.75" hidden="1" customHeight="1">
       <c r="A163" s="4"/>
       <c r="B163" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C163" s="4"/>
     </row>
     <row r="164" ht="15.75" hidden="1" customHeight="1">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="165" ht="15.75" hidden="1" customHeight="1">
       <c r="A165" s="4"/>
       <c r="B165" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="166" ht="15.75" hidden="1" customHeight="1">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="167" ht="15.75" hidden="1" customHeight="1">
       <c r="A167" s="4"/>
       <c r="B167" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="168" ht="15.75" hidden="1" customHeight="1">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="4" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="170" ht="15.75" hidden="1" customHeight="1">
       <c r="A170" s="3"/>
       <c r="B170" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="171" ht="15.75" hidden="1" customHeight="1">
       <c r="A171" s="4"/>
       <c r="B171" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="172" ht="15.75" hidden="1" customHeight="1">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="173" ht="15.75" hidden="1" customHeight="1">
       <c r="A173" s="4"/>
       <c r="B173" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>140</v>
@@ -4298,15 +4312,15 @@
     <row r="174" ht="15.75" hidden="1" customHeight="1">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="4" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>335</v>
@@ -4335,7 +4349,7 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="3" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>341</v>
@@ -4355,7 +4369,7 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="3" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>345</v>
@@ -4393,55 +4407,55 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>13</v>
+        <v>353</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="185" ht="15.75" hidden="1" customHeight="1">
       <c r="A185" s="4"/>
       <c r="B185" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="186" ht="15.75" hidden="1" customHeight="1">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="187" ht="15.75" hidden="1" customHeight="1">
       <c r="A187" s="4"/>
       <c r="B187" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="188" ht="15.75" hidden="1" customHeight="1">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="189" ht="15.75" hidden="1" customHeight="1">
       <c r="A189" s="4"/>
       <c r="B189" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>344</v>
@@ -4450,48 +4464,48 @@
     <row r="190" ht="15.75" hidden="1" customHeight="1">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="191" ht="15.75" hidden="1" customHeight="1">
       <c r="A191" s="4"/>
       <c r="B191" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="3" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="193" ht="15.75" hidden="1" customHeight="1">
       <c r="A193" s="4"/>
       <c r="B193" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="194" ht="15.75" hidden="1" customHeight="1">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="195" ht="15.75" hidden="1" customHeight="1">
@@ -4500,105 +4514,105 @@
         <v>15</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="196" ht="15.75" hidden="1" customHeight="1">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="197" ht="15.75" hidden="1" customHeight="1">
       <c r="A197" s="4"/>
       <c r="B197" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="198" ht="15.75" hidden="1" customHeight="1">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="199" ht="15.75" hidden="1" customHeight="1">
       <c r="A199" s="4"/>
       <c r="B199" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="200" ht="15.75" hidden="1" customHeight="1">
       <c r="A200" s="3"/>
       <c r="B200" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="201" ht="15.75" hidden="1" customHeight="1">
       <c r="A201" s="4"/>
       <c r="B201" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="202" ht="15.75" hidden="1" customHeight="1">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="204" ht="15.75" hidden="1" customHeight="1">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="205" ht="15.75" hidden="1" customHeight="1">
       <c r="A205" s="4"/>
       <c r="B205" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="206" ht="15.75" hidden="1" customHeight="1">
       <c r="A206" s="3"/>
       <c r="B206" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>140</v>
@@ -4607,7 +4621,7 @@
     <row r="207" ht="15.75" hidden="1" customHeight="1">
       <c r="A207" s="4"/>
       <c r="B207" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>140</v>
@@ -4616,7 +4630,7 @@
     <row r="208" ht="15.75" hidden="1" customHeight="1">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>140</v>
@@ -4625,7 +4639,7 @@
     <row r="209" ht="15.75" hidden="1" customHeight="1">
       <c r="A209" s="4"/>
       <c r="B209" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>140</v>
@@ -4634,7 +4648,7 @@
     <row r="210" ht="15.75" hidden="1" customHeight="1">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>140</v>
@@ -4643,7 +4657,7 @@
     <row r="211" ht="15.75" hidden="1" customHeight="1">
       <c r="A211" s="4"/>
       <c r="B211" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>140</v>
@@ -4652,7 +4666,7 @@
     <row r="212" ht="15.75" hidden="1" customHeight="1">
       <c r="A212" s="3"/>
       <c r="B212" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>140</v>
@@ -4661,16 +4675,16 @@
     <row r="213" ht="15.75" hidden="1" customHeight="1">
       <c r="A213" s="4"/>
       <c r="B213" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="214" ht="15.75" hidden="1" customHeight="1">
       <c r="A214" s="3"/>
       <c r="B214" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>140</v>
@@ -4679,86 +4693,86 @@
     <row r="215" ht="15.75" hidden="1" customHeight="1">
       <c r="A215" s="4"/>
       <c r="B215" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="216" ht="15.75" hidden="1" customHeight="1">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="217" ht="15.75" hidden="1" customHeight="1">
       <c r="A217" s="4"/>
       <c r="B217" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="218" ht="15.75" hidden="1" customHeight="1">
       <c r="A218" s="3"/>
       <c r="B218" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>417</v>
@@ -4789,7 +4803,7 @@
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="3" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>422</v>
@@ -4800,7 +4814,7 @@
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="4" t="s">
-        <v>16</v>
+        <v>424</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>424</v>
@@ -4811,7 +4825,7 @@
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="3" t="s">
-        <v>16</v>
+        <v>426</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>426</v>
@@ -4825,157 +4839,157 @@
         <v>428</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>17</v>
+        <v>431</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="234" ht="15.75" hidden="1" customHeight="1">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="237" ht="15.75" hidden="1" customHeight="1">
       <c r="A237" s="4"/>
       <c r="B237" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="238" ht="15.75" hidden="1" customHeight="1">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="239" ht="15.75" hidden="1" customHeight="1">
       <c r="A239" s="4"/>
       <c r="B239" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="240" ht="15.75" hidden="1" customHeight="1">
       <c r="A240" s="3"/>
       <c r="B240" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="4" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="3" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="243" ht="15.75" hidden="1" customHeight="1">
       <c r="A243" s="4"/>
       <c r="B243" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>459</v>
@@ -4995,21 +5009,21 @@
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="3" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>466</v>
@@ -5017,7 +5031,7 @@
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="3" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>467</v>
@@ -5028,7 +5042,7 @@
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="4" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>469</v>
@@ -5039,7 +5053,7 @@
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="3" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>471</v>
@@ -5097,243 +5111,243 @@
         <v>481</v>
       </c>
       <c r="B255" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C255" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="256" ht="15.75" hidden="1" customHeight="1">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="4" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B257" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C257" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C259" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="C260" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C261" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C262" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="263" ht="15.75" hidden="1" customHeight="1">
       <c r="A263" s="4"/>
       <c r="B263" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="3" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>502</v>
+        <v>23</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="4" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="3" t="s">
-        <v>86</v>
+        <v>491</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="4" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="270" ht="15.75" hidden="1" customHeight="1">
       <c r="A270" s="3"/>
       <c r="B270" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="4" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="274" ht="15.75" hidden="1" customHeight="1">
       <c r="A274" s="3"/>
       <c r="B274" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C274" s="3" t="s">
         <v>520</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="275" ht="15.75" hidden="1" customHeight="1">
       <c r="A275" s="4"/>
       <c r="B275" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C275" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="276" ht="15.75" hidden="1" customHeight="1">
       <c r="A276" s="3"/>
       <c r="B276" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C276" s="3" t="s">
         <v>524</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="277" ht="15.75" hidden="1" customHeight="1">
       <c r="A277" s="4"/>
       <c r="B277" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C277" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>528</v>
@@ -5344,7 +5358,7 @@
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>530</v>
@@ -5358,15 +5372,15 @@
         <v>532</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>535</v>
@@ -5377,87 +5391,87 @@
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>537</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B283" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="B283" s="4" t="s">
+      <c r="C283" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="3" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="4" t="s">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>430</v>
+        <v>551</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>552</v>
@@ -5492,246 +5506,246 @@
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C293" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="294" ht="15.75" hidden="1" customHeight="1">
       <c r="A294" s="3"/>
       <c r="B294" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C295" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="296" ht="15.75" hidden="1" customHeight="1">
       <c r="A296" s="3"/>
       <c r="B296" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C296" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C297" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="B297" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="C297" s="4" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="299" ht="15.75" hidden="1" customHeight="1">
       <c r="A299" s="4"/>
       <c r="B299" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C299" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="C299" s="4" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="300" ht="15.75" hidden="1" customHeight="1">
       <c r="A300" s="3"/>
       <c r="B300" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="4" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="B301" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C301" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="C301" s="4" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="3" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>575</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="303" ht="15.75" hidden="1" customHeight="1">
       <c r="A303" s="4"/>
       <c r="B303" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C303" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="304" ht="15.75" hidden="1" customHeight="1">
       <c r="A304" s="3"/>
       <c r="B304" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="4" t="s">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="B305" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C305" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="3" t="s">
-        <v>539</v>
+        <v>582</v>
       </c>
       <c r="B306" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C306" s="3" t="s">
         <v>583</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C307" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="308" ht="15.75" hidden="1" customHeight="1">
       <c r="A308" s="3"/>
       <c r="B308" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C308" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="309" ht="15.75" hidden="1" customHeight="1">
       <c r="A309" s="4"/>
       <c r="B309" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C309" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="C309" s="4" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="310" ht="15.75" hidden="1" customHeight="1">
       <c r="A310" s="3"/>
       <c r="B310" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C310" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="311" ht="15.75" hidden="1" customHeight="1">
       <c r="A311" s="4"/>
       <c r="B311" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C311" s="4" t="s">
         <v>593</v>
-      </c>
-      <c r="C311" s="4" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="312" ht="15.75" hidden="1" customHeight="1">
       <c r="A312" s="3"/>
       <c r="B312" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="313" ht="15.75" hidden="1" customHeight="1">
       <c r="A313" s="4"/>
       <c r="B313" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C313" s="4" t="s">
         <v>597</v>
-      </c>
-      <c r="C313" s="4" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="314" ht="15.75" hidden="1" customHeight="1">
       <c r="A314" s="3"/>
       <c r="B314" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C314" s="3" t="s">
         <v>599</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="315" ht="15.75" hidden="1" customHeight="1">
       <c r="A315" s="4"/>
       <c r="B315" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C315" s="4" t="s">
         <v>601</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B316" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="C316" s="3" t="s">
         <v>604</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>605</v>
@@ -5740,60 +5754,60 @@
     <row r="318" ht="15.75" hidden="1" customHeight="1">
       <c r="A318" s="3"/>
       <c r="B318" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C318" s="3" t="s">
         <v>607</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="4" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B319" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C319" s="4" t="s">
         <v>609</v>
-      </c>
-      <c r="C319" s="4" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="320" ht="15.75" hidden="1" customHeight="1">
       <c r="A320" s="3"/>
       <c r="B320" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C320" s="3" t="s">
         <v>611</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C321" s="4" t="s">
         <v>613</v>
-      </c>
-      <c r="B321" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="C321" s="4" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="3" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>21</v>
+        <v>615</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="4" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>616</v>
@@ -5801,30 +5815,30 @@
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="325" ht="15.75" hidden="1" customHeight="1">
       <c r="A325" s="4"/>
       <c r="B325" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="3" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>621</v>
+        <v>21</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>622</v>
@@ -5832,160 +5846,160 @@
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C327" s="4" t="s">
         <v>623</v>
-      </c>
-      <c r="B327" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="C327" s="4" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C328" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="B328" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C329" s="4" t="s">
         <v>627</v>
-      </c>
-      <c r="B329" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C329" s="4" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="330" ht="15.75" hidden="1" customHeight="1">
       <c r="A330" s="3"/>
       <c r="B330" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>629</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="C331" s="4" t="s">
         <v>631</v>
-      </c>
-      <c r="B331" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="C331" s="4" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C332" s="3" t="s">
         <v>633</v>
-      </c>
-      <c r="B332" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C333" s="4" t="s">
         <v>635</v>
-      </c>
-      <c r="B333" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="C333" s="4" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C335" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="B335" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="C335" s="4" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="B336" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C337" s="4" t="s">
         <v>644</v>
-      </c>
-      <c r="B337" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="C337" s="4" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="338" ht="15.75" hidden="1" customHeight="1">
       <c r="A338" s="3"/>
       <c r="B338" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C338" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="4" t="s">
-        <v>504</v>
+        <v>647</v>
       </c>
       <c r="B339" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C339" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="C339" s="4" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="3" t="s">
-        <v>504</v>
+        <v>649</v>
       </c>
       <c r="B340" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C340" s="3" t="s">
         <v>650</v>
-      </c>
-      <c r="C340" s="3" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="4" t="s">
-        <v>504</v>
+        <v>649</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>23</v>
+        <v>651</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>652</v>
@@ -5993,7 +6007,7 @@
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="3" t="s">
-        <v>504</v>
+        <v>653</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>653</v>
@@ -6004,21 +6018,21 @@
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="4" t="s">
-        <v>504</v>
+        <v>655</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="3" t="s">
-        <v>504</v>
+        <v>655</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>658</v>
@@ -6037,7 +6051,7 @@
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="3" t="s">
-        <v>504</v>
+        <v>659</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>661</v>
@@ -6068,7 +6082,7 @@
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="4" t="s">
-        <v>504</v>
+        <v>666</v>
       </c>
       <c r="B349" s="4" t="s">
         <v>666</v>
@@ -6091,27 +6105,27 @@
         <v>670</v>
       </c>
       <c r="B351" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C351" s="4" t="s">
         <v>671</v>
-      </c>
-      <c r="C351" s="4" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="352" ht="15.75" hidden="1" customHeight="1">
       <c r="A352" s="3"/>
       <c r="B352" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C352" s="3" t="s">
         <v>673</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="4" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>675</v>
@@ -6146,7 +6160,7 @@
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="4" t="s">
-        <v>228</v>
+        <v>681</v>
       </c>
       <c r="B357" s="4" t="s">
         <v>681</v>
@@ -6309,7 +6323,7 @@
     </row>
     <row r="374" ht="15.75" customHeight="1">
       <c r="A374" s="3" t="s">
-        <v>9</v>
+        <v>712</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>712</v>
@@ -6320,7 +6334,7 @@
     </row>
     <row r="375" ht="15.75" customHeight="1">
       <c r="A375" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B375" s="4" t="s">
         <v>714</v>
@@ -6334,83 +6348,83 @@
         <v>716</v>
       </c>
       <c r="B376" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C376" s="3" t="s">
         <v>717</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="377" ht="15.75" hidden="1" customHeight="1">
       <c r="A377" s="4"/>
       <c r="B377" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C377" s="4" t="s">
         <v>719</v>
-      </c>
-      <c r="C377" s="4" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="378" ht="15.75" hidden="1" customHeight="1">
       <c r="A378" s="3"/>
       <c r="B378" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="379" ht="15.75" hidden="1" customHeight="1">
       <c r="A379" s="4"/>
       <c r="B379" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C379" s="4" t="s">
         <v>722</v>
-      </c>
-      <c r="C379" s="4" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="380" ht="15.75" customHeight="1">
       <c r="A380" s="3" t="s">
-        <v>9</v>
+        <v>723</v>
       </c>
       <c r="B380" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C380" s="3" t="s">
         <v>724</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="381" ht="15.75" customHeight="1">
       <c r="A381" s="4" t="s">
-        <v>714</v>
+        <v>8</v>
       </c>
       <c r="B381" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C381" s="4" t="s">
         <v>725</v>
-      </c>
-      <c r="C381" s="4" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="382" ht="15.75" hidden="1" customHeight="1">
       <c r="A382" s="3"/>
       <c r="B382" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="383" ht="15.75" hidden="1" customHeight="1">
       <c r="A383" s="4"/>
       <c r="B383" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C383" s="4" t="s">
         <v>728</v>
-      </c>
-      <c r="C383" s="4" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="384" ht="15.75" hidden="1" customHeight="1">
       <c r="A384" s="3"/>
       <c r="B384" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>711</v>
@@ -6418,33 +6432,33 @@
     </row>
     <row r="385" ht="15.75" customHeight="1">
       <c r="A385" s="4" t="s">
-        <v>716</v>
+        <v>730</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>716</v>
+        <v>730</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
     </row>
     <row r="386" ht="15.75" customHeight="1">
       <c r="A386" s="3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="387" ht="15.75" hidden="1" customHeight="1">
       <c r="A387" s="4"/>
       <c r="B387" s="4" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="388" ht="15.75" hidden="1" customHeight="1">
@@ -6453,153 +6467,153 @@
         <v>29</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="389" ht="15.75" hidden="1" customHeight="1">
       <c r="A389" s="4"/>
       <c r="B389" s="4" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="390" ht="15.75" customHeight="1">
       <c r="A390" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="391" ht="15.75" hidden="1" customHeight="1">
       <c r="A391" s="4"/>
       <c r="B391" s="4" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="392" ht="15.75" hidden="1" customHeight="1">
       <c r="A392" s="3"/>
       <c r="B392" s="3" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="393" ht="15.75" hidden="1" customHeight="1">
       <c r="A393" s="4"/>
       <c r="B393" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="394" ht="15.75" hidden="1" customHeight="1">
       <c r="A394" s="3"/>
       <c r="B394" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="395" ht="15.75" hidden="1" customHeight="1">
       <c r="A395" s="4"/>
       <c r="B395" s="4" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="396" ht="15.75" hidden="1" customHeight="1">
       <c r="A396" s="3"/>
       <c r="B396" s="3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="397" ht="15.75" hidden="1" customHeight="1">
       <c r="A397" s="4"/>
       <c r="B397" s="4" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="398" ht="15.75" hidden="1" customHeight="1">
       <c r="A398" s="3"/>
       <c r="B398" s="3" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="399" ht="15.75" hidden="1" customHeight="1">
       <c r="A399" s="4"/>
       <c r="B399" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="400" ht="15.75" hidden="1" customHeight="1">
       <c r="A400" s="3"/>
       <c r="B400" s="3" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="401" ht="15.75" hidden="1" customHeight="1">
       <c r="A401" s="4"/>
       <c r="B401" s="4" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="402" ht="15.75" hidden="1" customHeight="1">
       <c r="A402" s="3"/>
       <c r="B402" s="3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="403" ht="15.75" hidden="1" customHeight="1">
       <c r="A403" s="4"/>
       <c r="B403" s="4" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="404" ht="15.75" hidden="1" customHeight="1">
       <c r="A404" s="3"/>
       <c r="B404" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="405" ht="15.75" customHeight="1"/>
@@ -7210,12 +7224,12 @@
         <filter val="Ограждение лестниц, кровли, балконов и лоджий"/>
         <filter val="Изделия из оцинкованной стали"/>
         <filter val="Покрытие воздуховодов огнезащитное и теплозащитное"/>
+        <filter val="Вентиляторы"/>
         <filter val="Кран"/>
-        <filter val="Вентиляторы"/>
         <filter val="Пенопласт"/>
         <filter val="Бак  расширительный"/>
+        <filter val="Лифты"/>
         <filter val="Материалы для молниезащиты и заземления"/>
-        <filter val="Лифты"/>
         <filter val="Сваи железобетонные"/>
         <filter val="Плинтус"/>
         <filter val="Панель"/>
@@ -7226,12 +7240,12 @@
         <filter val="Арматура трубопроводная"/>
         <filter val="наружное освещение"/>
         <filter val="Опоры"/>
+        <filter val="Двери, люки и ворота"/>
         <filter val="Потолок натяжной"/>
-        <filter val="Двери, люки и ворота"/>
         <filter val="Двутавр"/>
         <filter val="Электроустановочные изделия и материалы"/>
+        <filter val="Решетка вентиляционная"/>
         <filter val="Фасадная подсистема"/>
-        <filter val="Решетка вентиляционная"/>
         <filter val="Арматура для подключения отопительных приборов"/>
         <filter val="Задвижка"/>
         <filter val="Фитинги и фасонные части"/>
@@ -7266,8 +7280,8 @@
         <filter val="Уличная мебель"/>
         <filter val="Арматура"/>
         <filter val="Цветы"/>
+        <filter val="Аппаратура"/>
         <filter val="Кирпич"/>
-        <filter val="Аппаратура"/>
         <filter val="Коллекторы, распределительные узлы"/>
         <filter val="Базальтовая плита"/>
         <filter val="Металлокассеты"/>
@@ -7275,12 +7289,12 @@
         <filter val="Кондиционер"/>
         <filter val="Гидроизоляция"/>
         <filter val="Сантехнические устройства"/>
+        <filter val="Клапан общеобменной вентиляции"/>
         <filter val="Почтовый ящик"/>
-        <filter val="Клапан общеобменной вентиляции"/>
         <filter val="декоративный элемент"/>
         <filter val="Прочее оборудование для насосных"/>
+        <filter val="Калориферы"/>
         <filter val="Экструдированный пенополистирол"/>
-        <filter val="Калориферы"/>
         <filter val="Металлическая сетка"/>
         <filter val="Труба"/>
         <filter val="Тепловые завесы"/>
@@ -7291,9 +7305,9 @@
         <filter val="Элементы для герметизации швов"/>
         <filter val="Прибор осветительный"/>
         <filter val="Приборы учета и измерительные"/>
-        <filter val="Противопожарное оборудование"/>
         <filter val="Воздуховоды"/>
         <filter val="Клапаны вентиляционные"/>
+        <filter val="Противопожарное оборудование"/>
         <filter val="Фасонные части"/>
         <filter val="Затвор"/>
         <filter val="инженерные сооружения наружных сетей"/>
@@ -7312,6 +7326,9 @@
         <filter val="Кабель для передачи информации"/>
       </filters>
     </filterColumn>
+    <sortState ref="A1:C404">
+      <sortCondition ref="A1:A404"/>
+    </sortState>
   </autoFilter>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
